--- a/excel_sheets/Microdata_metadata.xlsx
+++ b/excel_sheets/Microdata_metadata.xlsx
@@ -509,7 +509,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>microdata type metadata version 20240905.1</t>
+          <t>microdata type metadata version 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>

--- a/excel_sheets/Microdata_metadata.xlsx
+++ b/excel_sheets/Microdata_metadata.xlsx
@@ -1860,10 +1860,8 @@
           <t>id</t>
         </is>
       </c>
-      <c r="C2" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D2" s="6" t="inlineStr"/>
+      <c r="C2" s="6" t="inlineStr"/>
+      <c r="D2" s="6" t="n"/>
       <c r="E2" s="6" t="n"/>
       <c r="F2" s="6" t="n"/>
       <c r="G2" s="6" t="n"/>
@@ -1898,9 +1896,7 @@
           <t>description</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
-        <v/>
-      </c>
+      <c r="C3" s="6" t="n"/>
       <c r="D3" s="6" t="n"/>
       <c r="E3" s="6" t="n"/>
       <c r="F3" s="6" t="n"/>
@@ -1936,9 +1932,7 @@
           <t>date</t>
         </is>
       </c>
-      <c r="C4" s="5" t="n">
-        <v/>
-      </c>
+      <c r="C4" s="6" t="n"/>
       <c r="D4" s="6" t="n"/>
       <c r="E4" s="6" t="n"/>
       <c r="F4" s="6" t="n"/>
@@ -1974,8 +1968,12 @@
           <t>vector</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr"/>
-      <c r="D5" s="6" t="inlineStr"/>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>[""]</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="n"/>
       <c r="E5" s="6" t="n"/>
       <c r="F5" s="6" t="n"/>
       <c r="G5" s="6" t="n"/>
@@ -2006,7 +2004,7 @@
     <row r="6">
       <c r="A6" s="4" t="n"/>
       <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
+      <c r="C6" s="2" t="n"/>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -4623,7 +4621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD210"/>
+  <dimension ref="A1:AD231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4636,7 +4634,6 @@
     <col width="26" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="30" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7429,8 +7426,10 @@
       <c r="C78" s="5" t="n">
         <v/>
       </c>
-      <c r="D78" s="6" t="n"/>
-      <c r="E78" s="2" t="n"/>
+      <c r="D78" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E78" s="6" t="n"/>
       <c r="F78" s="2" t="n"/>
       <c r="G78" s="2" t="n"/>
       <c r="H78" s="2" t="n"/>
@@ -7469,7 +7468,9 @@
           <t>keyword</t>
         </is>
       </c>
-      <c r="D79" s="6" t="n"/>
+      <c r="D79" s="5" t="n">
+        <v/>
+      </c>
       <c r="E79" s="6" t="n"/>
       <c r="F79" s="6" t="n"/>
       <c r="G79" s="6" t="n"/>
@@ -7505,7 +7506,9 @@
           <t>vocab</t>
         </is>
       </c>
-      <c r="D80" s="6" t="n"/>
+      <c r="D80" s="5" t="n">
+        <v/>
+      </c>
       <c r="E80" s="6" t="n"/>
       <c r="F80" s="6" t="n"/>
       <c r="G80" s="6" t="n"/>
@@ -7541,7 +7544,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D81" s="6" t="n"/>
+      <c r="D81" s="5" t="n">
+        <v/>
+      </c>
       <c r="E81" s="6" t="n"/>
       <c r="F81" s="6" t="n"/>
       <c r="G81" s="6" t="n"/>
@@ -7581,8 +7586,10 @@
           <t>topic</t>
         </is>
       </c>
-      <c r="D82" s="6" t="inlineStr"/>
-      <c r="E82" s="6" t="n"/>
+      <c r="D82" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E82" s="6" t="inlineStr"/>
       <c r="F82" s="6" t="n"/>
       <c r="G82" s="6" t="n"/>
       <c r="H82" s="6" t="n"/>
@@ -7617,7 +7624,9 @@
           <t>vocab</t>
         </is>
       </c>
-      <c r="D83" s="6" t="n"/>
+      <c r="D83" s="5" t="n">
+        <v/>
+      </c>
       <c r="E83" s="6" t="n"/>
       <c r="F83" s="6" t="n"/>
       <c r="G83" s="6" t="n"/>
@@ -7653,7 +7662,9 @@
           <t>uri</t>
         </is>
       </c>
-      <c r="D84" s="6" t="n"/>
+      <c r="D84" s="5" t="n">
+        <v/>
+      </c>
       <c r="E84" s="6" t="n"/>
       <c r="F84" s="6" t="n"/>
       <c r="G84" s="6" t="n"/>
@@ -7691,8 +7702,10 @@
       <c r="C85" s="5" t="n">
         <v/>
       </c>
-      <c r="D85" s="6" t="n"/>
-      <c r="E85" s="2" t="n"/>
+      <c r="D85" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E85" s="6" t="n"/>
       <c r="F85" s="2" t="n"/>
       <c r="G85" s="2" t="n"/>
       <c r="H85" s="2" t="n"/>
@@ -7731,8 +7744,10 @@
           <t>start</t>
         </is>
       </c>
-      <c r="D86" s="6" t="inlineStr"/>
-      <c r="E86" s="6" t="n"/>
+      <c r="D86" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E86" s="6" t="inlineStr"/>
       <c r="F86" s="6" t="n"/>
       <c r="G86" s="6" t="n"/>
       <c r="H86" s="6" t="n"/>
@@ -7767,7 +7782,9 @@
           <t>end</t>
         </is>
       </c>
-      <c r="D87" s="6" t="n"/>
+      <c r="D87" s="5" t="n">
+        <v/>
+      </c>
       <c r="E87" s="6" t="n"/>
       <c r="F87" s="6" t="n"/>
       <c r="G87" s="6" t="n"/>
@@ -7803,7 +7820,9 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="D88" s="6" t="n"/>
+      <c r="D88" s="5" t="n">
+        <v/>
+      </c>
       <c r="E88" s="6" t="n"/>
       <c r="F88" s="6" t="n"/>
       <c r="G88" s="6" t="n"/>
@@ -7843,8 +7862,10 @@
           <t>start</t>
         </is>
       </c>
-      <c r="D89" s="6" t="inlineStr"/>
-      <c r="E89" s="6" t="n"/>
+      <c r="D89" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E89" s="6" t="inlineStr"/>
       <c r="F89" s="6" t="n"/>
       <c r="G89" s="6" t="n"/>
       <c r="H89" s="6" t="n"/>
@@ -7879,7 +7900,9 @@
           <t>end</t>
         </is>
       </c>
-      <c r="D90" s="6" t="n"/>
+      <c r="D90" s="5" t="n">
+        <v/>
+      </c>
       <c r="E90" s="6" t="n"/>
       <c r="F90" s="6" t="n"/>
       <c r="G90" s="6" t="n"/>
@@ -7915,7 +7938,9 @@
           <t>cycle</t>
         </is>
       </c>
-      <c r="D91" s="6" t="n"/>
+      <c r="D91" s="5" t="n">
+        <v/>
+      </c>
       <c r="E91" s="6" t="n"/>
       <c r="F91" s="6" t="n"/>
       <c r="G91" s="6" t="n"/>
@@ -7955,8 +7980,10 @@
           <t>name</t>
         </is>
       </c>
-      <c r="D92" s="6" t="inlineStr"/>
-      <c r="E92" s="6" t="n"/>
+      <c r="D92" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E92" s="6" t="inlineStr"/>
       <c r="F92" s="6" t="n"/>
       <c r="G92" s="6" t="n"/>
       <c r="H92" s="6" t="n"/>
@@ -7991,7 +8018,9 @@
           <t>abbreviation</t>
         </is>
       </c>
-      <c r="D93" s="6" t="n"/>
+      <c r="D93" s="5" t="n">
+        <v/>
+      </c>
       <c r="E93" s="6" t="n"/>
       <c r="F93" s="6" t="n"/>
       <c r="G93" s="6" t="n"/>
@@ -8031,7 +8060,9 @@
           <t>west</t>
         </is>
       </c>
-      <c r="D94" s="6" t="n"/>
+      <c r="D94" s="5" t="n">
+        <v/>
+      </c>
       <c r="E94" s="6" t="n"/>
       <c r="F94" s="6" t="n"/>
       <c r="G94" s="6" t="n"/>
@@ -8067,7 +8098,9 @@
           <t>east</t>
         </is>
       </c>
-      <c r="D95" s="6" t="n"/>
+      <c r="D95" s="5" t="n">
+        <v/>
+      </c>
       <c r="E95" s="6" t="n"/>
       <c r="F95" s="6" t="n"/>
       <c r="G95" s="6" t="n"/>
@@ -8103,7 +8136,9 @@
           <t>south</t>
         </is>
       </c>
-      <c r="D96" s="6" t="n"/>
+      <c r="D96" s="5" t="n">
+        <v/>
+      </c>
       <c r="E96" s="6" t="n"/>
       <c r="F96" s="6" t="n"/>
       <c r="G96" s="6" t="n"/>
@@ -8139,7 +8174,9 @@
           <t>north</t>
         </is>
       </c>
-      <c r="D97" s="6" t="n"/>
+      <c r="D97" s="5" t="n">
+        <v/>
+      </c>
       <c r="E97" s="6" t="n"/>
       <c r="F97" s="6" t="n"/>
       <c r="G97" s="6" t="n"/>
@@ -8179,7 +8216,9 @@
           <t>lat</t>
         </is>
       </c>
-      <c r="D98" s="6" t="n"/>
+      <c r="D98" s="5" t="n">
+        <v/>
+      </c>
       <c r="E98" s="6" t="n"/>
       <c r="F98" s="6" t="n"/>
       <c r="G98" s="6" t="n"/>
@@ -8215,7 +8254,9 @@
           <t>lon</t>
         </is>
       </c>
-      <c r="D99" s="6" t="n"/>
+      <c r="D99" s="5" t="n">
+        <v/>
+      </c>
       <c r="E99" s="6" t="n"/>
       <c r="F99" s="6" t="n"/>
       <c r="G99" s="6" t="n"/>
@@ -8253,8 +8294,10 @@
       <c r="C100" s="5" t="n">
         <v/>
       </c>
-      <c r="D100" s="6" t="n"/>
-      <c r="E100" s="2" t="n"/>
+      <c r="D100" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E100" s="6" t="n"/>
       <c r="F100" s="2" t="n"/>
       <c r="G100" s="2" t="n"/>
       <c r="H100" s="2" t="n"/>
@@ -8291,8 +8334,10 @@
       <c r="C101" s="5" t="n">
         <v/>
       </c>
-      <c r="D101" s="6" t="n"/>
-      <c r="E101" s="2" t="n"/>
+      <c r="D101" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E101" s="6" t="n"/>
       <c r="F101" s="2" t="n"/>
       <c r="G101" s="2" t="n"/>
       <c r="H101" s="2" t="n"/>
@@ -8329,8 +8374,10 @@
       <c r="C102" s="5" t="n">
         <v/>
       </c>
-      <c r="D102" s="6" t="n"/>
-      <c r="E102" s="2" t="n"/>
+      <c r="D102" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E102" s="6" t="n"/>
       <c r="F102" s="2" t="n"/>
       <c r="G102" s="2" t="n"/>
       <c r="H102" s="2" t="n"/>
@@ -8367,8 +8414,10 @@
       <c r="C103" s="5" t="n">
         <v/>
       </c>
-      <c r="D103" s="6" t="n"/>
-      <c r="E103" s="2" t="n"/>
+      <c r="D103" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E103" s="6" t="n"/>
       <c r="F103" s="2" t="n"/>
       <c r="G103" s="2" t="n"/>
       <c r="H103" s="2" t="n"/>
@@ -8405,8 +8454,10 @@
       <c r="C104" s="5" t="n">
         <v/>
       </c>
-      <c r="D104" s="6" t="n"/>
-      <c r="E104" s="2" t="n"/>
+      <c r="D104" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E104" s="6" t="n"/>
       <c r="F104" s="2" t="n"/>
       <c r="G104" s="2" t="n"/>
       <c r="H104" s="2" t="n"/>
@@ -8443,8 +8494,10 @@
       <c r="C105" s="5" t="n">
         <v/>
       </c>
-      <c r="D105" s="6" t="n"/>
-      <c r="E105" s="2" t="n"/>
+      <c r="D105" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E105" s="6" t="n"/>
       <c r="F105" s="2" t="n"/>
       <c r="G105" s="2" t="n"/>
       <c r="H105" s="2" t="n"/>
@@ -8481,8 +8534,10 @@
       <c r="C106" s="5" t="n">
         <v/>
       </c>
-      <c r="D106" s="6" t="n"/>
-      <c r="E106" s="2" t="n"/>
+      <c r="D106" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E106" s="6" t="n"/>
       <c r="F106" s="2" t="n"/>
       <c r="G106" s="2" t="n"/>
       <c r="H106" s="2" t="n"/>
@@ -8521,8 +8576,10 @@
           <t>compliance_description</t>
         </is>
       </c>
-      <c r="D107" s="6" t="n"/>
-      <c r="E107" s="2" t="n"/>
+      <c r="D107" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E107" s="6" t="n"/>
       <c r="F107" s="2" t="n"/>
       <c r="G107" s="2" t="n"/>
       <c r="H107" s="2" t="n"/>
@@ -8557,88 +8614,86 @@
           <t>standards</t>
         </is>
       </c>
-      <c r="D108" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": null, "producer": null}]</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="n"/>
-      <c r="F108" s="2" t="n"/>
-      <c r="G108" s="2" t="n"/>
-      <c r="H108" s="2" t="n"/>
-      <c r="I108" s="2" t="n"/>
-      <c r="J108" s="2" t="n"/>
-      <c r="K108" s="2" t="n"/>
-      <c r="L108" s="2" t="n"/>
-      <c r="M108" s="2" t="n"/>
-      <c r="N108" s="2" t="n"/>
-      <c r="O108" s="2" t="n"/>
-      <c r="P108" s="2" t="n"/>
-      <c r="Q108" s="2" t="n"/>
-      <c r="R108" s="2" t="n"/>
-      <c r="S108" s="2" t="n"/>
-      <c r="T108" s="2" t="n"/>
-      <c r="U108" s="2" t="n"/>
-      <c r="V108" s="2" t="n"/>
-      <c r="W108" s="2" t="n"/>
-      <c r="X108" s="2" t="n"/>
-      <c r="Y108" s="2" t="n"/>
-      <c r="Z108" s="2" t="n"/>
-      <c r="AA108" s="2" t="n"/>
-      <c r="AB108" s="2" t="n"/>
-      <c r="AC108" s="2" t="n"/>
-      <c r="AD108" s="2" t="n"/>
+      <c r="D108" s="5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E108" s="6" t="n"/>
+      <c r="F108" s="6" t="n"/>
+      <c r="G108" s="6" t="n"/>
+      <c r="H108" s="6" t="n"/>
+      <c r="I108" s="6" t="n"/>
+      <c r="J108" s="6" t="n"/>
+      <c r="K108" s="6" t="n"/>
+      <c r="L108" s="6" t="n"/>
+      <c r="M108" s="6" t="n"/>
+      <c r="N108" s="6" t="n"/>
+      <c r="O108" s="6" t="n"/>
+      <c r="P108" s="6" t="n"/>
+      <c r="Q108" s="6" t="n"/>
+      <c r="R108" s="6" t="n"/>
+      <c r="S108" s="6" t="n"/>
+      <c r="T108" s="6" t="n"/>
+      <c r="U108" s="6" t="n"/>
+      <c r="V108" s="6" t="n"/>
+      <c r="W108" s="6" t="n"/>
+      <c r="X108" s="6" t="n"/>
+      <c r="Y108" s="6" t="n"/>
+      <c r="Z108" s="6" t="n"/>
+      <c r="AA108" s="6" t="n"/>
+      <c r="AB108" s="6" t="n"/>
+      <c r="AC108" s="6" t="n"/>
+      <c r="AD108" s="6" t="n"/>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr"/>
       <c r="B109" s="7" t="n"/>
-      <c r="C109" s="5" t="inlineStr">
-        <is>
-          <t>other_quality_statement</t>
-        </is>
-      </c>
-      <c r="D109" s="6" t="n"/>
-      <c r="E109" s="2" t="n"/>
-      <c r="F109" s="2" t="n"/>
-      <c r="G109" s="2" t="n"/>
-      <c r="H109" s="2" t="n"/>
-      <c r="I109" s="2" t="n"/>
-      <c r="J109" s="2" t="n"/>
-      <c r="K109" s="2" t="n"/>
-      <c r="L109" s="2" t="n"/>
-      <c r="M109" s="2" t="n"/>
-      <c r="N109" s="2" t="n"/>
-      <c r="O109" s="2" t="n"/>
-      <c r="P109" s="2" t="n"/>
-      <c r="Q109" s="2" t="n"/>
-      <c r="R109" s="2" t="n"/>
-      <c r="S109" s="2" t="n"/>
-      <c r="T109" s="2" t="n"/>
-      <c r="U109" s="2" t="n"/>
-      <c r="V109" s="2" t="n"/>
-      <c r="W109" s="2" t="n"/>
-      <c r="X109" s="2" t="n"/>
-      <c r="Y109" s="2" t="n"/>
-      <c r="Z109" s="2" t="n"/>
-      <c r="AA109" s="2" t="n"/>
-      <c r="AB109" s="2" t="n"/>
-      <c r="AC109" s="2" t="n"/>
-      <c r="AD109" s="2" t="n"/>
+      <c r="C109" s="7" t="n"/>
+      <c r="D109" s="5" t="inlineStr">
+        <is>
+          <t>producer</t>
+        </is>
+      </c>
+      <c r="E109" s="6" t="n"/>
+      <c r="F109" s="6" t="n"/>
+      <c r="G109" s="6" t="n"/>
+      <c r="H109" s="6" t="n"/>
+      <c r="I109" s="6" t="n"/>
+      <c r="J109" s="6" t="n"/>
+      <c r="K109" s="6" t="n"/>
+      <c r="L109" s="6" t="n"/>
+      <c r="M109" s="6" t="n"/>
+      <c r="N109" s="6" t="n"/>
+      <c r="O109" s="6" t="n"/>
+      <c r="P109" s="6" t="n"/>
+      <c r="Q109" s="6" t="n"/>
+      <c r="R109" s="6" t="n"/>
+      <c r="S109" s="6" t="n"/>
+      <c r="T109" s="6" t="n"/>
+      <c r="U109" s="6" t="n"/>
+      <c r="V109" s="6" t="n"/>
+      <c r="W109" s="6" t="n"/>
+      <c r="X109" s="6" t="n"/>
+      <c r="Y109" s="6" t="n"/>
+      <c r="Z109" s="6" t="n"/>
+      <c r="AA109" s="6" t="n"/>
+      <c r="AB109" s="6" t="n"/>
+      <c r="AC109" s="6" t="n"/>
+      <c r="AD109" s="6" t="n"/>
     </row>
     <row r="110">
       <c r="A110" s="4" t="inlineStr"/>
-      <c r="B110" s="5" t="inlineStr">
-        <is>
-          <t>ex_post_evaluation</t>
-        </is>
-      </c>
+      <c r="B110" s="7" t="n"/>
       <c r="C110" s="5" t="inlineStr">
         <is>
-          <t>completion_date</t>
-        </is>
-      </c>
-      <c r="D110" s="6" t="n"/>
-      <c r="E110" s="2" t="n"/>
+          <t>other_quality_statement</t>
+        </is>
+      </c>
+      <c r="D110" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E110" s="6" t="n"/>
       <c r="F110" s="2" t="n"/>
       <c r="G110" s="2" t="n"/>
       <c r="H110" s="2" t="n"/>
@@ -8667,14 +8722,20 @@
     </row>
     <row r="111">
       <c r="A111" s="4" t="inlineStr"/>
-      <c r="B111" s="7" t="n"/>
+      <c r="B111" s="5" t="inlineStr">
+        <is>
+          <t>ex_post_evaluation</t>
+        </is>
+      </c>
       <c r="C111" s="5" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D111" s="6" t="n"/>
-      <c r="E111" s="2" t="n"/>
+          <t>completion_date</t>
+        </is>
+      </c>
+      <c r="D111" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E111" s="6" t="n"/>
       <c r="F111" s="2" t="n"/>
       <c r="G111" s="2" t="n"/>
       <c r="H111" s="2" t="n"/>
@@ -8706,15 +8767,13 @@
       <c r="B112" s="7" t="n"/>
       <c r="C112" s="5" t="inlineStr">
         <is>
-          <t>evaluator</t>
-        </is>
-      </c>
-      <c r="D112" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": "", "affiliation": null, "abbr": null, "role": null}]</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="n"/>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="D112" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E112" s="6" t="n"/>
       <c r="F112" s="2" t="n"/>
       <c r="G112" s="2" t="n"/>
       <c r="H112" s="2" t="n"/>
@@ -8746,303 +8805,303 @@
       <c r="B113" s="7" t="n"/>
       <c r="C113" s="5" t="inlineStr">
         <is>
-          <t>evaluation_process</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="n"/>
-      <c r="E113" s="2" t="n"/>
-      <c r="F113" s="2" t="n"/>
-      <c r="G113" s="2" t="n"/>
-      <c r="H113" s="2" t="n"/>
-      <c r="I113" s="2" t="n"/>
-      <c r="J113" s="2" t="n"/>
-      <c r="K113" s="2" t="n"/>
-      <c r="L113" s="2" t="n"/>
-      <c r="M113" s="2" t="n"/>
-      <c r="N113" s="2" t="n"/>
-      <c r="O113" s="2" t="n"/>
-      <c r="P113" s="2" t="n"/>
-      <c r="Q113" s="2" t="n"/>
-      <c r="R113" s="2" t="n"/>
-      <c r="S113" s="2" t="n"/>
-      <c r="T113" s="2" t="n"/>
-      <c r="U113" s="2" t="n"/>
-      <c r="V113" s="2" t="n"/>
-      <c r="W113" s="2" t="n"/>
-      <c r="X113" s="2" t="n"/>
-      <c r="Y113" s="2" t="n"/>
-      <c r="Z113" s="2" t="n"/>
-      <c r="AA113" s="2" t="n"/>
-      <c r="AB113" s="2" t="n"/>
-      <c r="AC113" s="2" t="n"/>
-      <c r="AD113" s="2" t="n"/>
+          <t>evaluator</t>
+        </is>
+      </c>
+      <c r="D113" s="5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E113" s="6" t="inlineStr"/>
+      <c r="F113" s="6" t="n"/>
+      <c r="G113" s="6" t="n"/>
+      <c r="H113" s="6" t="n"/>
+      <c r="I113" s="6" t="n"/>
+      <c r="J113" s="6" t="n"/>
+      <c r="K113" s="6" t="n"/>
+      <c r="L113" s="6" t="n"/>
+      <c r="M113" s="6" t="n"/>
+      <c r="N113" s="6" t="n"/>
+      <c r="O113" s="6" t="n"/>
+      <c r="P113" s="6" t="n"/>
+      <c r="Q113" s="6" t="n"/>
+      <c r="R113" s="6" t="n"/>
+      <c r="S113" s="6" t="n"/>
+      <c r="T113" s="6" t="n"/>
+      <c r="U113" s="6" t="n"/>
+      <c r="V113" s="6" t="n"/>
+      <c r="W113" s="6" t="n"/>
+      <c r="X113" s="6" t="n"/>
+      <c r="Y113" s="6" t="n"/>
+      <c r="Z113" s="6" t="n"/>
+      <c r="AA113" s="6" t="n"/>
+      <c r="AB113" s="6" t="n"/>
+      <c r="AC113" s="6" t="n"/>
+      <c r="AD113" s="6" t="n"/>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr"/>
       <c r="B114" s="7" t="n"/>
-      <c r="C114" s="5" t="inlineStr">
-        <is>
-          <t>outcomes</t>
-        </is>
-      </c>
-      <c r="D114" s="6" t="n"/>
-      <c r="E114" s="2" t="n"/>
-      <c r="F114" s="2" t="n"/>
-      <c r="G114" s="2" t="n"/>
-      <c r="H114" s="2" t="n"/>
-      <c r="I114" s="2" t="n"/>
-      <c r="J114" s="2" t="n"/>
-      <c r="K114" s="2" t="n"/>
-      <c r="L114" s="2" t="n"/>
-      <c r="M114" s="2" t="n"/>
-      <c r="N114" s="2" t="n"/>
-      <c r="O114" s="2" t="n"/>
-      <c r="P114" s="2" t="n"/>
-      <c r="Q114" s="2" t="n"/>
-      <c r="R114" s="2" t="n"/>
-      <c r="S114" s="2" t="n"/>
-      <c r="T114" s="2" t="n"/>
-      <c r="U114" s="2" t="n"/>
-      <c r="V114" s="2" t="n"/>
-      <c r="W114" s="2" t="n"/>
-      <c r="X114" s="2" t="n"/>
-      <c r="Y114" s="2" t="n"/>
-      <c r="Z114" s="2" t="n"/>
-      <c r="AA114" s="2" t="n"/>
-      <c r="AB114" s="2" t="n"/>
-      <c r="AC114" s="2" t="n"/>
-      <c r="AD114" s="2" t="n"/>
+      <c r="C114" s="7" t="n"/>
+      <c r="D114" s="5" t="inlineStr">
+        <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="E114" s="6" t="n"/>
+      <c r="F114" s="6" t="n"/>
+      <c r="G114" s="6" t="n"/>
+      <c r="H114" s="6" t="n"/>
+      <c r="I114" s="6" t="n"/>
+      <c r="J114" s="6" t="n"/>
+      <c r="K114" s="6" t="n"/>
+      <c r="L114" s="6" t="n"/>
+      <c r="M114" s="6" t="n"/>
+      <c r="N114" s="6" t="n"/>
+      <c r="O114" s="6" t="n"/>
+      <c r="P114" s="6" t="n"/>
+      <c r="Q114" s="6" t="n"/>
+      <c r="R114" s="6" t="n"/>
+      <c r="S114" s="6" t="n"/>
+      <c r="T114" s="6" t="n"/>
+      <c r="U114" s="6" t="n"/>
+      <c r="V114" s="6" t="n"/>
+      <c r="W114" s="6" t="n"/>
+      <c r="X114" s="6" t="n"/>
+      <c r="Y114" s="6" t="n"/>
+      <c r="Z114" s="6" t="n"/>
+      <c r="AA114" s="6" t="n"/>
+      <c r="AB114" s="6" t="n"/>
+      <c r="AC114" s="6" t="n"/>
+      <c r="AD114" s="6" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="n"/>
-      <c r="B115" s="8" t="n"/>
-      <c r="C115" s="8" t="n"/>
-      <c r="D115" s="2" t="n"/>
-      <c r="E115" s="2" t="n"/>
-      <c r="F115" s="2" t="n"/>
-      <c r="G115" s="2" t="n"/>
-      <c r="H115" s="2" t="n"/>
-      <c r="I115" s="2" t="n"/>
-      <c r="J115" s="2" t="n"/>
-      <c r="K115" s="2" t="n"/>
-      <c r="L115" s="2" t="n"/>
-      <c r="M115" s="2" t="n"/>
-      <c r="N115" s="2" t="n"/>
-      <c r="O115" s="2" t="n"/>
-      <c r="P115" s="2" t="n"/>
-      <c r="Q115" s="2" t="n"/>
-      <c r="R115" s="2" t="n"/>
-      <c r="S115" s="2" t="n"/>
-      <c r="T115" s="2" t="n"/>
-      <c r="U115" s="2" t="n"/>
-      <c r="V115" s="2" t="n"/>
-      <c r="W115" s="2" t="n"/>
-      <c r="X115" s="2" t="n"/>
-      <c r="Y115" s="2" t="n"/>
-      <c r="Z115" s="2" t="n"/>
-      <c r="AA115" s="2" t="n"/>
-      <c r="AB115" s="2" t="n"/>
-      <c r="AC115" s="2" t="n"/>
-      <c r="AD115" s="2" t="n"/>
+      <c r="A115" s="4" t="inlineStr"/>
+      <c r="B115" s="7" t="n"/>
+      <c r="C115" s="7" t="n"/>
+      <c r="D115" s="5" t="inlineStr">
+        <is>
+          <t>abbr</t>
+        </is>
+      </c>
+      <c r="E115" s="6" t="n"/>
+      <c r="F115" s="6" t="n"/>
+      <c r="G115" s="6" t="n"/>
+      <c r="H115" s="6" t="n"/>
+      <c r="I115" s="6" t="n"/>
+      <c r="J115" s="6" t="n"/>
+      <c r="K115" s="6" t="n"/>
+      <c r="L115" s="6" t="n"/>
+      <c r="M115" s="6" t="n"/>
+      <c r="N115" s="6" t="n"/>
+      <c r="O115" s="6" t="n"/>
+      <c r="P115" s="6" t="n"/>
+      <c r="Q115" s="6" t="n"/>
+      <c r="R115" s="6" t="n"/>
+      <c r="S115" s="6" t="n"/>
+      <c r="T115" s="6" t="n"/>
+      <c r="U115" s="6" t="n"/>
+      <c r="V115" s="6" t="n"/>
+      <c r="W115" s="6" t="n"/>
+      <c r="X115" s="6" t="n"/>
+      <c r="Y115" s="6" t="n"/>
+      <c r="Z115" s="6" t="n"/>
+      <c r="AA115" s="6" t="n"/>
+      <c r="AB115" s="6" t="n"/>
+      <c r="AC115" s="6" t="n"/>
+      <c r="AD115" s="6" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="10" t="inlineStr">
-        <is>
-          <t>study_development</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="n"/>
-      <c r="C116" s="2" t="n"/>
-      <c r="D116" s="2" t="n"/>
-      <c r="E116" s="2" t="n"/>
-      <c r="F116" s="2" t="n"/>
-      <c r="G116" s="2" t="n"/>
-      <c r="H116" s="2" t="n"/>
-      <c r="I116" s="2" t="n"/>
-      <c r="J116" s="2" t="n"/>
-      <c r="K116" s="2" t="n"/>
-      <c r="L116" s="2" t="n"/>
-      <c r="M116" s="2" t="n"/>
-      <c r="N116" s="2" t="n"/>
-      <c r="O116" s="2" t="n"/>
-      <c r="P116" s="2" t="n"/>
-      <c r="Q116" s="2" t="n"/>
-      <c r="R116" s="2" t="n"/>
-      <c r="S116" s="2" t="n"/>
-      <c r="T116" s="2" t="n"/>
-      <c r="U116" s="2" t="n"/>
-      <c r="V116" s="2" t="n"/>
-      <c r="W116" s="2" t="n"/>
-      <c r="X116" s="2" t="n"/>
-      <c r="Y116" s="2" t="n"/>
-      <c r="Z116" s="2" t="n"/>
-      <c r="AA116" s="2" t="n"/>
-      <c r="AB116" s="2" t="n"/>
-      <c r="AC116" s="2" t="n"/>
-      <c r="AD116" s="2" t="n"/>
+      <c r="A116" s="4" t="inlineStr"/>
+      <c r="B116" s="7" t="n"/>
+      <c r="C116" s="7" t="n"/>
+      <c r="D116" s="5" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E116" s="6" t="n"/>
+      <c r="F116" s="6" t="n"/>
+      <c r="G116" s="6" t="n"/>
+      <c r="H116" s="6" t="n"/>
+      <c r="I116" s="6" t="n"/>
+      <c r="J116" s="6" t="n"/>
+      <c r="K116" s="6" t="n"/>
+      <c r="L116" s="6" t="n"/>
+      <c r="M116" s="6" t="n"/>
+      <c r="N116" s="6" t="n"/>
+      <c r="O116" s="6" t="n"/>
+      <c r="P116" s="6" t="n"/>
+      <c r="Q116" s="6" t="n"/>
+      <c r="R116" s="6" t="n"/>
+      <c r="S116" s="6" t="n"/>
+      <c r="T116" s="6" t="n"/>
+      <c r="U116" s="6" t="n"/>
+      <c r="V116" s="6" t="n"/>
+      <c r="W116" s="6" t="n"/>
+      <c r="X116" s="6" t="n"/>
+      <c r="Y116" s="6" t="n"/>
+      <c r="Z116" s="6" t="n"/>
+      <c r="AA116" s="6" t="n"/>
+      <c r="AB116" s="6" t="n"/>
+      <c r="AC116" s="6" t="n"/>
+      <c r="AD116" s="6" t="n"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr"/>
-      <c r="B117" s="5" t="inlineStr">
-        <is>
-          <t>development_activity</t>
-        </is>
-      </c>
+      <c r="B117" s="7" t="n"/>
       <c r="C117" s="5" t="inlineStr">
         <is>
-          <t>activity_type</t>
-        </is>
-      </c>
-      <c r="D117" s="6" t="n"/>
+          <t>evaluation_process</t>
+        </is>
+      </c>
+      <c r="D117" s="5" t="n">
+        <v/>
+      </c>
       <c r="E117" s="6" t="n"/>
-      <c r="F117" s="6" t="n"/>
-      <c r="G117" s="6" t="n"/>
-      <c r="H117" s="6" t="n"/>
-      <c r="I117" s="6" t="n"/>
-      <c r="J117" s="6" t="n"/>
-      <c r="K117" s="6" t="n"/>
-      <c r="L117" s="6" t="n"/>
-      <c r="M117" s="6" t="n"/>
-      <c r="N117" s="6" t="n"/>
-      <c r="O117" s="6" t="n"/>
-      <c r="P117" s="6" t="n"/>
-      <c r="Q117" s="6" t="n"/>
-      <c r="R117" s="6" t="n"/>
-      <c r="S117" s="6" t="n"/>
-      <c r="T117" s="6" t="n"/>
-      <c r="U117" s="6" t="n"/>
-      <c r="V117" s="6" t="n"/>
-      <c r="W117" s="6" t="n"/>
-      <c r="X117" s="6" t="n"/>
-      <c r="Y117" s="6" t="n"/>
-      <c r="Z117" s="6" t="n"/>
-      <c r="AA117" s="6" t="n"/>
-      <c r="AB117" s="6" t="n"/>
-      <c r="AC117" s="6" t="n"/>
-      <c r="AD117" s="6" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="2" t="n"/>
+      <c r="H117" s="2" t="n"/>
+      <c r="I117" s="2" t="n"/>
+      <c r="J117" s="2" t="n"/>
+      <c r="K117" s="2" t="n"/>
+      <c r="L117" s="2" t="n"/>
+      <c r="M117" s="2" t="n"/>
+      <c r="N117" s="2" t="n"/>
+      <c r="O117" s="2" t="n"/>
+      <c r="P117" s="2" t="n"/>
+      <c r="Q117" s="2" t="n"/>
+      <c r="R117" s="2" t="n"/>
+      <c r="S117" s="2" t="n"/>
+      <c r="T117" s="2" t="n"/>
+      <c r="U117" s="2" t="n"/>
+      <c r="V117" s="2" t="n"/>
+      <c r="W117" s="2" t="n"/>
+      <c r="X117" s="2" t="n"/>
+      <c r="Y117" s="2" t="n"/>
+      <c r="Z117" s="2" t="n"/>
+      <c r="AA117" s="2" t="n"/>
+      <c r="AB117" s="2" t="n"/>
+      <c r="AC117" s="2" t="n"/>
+      <c r="AD117" s="2" t="n"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr"/>
       <c r="B118" s="7" t="n"/>
       <c r="C118" s="5" t="inlineStr">
         <is>
-          <t>activity_description</t>
-        </is>
-      </c>
-      <c r="D118" s="6" t="n"/>
+          <t>outcomes</t>
+        </is>
+      </c>
+      <c r="D118" s="5" t="n">
+        <v/>
+      </c>
       <c r="E118" s="6" t="n"/>
-      <c r="F118" s="6" t="n"/>
-      <c r="G118" s="6" t="n"/>
-      <c r="H118" s="6" t="n"/>
-      <c r="I118" s="6" t="n"/>
-      <c r="J118" s="6" t="n"/>
-      <c r="K118" s="6" t="n"/>
-      <c r="L118" s="6" t="n"/>
-      <c r="M118" s="6" t="n"/>
-      <c r="N118" s="6" t="n"/>
-      <c r="O118" s="6" t="n"/>
-      <c r="P118" s="6" t="n"/>
-      <c r="Q118" s="6" t="n"/>
-      <c r="R118" s="6" t="n"/>
-      <c r="S118" s="6" t="n"/>
-      <c r="T118" s="6" t="n"/>
-      <c r="U118" s="6" t="n"/>
-      <c r="V118" s="6" t="n"/>
-      <c r="W118" s="6" t="n"/>
-      <c r="X118" s="6" t="n"/>
-      <c r="Y118" s="6" t="n"/>
-      <c r="Z118" s="6" t="n"/>
-      <c r="AA118" s="6" t="n"/>
-      <c r="AB118" s="6" t="n"/>
-      <c r="AC118" s="6" t="n"/>
-      <c r="AD118" s="6" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="2" t="n"/>
+      <c r="H118" s="2" t="n"/>
+      <c r="I118" s="2" t="n"/>
+      <c r="J118" s="2" t="n"/>
+      <c r="K118" s="2" t="n"/>
+      <c r="L118" s="2" t="n"/>
+      <c r="M118" s="2" t="n"/>
+      <c r="N118" s="2" t="n"/>
+      <c r="O118" s="2" t="n"/>
+      <c r="P118" s="2" t="n"/>
+      <c r="Q118" s="2" t="n"/>
+      <c r="R118" s="2" t="n"/>
+      <c r="S118" s="2" t="n"/>
+      <c r="T118" s="2" t="n"/>
+      <c r="U118" s="2" t="n"/>
+      <c r="V118" s="2" t="n"/>
+      <c r="W118" s="2" t="n"/>
+      <c r="X118" s="2" t="n"/>
+      <c r="Y118" s="2" t="n"/>
+      <c r="Z118" s="2" t="n"/>
+      <c r="AA118" s="2" t="n"/>
+      <c r="AB118" s="2" t="n"/>
+      <c r="AC118" s="2" t="n"/>
+      <c r="AD118" s="2" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="inlineStr"/>
-      <c r="B119" s="7" t="n"/>
-      <c r="C119" s="5" t="inlineStr">
-        <is>
-          <t>participants</t>
-        </is>
-      </c>
-      <c r="D119" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": "", "affiliation": null, "role": null}]</t>
-        </is>
-      </c>
-      <c r="E119" s="6" t="n"/>
-      <c r="F119" s="6" t="n"/>
-      <c r="G119" s="6" t="n"/>
-      <c r="H119" s="6" t="n"/>
-      <c r="I119" s="6" t="n"/>
-      <c r="J119" s="6" t="n"/>
-      <c r="K119" s="6" t="n"/>
-      <c r="L119" s="6" t="n"/>
-      <c r="M119" s="6" t="n"/>
-      <c r="N119" s="6" t="n"/>
-      <c r="O119" s="6" t="n"/>
-      <c r="P119" s="6" t="n"/>
-      <c r="Q119" s="6" t="n"/>
-      <c r="R119" s="6" t="n"/>
-      <c r="S119" s="6" t="n"/>
-      <c r="T119" s="6" t="n"/>
-      <c r="U119" s="6" t="n"/>
-      <c r="V119" s="6" t="n"/>
-      <c r="W119" s="6" t="n"/>
-      <c r="X119" s="6" t="n"/>
-      <c r="Y119" s="6" t="n"/>
-      <c r="Z119" s="6" t="n"/>
-      <c r="AA119" s="6" t="n"/>
-      <c r="AB119" s="6" t="n"/>
-      <c r="AC119" s="6" t="n"/>
-      <c r="AD119" s="6" t="n"/>
+      <c r="A119" s="4" t="n"/>
+      <c r="B119" s="8" t="n"/>
+      <c r="C119" s="8" t="n"/>
+      <c r="D119" s="8" t="n"/>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="2" t="n"/>
+      <c r="H119" s="2" t="n"/>
+      <c r="I119" s="2" t="n"/>
+      <c r="J119" s="2" t="n"/>
+      <c r="K119" s="2" t="n"/>
+      <c r="L119" s="2" t="n"/>
+      <c r="M119" s="2" t="n"/>
+      <c r="N119" s="2" t="n"/>
+      <c r="O119" s="2" t="n"/>
+      <c r="P119" s="2" t="n"/>
+      <c r="Q119" s="2" t="n"/>
+      <c r="R119" s="2" t="n"/>
+      <c r="S119" s="2" t="n"/>
+      <c r="T119" s="2" t="n"/>
+      <c r="U119" s="2" t="n"/>
+      <c r="V119" s="2" t="n"/>
+      <c r="W119" s="2" t="n"/>
+      <c r="X119" s="2" t="n"/>
+      <c r="Y119" s="2" t="n"/>
+      <c r="Z119" s="2" t="n"/>
+      <c r="AA119" s="2" t="n"/>
+      <c r="AB119" s="2" t="n"/>
+      <c r="AC119" s="2" t="n"/>
+      <c r="AD119" s="2" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="inlineStr"/>
-      <c r="B120" s="7" t="n"/>
-      <c r="C120" s="5" t="inlineStr">
-        <is>
-          <t>resources</t>
-        </is>
-      </c>
-      <c r="D120" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": null, "origin": null, "characteristics": null}]</t>
-        </is>
-      </c>
-      <c r="E120" s="6" t="n"/>
-      <c r="F120" s="6" t="n"/>
-      <c r="G120" s="6" t="n"/>
-      <c r="H120" s="6" t="n"/>
-      <c r="I120" s="6" t="n"/>
-      <c r="J120" s="6" t="n"/>
-      <c r="K120" s="6" t="n"/>
-      <c r="L120" s="6" t="n"/>
-      <c r="M120" s="6" t="n"/>
-      <c r="N120" s="6" t="n"/>
-      <c r="O120" s="6" t="n"/>
-      <c r="P120" s="6" t="n"/>
-      <c r="Q120" s="6" t="n"/>
-      <c r="R120" s="6" t="n"/>
-      <c r="S120" s="6" t="n"/>
-      <c r="T120" s="6" t="n"/>
-      <c r="U120" s="6" t="n"/>
-      <c r="V120" s="6" t="n"/>
-      <c r="W120" s="6" t="n"/>
-      <c r="X120" s="6" t="n"/>
-      <c r="Y120" s="6" t="n"/>
-      <c r="Z120" s="6" t="n"/>
-      <c r="AA120" s="6" t="n"/>
-      <c r="AB120" s="6" t="n"/>
-      <c r="AC120" s="6" t="n"/>
-      <c r="AD120" s="6" t="n"/>
+      <c r="A120" s="10" t="inlineStr">
+        <is>
+          <t>study_development</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n"/>
+      <c r="C120" s="2" t="n"/>
+      <c r="D120" s="2" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="2" t="n"/>
+      <c r="H120" s="2" t="n"/>
+      <c r="I120" s="2" t="n"/>
+      <c r="J120" s="2" t="n"/>
+      <c r="K120" s="2" t="n"/>
+      <c r="L120" s="2" t="n"/>
+      <c r="M120" s="2" t="n"/>
+      <c r="N120" s="2" t="n"/>
+      <c r="O120" s="2" t="n"/>
+      <c r="P120" s="2" t="n"/>
+      <c r="Q120" s="2" t="n"/>
+      <c r="R120" s="2" t="n"/>
+      <c r="S120" s="2" t="n"/>
+      <c r="T120" s="2" t="n"/>
+      <c r="U120" s="2" t="n"/>
+      <c r="V120" s="2" t="n"/>
+      <c r="W120" s="2" t="n"/>
+      <c r="X120" s="2" t="n"/>
+      <c r="Y120" s="2" t="n"/>
+      <c r="Z120" s="2" t="n"/>
+      <c r="AA120" s="2" t="n"/>
+      <c r="AB120" s="2" t="n"/>
+      <c r="AC120" s="2" t="n"/>
+      <c r="AD120" s="2" t="n"/>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr"/>
-      <c r="B121" s="7" t="n"/>
+      <c r="B121" s="5" t="inlineStr">
+        <is>
+          <t>development_activity</t>
+        </is>
+      </c>
       <c r="C121" s="5" t="inlineStr">
         <is>
-          <t>outcome</t>
+          <t>activity_type</t>
         </is>
       </c>
       <c r="D121" s="6" t="n"/>
@@ -9074,131 +9133,131 @@
       <c r="AD121" s="6" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="4" t="n"/>
-      <c r="B122" s="8" t="n"/>
-      <c r="C122" s="8" t="n"/>
-      <c r="D122" s="2" t="n"/>
-      <c r="E122" s="2" t="n"/>
-      <c r="F122" s="2" t="n"/>
-      <c r="G122" s="2" t="n"/>
-      <c r="H122" s="2" t="n"/>
-      <c r="I122" s="2" t="n"/>
-      <c r="J122" s="2" t="n"/>
-      <c r="K122" s="2" t="n"/>
-      <c r="L122" s="2" t="n"/>
-      <c r="M122" s="2" t="n"/>
-      <c r="N122" s="2" t="n"/>
-      <c r="O122" s="2" t="n"/>
-      <c r="P122" s="2" t="n"/>
-      <c r="Q122" s="2" t="n"/>
-      <c r="R122" s="2" t="n"/>
-      <c r="S122" s="2" t="n"/>
-      <c r="T122" s="2" t="n"/>
-      <c r="U122" s="2" t="n"/>
-      <c r="V122" s="2" t="n"/>
-      <c r="W122" s="2" t="n"/>
-      <c r="X122" s="2" t="n"/>
-      <c r="Y122" s="2" t="n"/>
-      <c r="Z122" s="2" t="n"/>
-      <c r="AA122" s="2" t="n"/>
-      <c r="AB122" s="2" t="n"/>
-      <c r="AC122" s="2" t="n"/>
-      <c r="AD122" s="2" t="n"/>
+      <c r="A122" s="4" t="inlineStr"/>
+      <c r="B122" s="7" t="n"/>
+      <c r="C122" s="5" t="inlineStr">
+        <is>
+          <t>activity_description</t>
+        </is>
+      </c>
+      <c r="D122" s="6" t="n"/>
+      <c r="E122" s="6" t="n"/>
+      <c r="F122" s="6" t="n"/>
+      <c r="G122" s="6" t="n"/>
+      <c r="H122" s="6" t="n"/>
+      <c r="I122" s="6" t="n"/>
+      <c r="J122" s="6" t="n"/>
+      <c r="K122" s="6" t="n"/>
+      <c r="L122" s="6" t="n"/>
+      <c r="M122" s="6" t="n"/>
+      <c r="N122" s="6" t="n"/>
+      <c r="O122" s="6" t="n"/>
+      <c r="P122" s="6" t="n"/>
+      <c r="Q122" s="6" t="n"/>
+      <c r="R122" s="6" t="n"/>
+      <c r="S122" s="6" t="n"/>
+      <c r="T122" s="6" t="n"/>
+      <c r="U122" s="6" t="n"/>
+      <c r="V122" s="6" t="n"/>
+      <c r="W122" s="6" t="n"/>
+      <c r="X122" s="6" t="n"/>
+      <c r="Y122" s="6" t="n"/>
+      <c r="Z122" s="6" t="n"/>
+      <c r="AA122" s="6" t="n"/>
+      <c r="AB122" s="6" t="n"/>
+      <c r="AC122" s="6" t="n"/>
+      <c r="AD122" s="6" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="10" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="n"/>
-      <c r="C123" s="2" t="n"/>
-      <c r="D123" s="2" t="n"/>
-      <c r="E123" s="2" t="n"/>
-      <c r="F123" s="2" t="n"/>
-      <c r="G123" s="2" t="n"/>
-      <c r="H123" s="2" t="n"/>
-      <c r="I123" s="2" t="n"/>
-      <c r="J123" s="2" t="n"/>
-      <c r="K123" s="2" t="n"/>
-      <c r="L123" s="2" t="n"/>
-      <c r="M123" s="2" t="n"/>
-      <c r="N123" s="2" t="n"/>
-      <c r="O123" s="2" t="n"/>
-      <c r="P123" s="2" t="n"/>
-      <c r="Q123" s="2" t="n"/>
-      <c r="R123" s="2" t="n"/>
-      <c r="S123" s="2" t="n"/>
-      <c r="T123" s="2" t="n"/>
-      <c r="U123" s="2" t="n"/>
-      <c r="V123" s="2" t="n"/>
-      <c r="W123" s="2" t="n"/>
-      <c r="X123" s="2" t="n"/>
-      <c r="Y123" s="2" t="n"/>
-      <c r="Z123" s="2" t="n"/>
-      <c r="AA123" s="2" t="n"/>
-      <c r="AB123" s="2" t="n"/>
-      <c r="AC123" s="2" t="n"/>
-      <c r="AD123" s="2" t="n"/>
+      <c r="A123" s="4" t="inlineStr"/>
+      <c r="B123" s="7" t="n"/>
+      <c r="C123" s="5" t="inlineStr">
+        <is>
+          <t>participants</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>[{"name": "", "affiliation": null, "role": null}]</t>
+        </is>
+      </c>
+      <c r="E123" s="6" t="n"/>
+      <c r="F123" s="6" t="n"/>
+      <c r="G123" s="6" t="n"/>
+      <c r="H123" s="6" t="n"/>
+      <c r="I123" s="6" t="n"/>
+      <c r="J123" s="6" t="n"/>
+      <c r="K123" s="6" t="n"/>
+      <c r="L123" s="6" t="n"/>
+      <c r="M123" s="6" t="n"/>
+      <c r="N123" s="6" t="n"/>
+      <c r="O123" s="6" t="n"/>
+      <c r="P123" s="6" t="n"/>
+      <c r="Q123" s="6" t="n"/>
+      <c r="R123" s="6" t="n"/>
+      <c r="S123" s="6" t="n"/>
+      <c r="T123" s="6" t="n"/>
+      <c r="U123" s="6" t="n"/>
+      <c r="V123" s="6" t="n"/>
+      <c r="W123" s="6" t="n"/>
+      <c r="X123" s="6" t="n"/>
+      <c r="Y123" s="6" t="n"/>
+      <c r="Z123" s="6" t="n"/>
+      <c r="AA123" s="6" t="n"/>
+      <c r="AB123" s="6" t="n"/>
+      <c r="AC123" s="6" t="n"/>
+      <c r="AD123" s="6" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr"/>
-      <c r="B124" s="5" t="inlineStr">
-        <is>
-          <t>method_notes</t>
-        </is>
-      </c>
-      <c r="C124" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D124" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E124" s="5" t="n">
-        <v/>
-      </c>
+      <c r="B124" s="7" t="n"/>
+      <c r="C124" s="5" t="inlineStr">
+        <is>
+          <t>resources</t>
+        </is>
+      </c>
+      <c r="D124" s="6" t="inlineStr">
+        <is>
+          <t>[{"name": null, "origin": null, "characteristics": null}]</t>
+        </is>
+      </c>
+      <c r="E124" s="6" t="n"/>
       <c r="F124" s="6" t="n"/>
-      <c r="G124" s="2" t="n"/>
-      <c r="H124" s="2" t="n"/>
-      <c r="I124" s="2" t="n"/>
-      <c r="J124" s="2" t="n"/>
-      <c r="K124" s="2" t="n"/>
-      <c r="L124" s="2" t="n"/>
-      <c r="M124" s="2" t="n"/>
-      <c r="N124" s="2" t="n"/>
-      <c r="O124" s="2" t="n"/>
-      <c r="P124" s="2" t="n"/>
-      <c r="Q124" s="2" t="n"/>
-      <c r="R124" s="2" t="n"/>
-      <c r="S124" s="2" t="n"/>
-      <c r="T124" s="2" t="n"/>
-      <c r="U124" s="2" t="n"/>
-      <c r="V124" s="2" t="n"/>
-      <c r="W124" s="2" t="n"/>
-      <c r="X124" s="2" t="n"/>
-      <c r="Y124" s="2" t="n"/>
-      <c r="Z124" s="2" t="n"/>
-      <c r="AA124" s="2" t="n"/>
-      <c r="AB124" s="2" t="n"/>
-      <c r="AC124" s="2" t="n"/>
-      <c r="AD124" s="2" t="n"/>
+      <c r="G124" s="6" t="n"/>
+      <c r="H124" s="6" t="n"/>
+      <c r="I124" s="6" t="n"/>
+      <c r="J124" s="6" t="n"/>
+      <c r="K124" s="6" t="n"/>
+      <c r="L124" s="6" t="n"/>
+      <c r="M124" s="6" t="n"/>
+      <c r="N124" s="6" t="n"/>
+      <c r="O124" s="6" t="n"/>
+      <c r="P124" s="6" t="n"/>
+      <c r="Q124" s="6" t="n"/>
+      <c r="R124" s="6" t="n"/>
+      <c r="S124" s="6" t="n"/>
+      <c r="T124" s="6" t="n"/>
+      <c r="U124" s="6" t="n"/>
+      <c r="V124" s="6" t="n"/>
+      <c r="W124" s="6" t="n"/>
+      <c r="X124" s="6" t="n"/>
+      <c r="Y124" s="6" t="n"/>
+      <c r="Z124" s="6" t="n"/>
+      <c r="AA124" s="6" t="n"/>
+      <c r="AB124" s="6" t="n"/>
+      <c r="AC124" s="6" t="n"/>
+      <c r="AD124" s="6" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr"/>
-      <c r="B125" s="5" t="inlineStr">
-        <is>
-          <t>study_class</t>
-        </is>
-      </c>
-      <c r="C125" s="5" t="n">
-        <v/>
-      </c>
-      <c r="D125" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E125" s="5" t="n">
-        <v/>
-      </c>
+      <c r="B125" s="7" t="n"/>
+      <c r="C125" s="5" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="n"/>
+      <c r="E125" s="6" t="n"/>
       <c r="F125" s="6" t="n"/>
       <c r="G125" s="6" t="n"/>
       <c r="H125" s="6" t="n"/>
@@ -9226,100 +9285,82 @@
       <c r="AD125" s="6" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="inlineStr"/>
-      <c r="B126" s="5" t="inlineStr">
-        <is>
-          <t>data_processing</t>
-        </is>
-      </c>
-      <c r="C126" s="5" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="D126" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E126" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F126" s="6" t="n"/>
-      <c r="G126" s="6" t="n"/>
-      <c r="H126" s="6" t="n"/>
-      <c r="I126" s="6" t="n"/>
-      <c r="J126" s="6" t="n"/>
-      <c r="K126" s="6" t="n"/>
-      <c r="L126" s="6" t="n"/>
-      <c r="M126" s="6" t="n"/>
-      <c r="N126" s="6" t="n"/>
-      <c r="O126" s="6" t="n"/>
-      <c r="P126" s="6" t="n"/>
-      <c r="Q126" s="6" t="n"/>
-      <c r="R126" s="6" t="n"/>
-      <c r="S126" s="6" t="n"/>
-      <c r="T126" s="6" t="n"/>
-      <c r="U126" s="6" t="n"/>
-      <c r="V126" s="6" t="n"/>
-      <c r="W126" s="6" t="n"/>
-      <c r="X126" s="6" t="n"/>
-      <c r="Y126" s="6" t="n"/>
-      <c r="Z126" s="6" t="n"/>
-      <c r="AA126" s="6" t="n"/>
-      <c r="AB126" s="6" t="n"/>
-      <c r="AC126" s="6" t="n"/>
-      <c r="AD126" s="6" t="n"/>
+      <c r="A126" s="4" t="n"/>
+      <c r="B126" s="8" t="n"/>
+      <c r="C126" s="8" t="n"/>
+      <c r="D126" s="2" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="2" t="n"/>
+      <c r="H126" s="2" t="n"/>
+      <c r="I126" s="2" t="n"/>
+      <c r="J126" s="2" t="n"/>
+      <c r="K126" s="2" t="n"/>
+      <c r="L126" s="2" t="n"/>
+      <c r="M126" s="2" t="n"/>
+      <c r="N126" s="2" t="n"/>
+      <c r="O126" s="2" t="n"/>
+      <c r="P126" s="2" t="n"/>
+      <c r="Q126" s="2" t="n"/>
+      <c r="R126" s="2" t="n"/>
+      <c r="S126" s="2" t="n"/>
+      <c r="T126" s="2" t="n"/>
+      <c r="U126" s="2" t="n"/>
+      <c r="V126" s="2" t="n"/>
+      <c r="W126" s="2" t="n"/>
+      <c r="X126" s="2" t="n"/>
+      <c r="Y126" s="2" t="n"/>
+      <c r="Z126" s="2" t="n"/>
+      <c r="AA126" s="2" t="n"/>
+      <c r="AB126" s="2" t="n"/>
+      <c r="AC126" s="2" t="n"/>
+      <c r="AD126" s="2" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="inlineStr"/>
-      <c r="B127" s="7" t="n"/>
-      <c r="C127" s="5" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D127" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E127" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F127" s="6" t="inlineStr"/>
-      <c r="G127" s="6" t="n"/>
-      <c r="H127" s="6" t="n"/>
-      <c r="I127" s="6" t="n"/>
-      <c r="J127" s="6" t="n"/>
-      <c r="K127" s="6" t="n"/>
-      <c r="L127" s="6" t="n"/>
-      <c r="M127" s="6" t="n"/>
-      <c r="N127" s="6" t="n"/>
-      <c r="O127" s="6" t="n"/>
-      <c r="P127" s="6" t="n"/>
-      <c r="Q127" s="6" t="n"/>
-      <c r="R127" s="6" t="n"/>
-      <c r="S127" s="6" t="n"/>
-      <c r="T127" s="6" t="n"/>
-      <c r="U127" s="6" t="n"/>
-      <c r="V127" s="6" t="n"/>
-      <c r="W127" s="6" t="n"/>
-      <c r="X127" s="6" t="n"/>
-      <c r="Y127" s="6" t="n"/>
-      <c r="Z127" s="6" t="n"/>
-      <c r="AA127" s="6" t="n"/>
-      <c r="AB127" s="6" t="n"/>
-      <c r="AC127" s="6" t="n"/>
-      <c r="AD127" s="6" t="n"/>
+      <c r="A127" s="10" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n"/>
+      <c r="C127" s="2" t="n"/>
+      <c r="D127" s="2" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
+      <c r="G127" s="2" t="n"/>
+      <c r="H127" s="2" t="n"/>
+      <c r="I127" s="2" t="n"/>
+      <c r="J127" s="2" t="n"/>
+      <c r="K127" s="2" t="n"/>
+      <c r="L127" s="2" t="n"/>
+      <c r="M127" s="2" t="n"/>
+      <c r="N127" s="2" t="n"/>
+      <c r="O127" s="2" t="n"/>
+      <c r="P127" s="2" t="n"/>
+      <c r="Q127" s="2" t="n"/>
+      <c r="R127" s="2" t="n"/>
+      <c r="S127" s="2" t="n"/>
+      <c r="T127" s="2" t="n"/>
+      <c r="U127" s="2" t="n"/>
+      <c r="V127" s="2" t="n"/>
+      <c r="W127" s="2" t="n"/>
+      <c r="X127" s="2" t="n"/>
+      <c r="Y127" s="2" t="n"/>
+      <c r="Z127" s="2" t="n"/>
+      <c r="AA127" s="2" t="n"/>
+      <c r="AB127" s="2" t="n"/>
+      <c r="AC127" s="2" t="n"/>
+      <c r="AD127" s="2" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr"/>
       <c r="B128" s="5" t="inlineStr">
         <is>
-          <t>coding_instructions</t>
-        </is>
-      </c>
-      <c r="C128" s="5" t="inlineStr">
-        <is>
-          <t>related_processes</t>
-        </is>
+          <t>method_notes</t>
+        </is>
+      </c>
+      <c r="C128" s="5" t="n">
+        <v/>
       </c>
       <c r="D128" s="5" t="n">
         <v/>
@@ -9328,38 +9369,40 @@
         <v/>
       </c>
       <c r="F128" s="6" t="n"/>
-      <c r="G128" s="6" t="n"/>
-      <c r="H128" s="6" t="n"/>
-      <c r="I128" s="6" t="n"/>
-      <c r="J128" s="6" t="n"/>
-      <c r="K128" s="6" t="n"/>
-      <c r="L128" s="6" t="n"/>
-      <c r="M128" s="6" t="n"/>
-      <c r="N128" s="6" t="n"/>
-      <c r="O128" s="6" t="n"/>
-      <c r="P128" s="6" t="n"/>
-      <c r="Q128" s="6" t="n"/>
-      <c r="R128" s="6" t="n"/>
-      <c r="S128" s="6" t="n"/>
-      <c r="T128" s="6" t="n"/>
-      <c r="U128" s="6" t="n"/>
-      <c r="V128" s="6" t="n"/>
-      <c r="W128" s="6" t="n"/>
-      <c r="X128" s="6" t="n"/>
-      <c r="Y128" s="6" t="n"/>
-      <c r="Z128" s="6" t="n"/>
-      <c r="AA128" s="6" t="n"/>
-      <c r="AB128" s="6" t="n"/>
-      <c r="AC128" s="6" t="n"/>
-      <c r="AD128" s="6" t="n"/>
+      <c r="G128" s="2" t="n"/>
+      <c r="H128" s="2" t="n"/>
+      <c r="I128" s="2" t="n"/>
+      <c r="J128" s="2" t="n"/>
+      <c r="K128" s="2" t="n"/>
+      <c r="L128" s="2" t="n"/>
+      <c r="M128" s="2" t="n"/>
+      <c r="N128" s="2" t="n"/>
+      <c r="O128" s="2" t="n"/>
+      <c r="P128" s="2" t="n"/>
+      <c r="Q128" s="2" t="n"/>
+      <c r="R128" s="2" t="n"/>
+      <c r="S128" s="2" t="n"/>
+      <c r="T128" s="2" t="n"/>
+      <c r="U128" s="2" t="n"/>
+      <c r="V128" s="2" t="n"/>
+      <c r="W128" s="2" t="n"/>
+      <c r="X128" s="2" t="n"/>
+      <c r="Y128" s="2" t="n"/>
+      <c r="Z128" s="2" t="n"/>
+      <c r="AA128" s="2" t="n"/>
+      <c r="AB128" s="2" t="n"/>
+      <c r="AC128" s="2" t="n"/>
+      <c r="AD128" s="2" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="4" t="inlineStr"/>
-      <c r="B129" s="7" t="n"/>
-      <c r="C129" s="5" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
+      <c r="B129" s="5" t="inlineStr">
+        <is>
+          <t>study_class</t>
+        </is>
+      </c>
+      <c r="C129" s="5" t="n">
+        <v/>
       </c>
       <c r="D129" s="5" t="n">
         <v/>
@@ -9395,10 +9438,14 @@
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr"/>
-      <c r="B130" s="7" t="n"/>
+      <c r="B130" s="5" t="inlineStr">
+        <is>
+          <t>data_processing</t>
+        </is>
+      </c>
       <c r="C130" s="5" t="inlineStr">
         <is>
-          <t>txt</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D130" s="5" t="n">
@@ -9438,7 +9485,7 @@
       <c r="B131" s="7" t="n"/>
       <c r="C131" s="5" t="inlineStr">
         <is>
-          <t>command</t>
+          <t>description</t>
         </is>
       </c>
       <c r="D131" s="5" t="n">
@@ -9447,7 +9494,7 @@
       <c r="E131" s="5" t="n">
         <v/>
       </c>
-      <c r="F131" s="6" t="n"/>
+      <c r="F131" s="6" t="inlineStr"/>
       <c r="G131" s="6" t="n"/>
       <c r="H131" s="6" t="n"/>
       <c r="I131" s="6" t="n"/>
@@ -9475,10 +9522,14 @@
     </row>
     <row r="132">
       <c r="A132" s="4" t="inlineStr"/>
-      <c r="B132" s="7" t="n"/>
+      <c r="B132" s="5" t="inlineStr">
+        <is>
+          <t>coding_instructions</t>
+        </is>
+      </c>
       <c r="C132" s="5" t="inlineStr">
         <is>
-          <t>formal_language</t>
+          <t>related_processes</t>
         </is>
       </c>
       <c r="D132" s="5" t="n">
@@ -9515,14 +9566,10 @@
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr"/>
-      <c r="B133" s="5" t="inlineStr">
-        <is>
-          <t>data_collection</t>
-        </is>
-      </c>
+      <c r="B133" s="7" t="n"/>
       <c r="C133" s="5" t="inlineStr">
         <is>
-          <t>time_method</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D133" s="5" t="n">
@@ -9532,37 +9579,37 @@
         <v/>
       </c>
       <c r="F133" s="6" t="n"/>
-      <c r="G133" s="2" t="n"/>
-      <c r="H133" s="2" t="n"/>
-      <c r="I133" s="2" t="n"/>
-      <c r="J133" s="2" t="n"/>
-      <c r="K133" s="2" t="n"/>
-      <c r="L133" s="2" t="n"/>
-      <c r="M133" s="2" t="n"/>
-      <c r="N133" s="2" t="n"/>
-      <c r="O133" s="2" t="n"/>
-      <c r="P133" s="2" t="n"/>
-      <c r="Q133" s="2" t="n"/>
-      <c r="R133" s="2" t="n"/>
-      <c r="S133" s="2" t="n"/>
-      <c r="T133" s="2" t="n"/>
-      <c r="U133" s="2" t="n"/>
-      <c r="V133" s="2" t="n"/>
-      <c r="W133" s="2" t="n"/>
-      <c r="X133" s="2" t="n"/>
-      <c r="Y133" s="2" t="n"/>
-      <c r="Z133" s="2" t="n"/>
-      <c r="AA133" s="2" t="n"/>
-      <c r="AB133" s="2" t="n"/>
-      <c r="AC133" s="2" t="n"/>
-      <c r="AD133" s="2" t="n"/>
+      <c r="G133" s="6" t="n"/>
+      <c r="H133" s="6" t="n"/>
+      <c r="I133" s="6" t="n"/>
+      <c r="J133" s="6" t="n"/>
+      <c r="K133" s="6" t="n"/>
+      <c r="L133" s="6" t="n"/>
+      <c r="M133" s="6" t="n"/>
+      <c r="N133" s="6" t="n"/>
+      <c r="O133" s="6" t="n"/>
+      <c r="P133" s="6" t="n"/>
+      <c r="Q133" s="6" t="n"/>
+      <c r="R133" s="6" t="n"/>
+      <c r="S133" s="6" t="n"/>
+      <c r="T133" s="6" t="n"/>
+      <c r="U133" s="6" t="n"/>
+      <c r="V133" s="6" t="n"/>
+      <c r="W133" s="6" t="n"/>
+      <c r="X133" s="6" t="n"/>
+      <c r="Y133" s="6" t="n"/>
+      <c r="Z133" s="6" t="n"/>
+      <c r="AA133" s="6" t="n"/>
+      <c r="AB133" s="6" t="n"/>
+      <c r="AC133" s="6" t="n"/>
+      <c r="AD133" s="6" t="n"/>
     </row>
     <row r="134">
       <c r="A134" s="4" t="inlineStr"/>
       <c r="B134" s="7" t="n"/>
       <c r="C134" s="5" t="inlineStr">
         <is>
-          <t>data_collectors</t>
+          <t>txt</t>
         </is>
       </c>
       <c r="D134" s="5" t="n">
@@ -9571,42 +9618,38 @@
       <c r="E134" s="5" t="n">
         <v/>
       </c>
-      <c r="F134" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": null, "affiliation": null, "abbr": null, "role": null}]</t>
-        </is>
-      </c>
-      <c r="G134" s="2" t="n"/>
-      <c r="H134" s="2" t="n"/>
-      <c r="I134" s="2" t="n"/>
-      <c r="J134" s="2" t="n"/>
-      <c r="K134" s="2" t="n"/>
-      <c r="L134" s="2" t="n"/>
-      <c r="M134" s="2" t="n"/>
-      <c r="N134" s="2" t="n"/>
-      <c r="O134" s="2" t="n"/>
-      <c r="P134" s="2" t="n"/>
-      <c r="Q134" s="2" t="n"/>
-      <c r="R134" s="2" t="n"/>
-      <c r="S134" s="2" t="n"/>
-      <c r="T134" s="2" t="n"/>
-      <c r="U134" s="2" t="n"/>
-      <c r="V134" s="2" t="n"/>
-      <c r="W134" s="2" t="n"/>
-      <c r="X134" s="2" t="n"/>
-      <c r="Y134" s="2" t="n"/>
-      <c r="Z134" s="2" t="n"/>
-      <c r="AA134" s="2" t="n"/>
-      <c r="AB134" s="2" t="n"/>
-      <c r="AC134" s="2" t="n"/>
-      <c r="AD134" s="2" t="n"/>
+      <c r="F134" s="6" t="n"/>
+      <c r="G134" s="6" t="n"/>
+      <c r="H134" s="6" t="n"/>
+      <c r="I134" s="6" t="n"/>
+      <c r="J134" s="6" t="n"/>
+      <c r="K134" s="6" t="n"/>
+      <c r="L134" s="6" t="n"/>
+      <c r="M134" s="6" t="n"/>
+      <c r="N134" s="6" t="n"/>
+      <c r="O134" s="6" t="n"/>
+      <c r="P134" s="6" t="n"/>
+      <c r="Q134" s="6" t="n"/>
+      <c r="R134" s="6" t="n"/>
+      <c r="S134" s="6" t="n"/>
+      <c r="T134" s="6" t="n"/>
+      <c r="U134" s="6" t="n"/>
+      <c r="V134" s="6" t="n"/>
+      <c r="W134" s="6" t="n"/>
+      <c r="X134" s="6" t="n"/>
+      <c r="Y134" s="6" t="n"/>
+      <c r="Z134" s="6" t="n"/>
+      <c r="AA134" s="6" t="n"/>
+      <c r="AB134" s="6" t="n"/>
+      <c r="AC134" s="6" t="n"/>
+      <c r="AD134" s="6" t="n"/>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr"/>
       <c r="B135" s="7" t="n"/>
       <c r="C135" s="5" t="inlineStr">
         <is>
-          <t>collector_training</t>
+          <t>command</t>
         </is>
       </c>
       <c r="D135" s="5" t="n">
@@ -9615,42 +9658,38 @@
       <c r="E135" s="5" t="n">
         <v/>
       </c>
-      <c r="F135" s="6" t="inlineStr">
-        <is>
-          <t>[{"type": null, "training": null}]</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="n"/>
-      <c r="H135" s="2" t="n"/>
-      <c r="I135" s="2" t="n"/>
-      <c r="J135" s="2" t="n"/>
-      <c r="K135" s="2" t="n"/>
-      <c r="L135" s="2" t="n"/>
-      <c r="M135" s="2" t="n"/>
-      <c r="N135" s="2" t="n"/>
-      <c r="O135" s="2" t="n"/>
-      <c r="P135" s="2" t="n"/>
-      <c r="Q135" s="2" t="n"/>
-      <c r="R135" s="2" t="n"/>
-      <c r="S135" s="2" t="n"/>
-      <c r="T135" s="2" t="n"/>
-      <c r="U135" s="2" t="n"/>
-      <c r="V135" s="2" t="n"/>
-      <c r="W135" s="2" t="n"/>
-      <c r="X135" s="2" t="n"/>
-      <c r="Y135" s="2" t="n"/>
-      <c r="Z135" s="2" t="n"/>
-      <c r="AA135" s="2" t="n"/>
-      <c r="AB135" s="2" t="n"/>
-      <c r="AC135" s="2" t="n"/>
-      <c r="AD135" s="2" t="n"/>
+      <c r="F135" s="6" t="n"/>
+      <c r="G135" s="6" t="n"/>
+      <c r="H135" s="6" t="n"/>
+      <c r="I135" s="6" t="n"/>
+      <c r="J135" s="6" t="n"/>
+      <c r="K135" s="6" t="n"/>
+      <c r="L135" s="6" t="n"/>
+      <c r="M135" s="6" t="n"/>
+      <c r="N135" s="6" t="n"/>
+      <c r="O135" s="6" t="n"/>
+      <c r="P135" s="6" t="n"/>
+      <c r="Q135" s="6" t="n"/>
+      <c r="R135" s="6" t="n"/>
+      <c r="S135" s="6" t="n"/>
+      <c r="T135" s="6" t="n"/>
+      <c r="U135" s="6" t="n"/>
+      <c r="V135" s="6" t="n"/>
+      <c r="W135" s="6" t="n"/>
+      <c r="X135" s="6" t="n"/>
+      <c r="Y135" s="6" t="n"/>
+      <c r="Z135" s="6" t="n"/>
+      <c r="AA135" s="6" t="n"/>
+      <c r="AB135" s="6" t="n"/>
+      <c r="AC135" s="6" t="n"/>
+      <c r="AD135" s="6" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr"/>
       <c r="B136" s="7" t="n"/>
       <c r="C136" s="5" t="inlineStr">
         <is>
-          <t>frequency</t>
+          <t>formal_language</t>
         </is>
       </c>
       <c r="D136" s="5" t="n">
@@ -9660,37 +9699,41 @@
         <v/>
       </c>
       <c r="F136" s="6" t="n"/>
-      <c r="G136" s="2" t="n"/>
-      <c r="H136" s="2" t="n"/>
-      <c r="I136" s="2" t="n"/>
-      <c r="J136" s="2" t="n"/>
-      <c r="K136" s="2" t="n"/>
-      <c r="L136" s="2" t="n"/>
-      <c r="M136" s="2" t="n"/>
-      <c r="N136" s="2" t="n"/>
-      <c r="O136" s="2" t="n"/>
-      <c r="P136" s="2" t="n"/>
-      <c r="Q136" s="2" t="n"/>
-      <c r="R136" s="2" t="n"/>
-      <c r="S136" s="2" t="n"/>
-      <c r="T136" s="2" t="n"/>
-      <c r="U136" s="2" t="n"/>
-      <c r="V136" s="2" t="n"/>
-      <c r="W136" s="2" t="n"/>
-      <c r="X136" s="2" t="n"/>
-      <c r="Y136" s="2" t="n"/>
-      <c r="Z136" s="2" t="n"/>
-      <c r="AA136" s="2" t="n"/>
-      <c r="AB136" s="2" t="n"/>
-      <c r="AC136" s="2" t="n"/>
-      <c r="AD136" s="2" t="n"/>
+      <c r="G136" s="6" t="n"/>
+      <c r="H136" s="6" t="n"/>
+      <c r="I136" s="6" t="n"/>
+      <c r="J136" s="6" t="n"/>
+      <c r="K136" s="6" t="n"/>
+      <c r="L136" s="6" t="n"/>
+      <c r="M136" s="6" t="n"/>
+      <c r="N136" s="6" t="n"/>
+      <c r="O136" s="6" t="n"/>
+      <c r="P136" s="6" t="n"/>
+      <c r="Q136" s="6" t="n"/>
+      <c r="R136" s="6" t="n"/>
+      <c r="S136" s="6" t="n"/>
+      <c r="T136" s="6" t="n"/>
+      <c r="U136" s="6" t="n"/>
+      <c r="V136" s="6" t="n"/>
+      <c r="W136" s="6" t="n"/>
+      <c r="X136" s="6" t="n"/>
+      <c r="Y136" s="6" t="n"/>
+      <c r="Z136" s="6" t="n"/>
+      <c r="AA136" s="6" t="n"/>
+      <c r="AB136" s="6" t="n"/>
+      <c r="AC136" s="6" t="n"/>
+      <c r="AD136" s="6" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr"/>
-      <c r="B137" s="7" t="n"/>
+      <c r="B137" s="5" t="inlineStr">
+        <is>
+          <t>data_collection</t>
+        </is>
+      </c>
       <c r="C137" s="5" t="inlineStr">
         <is>
-          <t>sampling_procedure</t>
+          <t>time_method</t>
         </is>
       </c>
       <c r="D137" s="5" t="n">
@@ -9730,7 +9773,7 @@
       <c r="B138" s="7" t="n"/>
       <c r="C138" s="5" t="inlineStr">
         <is>
-          <t>sample_frame</t>
+          <t>data_collectors</t>
         </is>
       </c>
       <c r="D138" s="5" t="inlineStr">
@@ -9742,30 +9785,30 @@
         <v/>
       </c>
       <c r="F138" s="6" t="n"/>
-      <c r="G138" s="2" t="n"/>
-      <c r="H138" s="2" t="n"/>
-      <c r="I138" s="2" t="n"/>
-      <c r="J138" s="2" t="n"/>
-      <c r="K138" s="2" t="n"/>
-      <c r="L138" s="2" t="n"/>
-      <c r="M138" s="2" t="n"/>
-      <c r="N138" s="2" t="n"/>
-      <c r="O138" s="2" t="n"/>
-      <c r="P138" s="2" t="n"/>
-      <c r="Q138" s="2" t="n"/>
-      <c r="R138" s="2" t="n"/>
-      <c r="S138" s="2" t="n"/>
-      <c r="T138" s="2" t="n"/>
-      <c r="U138" s="2" t="n"/>
-      <c r="V138" s="2" t="n"/>
-      <c r="W138" s="2" t="n"/>
-      <c r="X138" s="2" t="n"/>
-      <c r="Y138" s="2" t="n"/>
-      <c r="Z138" s="2" t="n"/>
-      <c r="AA138" s="2" t="n"/>
-      <c r="AB138" s="2" t="n"/>
-      <c r="AC138" s="2" t="n"/>
-      <c r="AD138" s="2" t="n"/>
+      <c r="G138" s="6" t="n"/>
+      <c r="H138" s="6" t="n"/>
+      <c r="I138" s="6" t="n"/>
+      <c r="J138" s="6" t="n"/>
+      <c r="K138" s="6" t="n"/>
+      <c r="L138" s="6" t="n"/>
+      <c r="M138" s="6" t="n"/>
+      <c r="N138" s="6" t="n"/>
+      <c r="O138" s="6" t="n"/>
+      <c r="P138" s="6" t="n"/>
+      <c r="Q138" s="6" t="n"/>
+      <c r="R138" s="6" t="n"/>
+      <c r="S138" s="6" t="n"/>
+      <c r="T138" s="6" t="n"/>
+      <c r="U138" s="6" t="n"/>
+      <c r="V138" s="6" t="n"/>
+      <c r="W138" s="6" t="n"/>
+      <c r="X138" s="6" t="n"/>
+      <c r="Y138" s="6" t="n"/>
+      <c r="Z138" s="6" t="n"/>
+      <c r="AA138" s="6" t="n"/>
+      <c r="AB138" s="6" t="n"/>
+      <c r="AC138" s="6" t="n"/>
+      <c r="AD138" s="6" t="n"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr"/>
@@ -9773,41 +9816,37 @@
       <c r="C139" s="7" t="n"/>
       <c r="D139" s="5" t="inlineStr">
         <is>
-          <t>valid_period</t>
+          <t>affiliation</t>
         </is>
       </c>
       <c r="E139" s="5" t="n">
         <v/>
       </c>
-      <c r="F139" s="6" t="inlineStr">
-        <is>
-          <t>[{"event": null, "date": ""}]</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="n"/>
-      <c r="H139" s="2" t="n"/>
-      <c r="I139" s="2" t="n"/>
-      <c r="J139" s="2" t="n"/>
-      <c r="K139" s="2" t="n"/>
-      <c r="L139" s="2" t="n"/>
-      <c r="M139" s="2" t="n"/>
-      <c r="N139" s="2" t="n"/>
-      <c r="O139" s="2" t="n"/>
-      <c r="P139" s="2" t="n"/>
-      <c r="Q139" s="2" t="n"/>
-      <c r="R139" s="2" t="n"/>
-      <c r="S139" s="2" t="n"/>
-      <c r="T139" s="2" t="n"/>
-      <c r="U139" s="2" t="n"/>
-      <c r="V139" s="2" t="n"/>
-      <c r="W139" s="2" t="n"/>
-      <c r="X139" s="2" t="n"/>
-      <c r="Y139" s="2" t="n"/>
-      <c r="Z139" s="2" t="n"/>
-      <c r="AA139" s="2" t="n"/>
-      <c r="AB139" s="2" t="n"/>
-      <c r="AC139" s="2" t="n"/>
-      <c r="AD139" s="2" t="n"/>
+      <c r="F139" s="6" t="n"/>
+      <c r="G139" s="6" t="n"/>
+      <c r="H139" s="6" t="n"/>
+      <c r="I139" s="6" t="n"/>
+      <c r="J139" s="6" t="n"/>
+      <c r="K139" s="6" t="n"/>
+      <c r="L139" s="6" t="n"/>
+      <c r="M139" s="6" t="n"/>
+      <c r="N139" s="6" t="n"/>
+      <c r="O139" s="6" t="n"/>
+      <c r="P139" s="6" t="n"/>
+      <c r="Q139" s="6" t="n"/>
+      <c r="R139" s="6" t="n"/>
+      <c r="S139" s="6" t="n"/>
+      <c r="T139" s="6" t="n"/>
+      <c r="U139" s="6" t="n"/>
+      <c r="V139" s="6" t="n"/>
+      <c r="W139" s="6" t="n"/>
+      <c r="X139" s="6" t="n"/>
+      <c r="Y139" s="6" t="n"/>
+      <c r="Z139" s="6" t="n"/>
+      <c r="AA139" s="6" t="n"/>
+      <c r="AB139" s="6" t="n"/>
+      <c r="AC139" s="6" t="n"/>
+      <c r="AD139" s="6" t="n"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr"/>
@@ -9815,37 +9854,37 @@
       <c r="C140" s="7" t="n"/>
       <c r="D140" s="5" t="inlineStr">
         <is>
-          <t>custodian</t>
+          <t>abbr</t>
         </is>
       </c>
       <c r="E140" s="5" t="n">
         <v/>
       </c>
       <c r="F140" s="6" t="n"/>
-      <c r="G140" s="2" t="n"/>
-      <c r="H140" s="2" t="n"/>
-      <c r="I140" s="2" t="n"/>
-      <c r="J140" s="2" t="n"/>
-      <c r="K140" s="2" t="n"/>
-      <c r="L140" s="2" t="n"/>
-      <c r="M140" s="2" t="n"/>
-      <c r="N140" s="2" t="n"/>
-      <c r="O140" s="2" t="n"/>
-      <c r="P140" s="2" t="n"/>
-      <c r="Q140" s="2" t="n"/>
-      <c r="R140" s="2" t="n"/>
-      <c r="S140" s="2" t="n"/>
-      <c r="T140" s="2" t="n"/>
-      <c r="U140" s="2" t="n"/>
-      <c r="V140" s="2" t="n"/>
-      <c r="W140" s="2" t="n"/>
-      <c r="X140" s="2" t="n"/>
-      <c r="Y140" s="2" t="n"/>
-      <c r="Z140" s="2" t="n"/>
-      <c r="AA140" s="2" t="n"/>
-      <c r="AB140" s="2" t="n"/>
-      <c r="AC140" s="2" t="n"/>
-      <c r="AD140" s="2" t="n"/>
+      <c r="G140" s="6" t="n"/>
+      <c r="H140" s="6" t="n"/>
+      <c r="I140" s="6" t="n"/>
+      <c r="J140" s="6" t="n"/>
+      <c r="K140" s="6" t="n"/>
+      <c r="L140" s="6" t="n"/>
+      <c r="M140" s="6" t="n"/>
+      <c r="N140" s="6" t="n"/>
+      <c r="O140" s="6" t="n"/>
+      <c r="P140" s="6" t="n"/>
+      <c r="Q140" s="6" t="n"/>
+      <c r="R140" s="6" t="n"/>
+      <c r="S140" s="6" t="n"/>
+      <c r="T140" s="6" t="n"/>
+      <c r="U140" s="6" t="n"/>
+      <c r="V140" s="6" t="n"/>
+      <c r="W140" s="6" t="n"/>
+      <c r="X140" s="6" t="n"/>
+      <c r="Y140" s="6" t="n"/>
+      <c r="Z140" s="6" t="n"/>
+      <c r="AA140" s="6" t="n"/>
+      <c r="AB140" s="6" t="n"/>
+      <c r="AC140" s="6" t="n"/>
+      <c r="AD140" s="6" t="n"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="inlineStr"/>
@@ -9853,123 +9892,131 @@
       <c r="C141" s="7" t="n"/>
       <c r="D141" s="5" t="inlineStr">
         <is>
-          <t>universe</t>
+          <t>role</t>
         </is>
       </c>
       <c r="E141" s="5" t="n">
         <v/>
       </c>
       <c r="F141" s="6" t="n"/>
-      <c r="G141" s="2" t="n"/>
-      <c r="H141" s="2" t="n"/>
-      <c r="I141" s="2" t="n"/>
-      <c r="J141" s="2" t="n"/>
-      <c r="K141" s="2" t="n"/>
-      <c r="L141" s="2" t="n"/>
-      <c r="M141" s="2" t="n"/>
-      <c r="N141" s="2" t="n"/>
-      <c r="O141" s="2" t="n"/>
-      <c r="P141" s="2" t="n"/>
-      <c r="Q141" s="2" t="n"/>
-      <c r="R141" s="2" t="n"/>
-      <c r="S141" s="2" t="n"/>
-      <c r="T141" s="2" t="n"/>
-      <c r="U141" s="2" t="n"/>
-      <c r="V141" s="2" t="n"/>
-      <c r="W141" s="2" t="n"/>
-      <c r="X141" s="2" t="n"/>
-      <c r="Y141" s="2" t="n"/>
-      <c r="Z141" s="2" t="n"/>
-      <c r="AA141" s="2" t="n"/>
-      <c r="AB141" s="2" t="n"/>
-      <c r="AC141" s="2" t="n"/>
-      <c r="AD141" s="2" t="n"/>
+      <c r="G141" s="6" t="n"/>
+      <c r="H141" s="6" t="n"/>
+      <c r="I141" s="6" t="n"/>
+      <c r="J141" s="6" t="n"/>
+      <c r="K141" s="6" t="n"/>
+      <c r="L141" s="6" t="n"/>
+      <c r="M141" s="6" t="n"/>
+      <c r="N141" s="6" t="n"/>
+      <c r="O141" s="6" t="n"/>
+      <c r="P141" s="6" t="n"/>
+      <c r="Q141" s="6" t="n"/>
+      <c r="R141" s="6" t="n"/>
+      <c r="S141" s="6" t="n"/>
+      <c r="T141" s="6" t="n"/>
+      <c r="U141" s="6" t="n"/>
+      <c r="V141" s="6" t="n"/>
+      <c r="W141" s="6" t="n"/>
+      <c r="X141" s="6" t="n"/>
+      <c r="Y141" s="6" t="n"/>
+      <c r="Z141" s="6" t="n"/>
+      <c r="AA141" s="6" t="n"/>
+      <c r="AB141" s="6" t="n"/>
+      <c r="AC141" s="6" t="n"/>
+      <c r="AD141" s="6" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr"/>
       <c r="B142" s="7" t="n"/>
-      <c r="C142" s="7" t="n"/>
+      <c r="C142" s="5" t="inlineStr">
+        <is>
+          <t>collector_training</t>
+        </is>
+      </c>
       <c r="D142" s="5" t="inlineStr">
         <is>
-          <t>frame_unit</t>
-        </is>
-      </c>
-      <c r="E142" s="5" t="inlineStr">
-        <is>
-          <t>is_primary</t>
-        </is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="E142" s="5" t="n">
+        <v/>
       </c>
       <c r="F142" s="6" t="n"/>
-      <c r="G142" s="2" t="n"/>
-      <c r="H142" s="2" t="n"/>
-      <c r="I142" s="2" t="n"/>
-      <c r="J142" s="2" t="n"/>
-      <c r="K142" s="2" t="n"/>
-      <c r="L142" s="2" t="n"/>
-      <c r="M142" s="2" t="n"/>
-      <c r="N142" s="2" t="n"/>
-      <c r="O142" s="2" t="n"/>
-      <c r="P142" s="2" t="n"/>
-      <c r="Q142" s="2" t="n"/>
-      <c r="R142" s="2" t="n"/>
-      <c r="S142" s="2" t="n"/>
-      <c r="T142" s="2" t="n"/>
-      <c r="U142" s="2" t="n"/>
-      <c r="V142" s="2" t="n"/>
-      <c r="W142" s="2" t="n"/>
-      <c r="X142" s="2" t="n"/>
-      <c r="Y142" s="2" t="n"/>
-      <c r="Z142" s="2" t="n"/>
-      <c r="AA142" s="2" t="n"/>
-      <c r="AB142" s="2" t="n"/>
-      <c r="AC142" s="2" t="n"/>
-      <c r="AD142" s="2" t="n"/>
+      <c r="G142" s="6" t="n"/>
+      <c r="H142" s="6" t="n"/>
+      <c r="I142" s="6" t="n"/>
+      <c r="J142" s="6" t="n"/>
+      <c r="K142" s="6" t="n"/>
+      <c r="L142" s="6" t="n"/>
+      <c r="M142" s="6" t="n"/>
+      <c r="N142" s="6" t="n"/>
+      <c r="O142" s="6" t="n"/>
+      <c r="P142" s="6" t="n"/>
+      <c r="Q142" s="6" t="n"/>
+      <c r="R142" s="6" t="n"/>
+      <c r="S142" s="6" t="n"/>
+      <c r="T142" s="6" t="n"/>
+      <c r="U142" s="6" t="n"/>
+      <c r="V142" s="6" t="n"/>
+      <c r="W142" s="6" t="n"/>
+      <c r="X142" s="6" t="n"/>
+      <c r="Y142" s="6" t="n"/>
+      <c r="Z142" s="6" t="n"/>
+      <c r="AA142" s="6" t="n"/>
+      <c r="AB142" s="6" t="n"/>
+      <c r="AC142" s="6" t="n"/>
+      <c r="AD142" s="6" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr"/>
       <c r="B143" s="7" t="n"/>
       <c r="C143" s="7" t="n"/>
-      <c r="D143" s="7" t="n"/>
-      <c r="E143" s="5" t="inlineStr">
-        <is>
-          <t>unit_type</t>
-        </is>
+      <c r="D143" s="5" t="inlineStr">
+        <is>
+          <t>training</t>
+        </is>
+      </c>
+      <c r="E143" s="5" t="n">
+        <v/>
       </c>
       <c r="F143" s="6" t="n"/>
-      <c r="G143" s="2" t="n"/>
-      <c r="H143" s="2" t="n"/>
-      <c r="I143" s="2" t="n"/>
-      <c r="J143" s="2" t="n"/>
-      <c r="K143" s="2" t="n"/>
-      <c r="L143" s="2" t="n"/>
-      <c r="M143" s="2" t="n"/>
-      <c r="N143" s="2" t="n"/>
-      <c r="O143" s="2" t="n"/>
-      <c r="P143" s="2" t="n"/>
-      <c r="Q143" s="2" t="n"/>
-      <c r="R143" s="2" t="n"/>
-      <c r="S143" s="2" t="n"/>
-      <c r="T143" s="2" t="n"/>
-      <c r="U143" s="2" t="n"/>
-      <c r="V143" s="2" t="n"/>
-      <c r="W143" s="2" t="n"/>
-      <c r="X143" s="2" t="n"/>
-      <c r="Y143" s="2" t="n"/>
-      <c r="Z143" s="2" t="n"/>
-      <c r="AA143" s="2" t="n"/>
-      <c r="AB143" s="2" t="n"/>
-      <c r="AC143" s="2" t="n"/>
-      <c r="AD143" s="2" t="n"/>
+      <c r="G143" s="6" t="n"/>
+      <c r="H143" s="6" t="n"/>
+      <c r="I143" s="6" t="n"/>
+      <c r="J143" s="6" t="n"/>
+      <c r="K143" s="6" t="n"/>
+      <c r="L143" s="6" t="n"/>
+      <c r="M143" s="6" t="n"/>
+      <c r="N143" s="6" t="n"/>
+      <c r="O143" s="6" t="n"/>
+      <c r="P143" s="6" t="n"/>
+      <c r="Q143" s="6" t="n"/>
+      <c r="R143" s="6" t="n"/>
+      <c r="S143" s="6" t="n"/>
+      <c r="T143" s="6" t="n"/>
+      <c r="U143" s="6" t="n"/>
+      <c r="V143" s="6" t="n"/>
+      <c r="W143" s="6" t="n"/>
+      <c r="X143" s="6" t="n"/>
+      <c r="Y143" s="6" t="n"/>
+      <c r="Z143" s="6" t="n"/>
+      <c r="AA143" s="6" t="n"/>
+      <c r="AB143" s="6" t="n"/>
+      <c r="AC143" s="6" t="n"/>
+      <c r="AD143" s="6" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="4" t="inlineStr"/>
       <c r="B144" s="7" t="n"/>
-      <c r="C144" s="7" t="n"/>
-      <c r="D144" s="7" t="n"/>
-      <c r="E144" s="5" t="inlineStr">
-        <is>
-          <t>num_of_units</t>
-        </is>
+      <c r="C144" s="5" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="D144" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E144" s="5" t="n">
+        <v/>
       </c>
       <c r="F144" s="6" t="n"/>
       <c r="G144" s="2" t="n"/>
@@ -10000,20 +10047,18 @@
     <row r="145">
       <c r="A145" s="4" t="inlineStr"/>
       <c r="B145" s="7" t="n"/>
-      <c r="C145" s="7" t="n"/>
-      <c r="D145" s="5" t="inlineStr">
-        <is>
-          <t>reference_period</t>
-        </is>
+      <c r="C145" s="5" t="inlineStr">
+        <is>
+          <t>sampling_procedure</t>
+        </is>
+      </c>
+      <c r="D145" s="5" t="n">
+        <v/>
       </c>
       <c r="E145" s="5" t="n">
         <v/>
       </c>
-      <c r="F145" s="6" t="inlineStr">
-        <is>
-          <t>[{"event": null, "date": ""}]</t>
-        </is>
-      </c>
+      <c r="F145" s="6" t="n"/>
       <c r="G145" s="2" t="n"/>
       <c r="H145" s="2" t="n"/>
       <c r="I145" s="2" t="n"/>
@@ -10042,10 +10087,14 @@
     <row r="146">
       <c r="A146" s="4" t="inlineStr"/>
       <c r="B146" s="7" t="n"/>
-      <c r="C146" s="7" t="n"/>
+      <c r="C146" s="5" t="inlineStr">
+        <is>
+          <t>sample_frame</t>
+        </is>
+      </c>
       <c r="D146" s="5" t="inlineStr">
         <is>
-          <t>update_procedure</t>
+          <t>name</t>
         </is>
       </c>
       <c r="E146" s="5" t="n">
@@ -10080,97 +10129,87 @@
     <row r="147">
       <c r="A147" s="4" t="inlineStr"/>
       <c r="B147" s="7" t="n"/>
-      <c r="C147" s="5" t="inlineStr">
-        <is>
-          <t>sampling_deviation</t>
-        </is>
-      </c>
-      <c r="D147" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E147" s="5" t="n">
-        <v/>
+      <c r="C147" s="7" t="n"/>
+      <c r="D147" s="5" t="inlineStr">
+        <is>
+          <t>valid_period</t>
+        </is>
+      </c>
+      <c r="E147" s="5" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
       </c>
       <c r="F147" s="6" t="n"/>
-      <c r="G147" s="2" t="n"/>
-      <c r="H147" s="2" t="n"/>
-      <c r="I147" s="2" t="n"/>
-      <c r="J147" s="2" t="n"/>
-      <c r="K147" s="2" t="n"/>
-      <c r="L147" s="2" t="n"/>
-      <c r="M147" s="2" t="n"/>
-      <c r="N147" s="2" t="n"/>
-      <c r="O147" s="2" t="n"/>
-      <c r="P147" s="2" t="n"/>
-      <c r="Q147" s="2" t="n"/>
-      <c r="R147" s="2" t="n"/>
-      <c r="S147" s="2" t="n"/>
-      <c r="T147" s="2" t="n"/>
-      <c r="U147" s="2" t="n"/>
-      <c r="V147" s="2" t="n"/>
-      <c r="W147" s="2" t="n"/>
-      <c r="X147" s="2" t="n"/>
-      <c r="Y147" s="2" t="n"/>
-      <c r="Z147" s="2" t="n"/>
-      <c r="AA147" s="2" t="n"/>
-      <c r="AB147" s="2" t="n"/>
-      <c r="AC147" s="2" t="n"/>
-      <c r="AD147" s="2" t="n"/>
+      <c r="G147" s="6" t="n"/>
+      <c r="H147" s="6" t="n"/>
+      <c r="I147" s="6" t="n"/>
+      <c r="J147" s="6" t="n"/>
+      <c r="K147" s="6" t="n"/>
+      <c r="L147" s="6" t="n"/>
+      <c r="M147" s="6" t="n"/>
+      <c r="N147" s="6" t="n"/>
+      <c r="O147" s="6" t="n"/>
+      <c r="P147" s="6" t="n"/>
+      <c r="Q147" s="6" t="n"/>
+      <c r="R147" s="6" t="n"/>
+      <c r="S147" s="6" t="n"/>
+      <c r="T147" s="6" t="n"/>
+      <c r="U147" s="6" t="n"/>
+      <c r="V147" s="6" t="n"/>
+      <c r="W147" s="6" t="n"/>
+      <c r="X147" s="6" t="n"/>
+      <c r="Y147" s="6" t="n"/>
+      <c r="Z147" s="6" t="n"/>
+      <c r="AA147" s="6" t="n"/>
+      <c r="AB147" s="6" t="n"/>
+      <c r="AC147" s="6" t="n"/>
+      <c r="AD147" s="6" t="n"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="inlineStr"/>
       <c r="B148" s="7" t="n"/>
-      <c r="C148" s="5" t="inlineStr">
-        <is>
-          <t>coll_mode</t>
-        </is>
-      </c>
-      <c r="D148" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E148" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F148" s="6" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="n"/>
-      <c r="H148" s="2" t="n"/>
-      <c r="I148" s="2" t="n"/>
-      <c r="J148" s="2" t="n"/>
-      <c r="K148" s="2" t="n"/>
-      <c r="L148" s="2" t="n"/>
-      <c r="M148" s="2" t="n"/>
-      <c r="N148" s="2" t="n"/>
-      <c r="O148" s="2" t="n"/>
-      <c r="P148" s="2" t="n"/>
-      <c r="Q148" s="2" t="n"/>
-      <c r="R148" s="2" t="n"/>
-      <c r="S148" s="2" t="n"/>
-      <c r="T148" s="2" t="n"/>
-      <c r="U148" s="2" t="n"/>
-      <c r="V148" s="2" t="n"/>
-      <c r="W148" s="2" t="n"/>
-      <c r="X148" s="2" t="n"/>
-      <c r="Y148" s="2" t="n"/>
-      <c r="Z148" s="2" t="n"/>
-      <c r="AA148" s="2" t="n"/>
-      <c r="AB148" s="2" t="n"/>
-      <c r="AC148" s="2" t="n"/>
-      <c r="AD148" s="2" t="n"/>
+      <c r="C148" s="7" t="n"/>
+      <c r="D148" s="7" t="n"/>
+      <c r="E148" s="5" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F148" s="6" t="inlineStr"/>
+      <c r="G148" s="6" t="n"/>
+      <c r="H148" s="6" t="n"/>
+      <c r="I148" s="6" t="n"/>
+      <c r="J148" s="6" t="n"/>
+      <c r="K148" s="6" t="n"/>
+      <c r="L148" s="6" t="n"/>
+      <c r="M148" s="6" t="n"/>
+      <c r="N148" s="6" t="n"/>
+      <c r="O148" s="6" t="n"/>
+      <c r="P148" s="6" t="n"/>
+      <c r="Q148" s="6" t="n"/>
+      <c r="R148" s="6" t="n"/>
+      <c r="S148" s="6" t="n"/>
+      <c r="T148" s="6" t="n"/>
+      <c r="U148" s="6" t="n"/>
+      <c r="V148" s="6" t="n"/>
+      <c r="W148" s="6" t="n"/>
+      <c r="X148" s="6" t="n"/>
+      <c r="Y148" s="6" t="n"/>
+      <c r="Z148" s="6" t="n"/>
+      <c r="AA148" s="6" t="n"/>
+      <c r="AB148" s="6" t="n"/>
+      <c r="AC148" s="6" t="n"/>
+      <c r="AD148" s="6" t="n"/>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr"/>
       <c r="B149" s="7" t="n"/>
-      <c r="C149" s="5" t="inlineStr">
-        <is>
-          <t>research_instrument</t>
-        </is>
-      </c>
-      <c r="D149" s="5" t="n">
-        <v/>
+      <c r="C149" s="7" t="n"/>
+      <c r="D149" s="5" t="inlineStr">
+        <is>
+          <t>custodian</t>
+        </is>
       </c>
       <c r="E149" s="5" t="n">
         <v/>
@@ -10204,13 +10243,11 @@
     <row r="150">
       <c r="A150" s="4" t="inlineStr"/>
       <c r="B150" s="7" t="n"/>
-      <c r="C150" s="5" t="inlineStr">
-        <is>
-          <t>instru_development</t>
-        </is>
-      </c>
-      <c r="D150" s="5" t="n">
-        <v/>
+      <c r="C150" s="7" t="n"/>
+      <c r="D150" s="5" t="inlineStr">
+        <is>
+          <t>universe</t>
+        </is>
       </c>
       <c r="E150" s="5" t="n">
         <v/>
@@ -10244,16 +10281,16 @@
     <row r="151">
       <c r="A151" s="4" t="inlineStr"/>
       <c r="B151" s="7" t="n"/>
-      <c r="C151" s="5" t="inlineStr">
-        <is>
-          <t>instru_development_type</t>
-        </is>
-      </c>
-      <c r="D151" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E151" s="5" t="n">
-        <v/>
+      <c r="C151" s="7" t="n"/>
+      <c r="D151" s="5" t="inlineStr">
+        <is>
+          <t>frame_unit</t>
+        </is>
+      </c>
+      <c r="E151" s="5" t="inlineStr">
+        <is>
+          <t>is_primary</t>
+        </is>
       </c>
       <c r="F151" s="6" t="n"/>
       <c r="G151" s="2" t="n"/>
@@ -10284,22 +10321,14 @@
     <row r="152">
       <c r="A152" s="4" t="inlineStr"/>
       <c r="B152" s="7" t="n"/>
-      <c r="C152" s="5" t="inlineStr">
-        <is>
-          <t>sources</t>
-        </is>
-      </c>
-      <c r="D152" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E152" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F152" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": null, "origin": null, "characteristics": null}]</t>
-        </is>
-      </c>
+      <c r="C152" s="7" t="n"/>
+      <c r="D152" s="7" t="n"/>
+      <c r="E152" s="5" t="inlineStr">
+        <is>
+          <t>unit_type</t>
+        </is>
+      </c>
+      <c r="F152" s="6" t="n"/>
       <c r="G152" s="2" t="n"/>
       <c r="H152" s="2" t="n"/>
       <c r="I152" s="2" t="n"/>
@@ -10328,16 +10357,12 @@
     <row r="153">
       <c r="A153" s="4" t="inlineStr"/>
       <c r="B153" s="7" t="n"/>
-      <c r="C153" s="5" t="inlineStr">
-        <is>
-          <t>coll_situation</t>
-        </is>
-      </c>
-      <c r="D153" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E153" s="5" t="n">
-        <v/>
+      <c r="C153" s="7" t="n"/>
+      <c r="D153" s="7" t="n"/>
+      <c r="E153" s="5" t="inlineStr">
+        <is>
+          <t>num_of_units</t>
+        </is>
       </c>
       <c r="F153" s="6" t="n"/>
       <c r="G153" s="2" t="n"/>
@@ -10368,93 +10393,87 @@
     <row r="154">
       <c r="A154" s="4" t="inlineStr"/>
       <c r="B154" s="7" t="n"/>
-      <c r="C154" s="5" t="inlineStr">
-        <is>
-          <t>act_min</t>
-        </is>
-      </c>
-      <c r="D154" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E154" s="5" t="n">
-        <v/>
+      <c r="C154" s="7" t="n"/>
+      <c r="D154" s="5" t="inlineStr">
+        <is>
+          <t>reference_period</t>
+        </is>
+      </c>
+      <c r="E154" s="5" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
       </c>
       <c r="F154" s="6" t="n"/>
-      <c r="G154" s="2" t="n"/>
-      <c r="H154" s="2" t="n"/>
-      <c r="I154" s="2" t="n"/>
-      <c r="J154" s="2" t="n"/>
-      <c r="K154" s="2" t="n"/>
-      <c r="L154" s="2" t="n"/>
-      <c r="M154" s="2" t="n"/>
-      <c r="N154" s="2" t="n"/>
-      <c r="O154" s="2" t="n"/>
-      <c r="P154" s="2" t="n"/>
-      <c r="Q154" s="2" t="n"/>
-      <c r="R154" s="2" t="n"/>
-      <c r="S154" s="2" t="n"/>
-      <c r="T154" s="2" t="n"/>
-      <c r="U154" s="2" t="n"/>
-      <c r="V154" s="2" t="n"/>
-      <c r="W154" s="2" t="n"/>
-      <c r="X154" s="2" t="n"/>
-      <c r="Y154" s="2" t="n"/>
-      <c r="Z154" s="2" t="n"/>
-      <c r="AA154" s="2" t="n"/>
-      <c r="AB154" s="2" t="n"/>
-      <c r="AC154" s="2" t="n"/>
-      <c r="AD154" s="2" t="n"/>
+      <c r="G154" s="6" t="n"/>
+      <c r="H154" s="6" t="n"/>
+      <c r="I154" s="6" t="n"/>
+      <c r="J154" s="6" t="n"/>
+      <c r="K154" s="6" t="n"/>
+      <c r="L154" s="6" t="n"/>
+      <c r="M154" s="6" t="n"/>
+      <c r="N154" s="6" t="n"/>
+      <c r="O154" s="6" t="n"/>
+      <c r="P154" s="6" t="n"/>
+      <c r="Q154" s="6" t="n"/>
+      <c r="R154" s="6" t="n"/>
+      <c r="S154" s="6" t="n"/>
+      <c r="T154" s="6" t="n"/>
+      <c r="U154" s="6" t="n"/>
+      <c r="V154" s="6" t="n"/>
+      <c r="W154" s="6" t="n"/>
+      <c r="X154" s="6" t="n"/>
+      <c r="Y154" s="6" t="n"/>
+      <c r="Z154" s="6" t="n"/>
+      <c r="AA154" s="6" t="n"/>
+      <c r="AB154" s="6" t="n"/>
+      <c r="AC154" s="6" t="n"/>
+      <c r="AD154" s="6" t="n"/>
     </row>
     <row r="155">
       <c r="A155" s="4" t="inlineStr"/>
       <c r="B155" s="7" t="n"/>
-      <c r="C155" s="5" t="inlineStr">
-        <is>
-          <t>control_operations</t>
-        </is>
-      </c>
-      <c r="D155" s="5" t="n">
-        <v/>
-      </c>
-      <c r="E155" s="5" t="n">
-        <v/>
-      </c>
-      <c r="F155" s="6" t="n"/>
-      <c r="G155" s="2" t="n"/>
-      <c r="H155" s="2" t="n"/>
-      <c r="I155" s="2" t="n"/>
-      <c r="J155" s="2" t="n"/>
-      <c r="K155" s="2" t="n"/>
-      <c r="L155" s="2" t="n"/>
-      <c r="M155" s="2" t="n"/>
-      <c r="N155" s="2" t="n"/>
-      <c r="O155" s="2" t="n"/>
-      <c r="P155" s="2" t="n"/>
-      <c r="Q155" s="2" t="n"/>
-      <c r="R155" s="2" t="n"/>
-      <c r="S155" s="2" t="n"/>
-      <c r="T155" s="2" t="n"/>
-      <c r="U155" s="2" t="n"/>
-      <c r="V155" s="2" t="n"/>
-      <c r="W155" s="2" t="n"/>
-      <c r="X155" s="2" t="n"/>
-      <c r="Y155" s="2" t="n"/>
-      <c r="Z155" s="2" t="n"/>
-      <c r="AA155" s="2" t="n"/>
-      <c r="AB155" s="2" t="n"/>
-      <c r="AC155" s="2" t="n"/>
-      <c r="AD155" s="2" t="n"/>
+      <c r="C155" s="7" t="n"/>
+      <c r="D155" s="7" t="n"/>
+      <c r="E155" s="5" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="inlineStr"/>
+      <c r="G155" s="6" t="n"/>
+      <c r="H155" s="6" t="n"/>
+      <c r="I155" s="6" t="n"/>
+      <c r="J155" s="6" t="n"/>
+      <c r="K155" s="6" t="n"/>
+      <c r="L155" s="6" t="n"/>
+      <c r="M155" s="6" t="n"/>
+      <c r="N155" s="6" t="n"/>
+      <c r="O155" s="6" t="n"/>
+      <c r="P155" s="6" t="n"/>
+      <c r="Q155" s="6" t="n"/>
+      <c r="R155" s="6" t="n"/>
+      <c r="S155" s="6" t="n"/>
+      <c r="T155" s="6" t="n"/>
+      <c r="U155" s="6" t="n"/>
+      <c r="V155" s="6" t="n"/>
+      <c r="W155" s="6" t="n"/>
+      <c r="X155" s="6" t="n"/>
+      <c r="Y155" s="6" t="n"/>
+      <c r="Z155" s="6" t="n"/>
+      <c r="AA155" s="6" t="n"/>
+      <c r="AB155" s="6" t="n"/>
+      <c r="AC155" s="6" t="n"/>
+      <c r="AD155" s="6" t="n"/>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr"/>
       <c r="B156" s="7" t="n"/>
-      <c r="C156" s="5" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="D156" s="5" t="n">
-        <v/>
+      <c r="C156" s="7" t="n"/>
+      <c r="D156" s="5" t="inlineStr">
+        <is>
+          <t>update_procedure</t>
+        </is>
       </c>
       <c r="E156" s="5" t="n">
         <v/>
@@ -10490,7 +10509,7 @@
       <c r="B157" s="7" t="n"/>
       <c r="C157" s="5" t="inlineStr">
         <is>
-          <t>cleaning_operations</t>
+          <t>sampling_deviation</t>
         </is>
       </c>
       <c r="D157" s="5" t="n">
@@ -10527,14 +10546,10 @@
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr"/>
-      <c r="B158" s="5" t="inlineStr">
-        <is>
-          <t>analysis_info</t>
-        </is>
-      </c>
+      <c r="B158" s="7" t="n"/>
       <c r="C158" s="5" t="inlineStr">
         <is>
-          <t>response_rate</t>
+          <t>coll_mode</t>
         </is>
       </c>
       <c r="D158" s="5" t="n">
@@ -10544,37 +10559,37 @@
         <v/>
       </c>
       <c r="F158" s="6" t="n"/>
-      <c r="G158" s="2" t="n"/>
-      <c r="H158" s="2" t="n"/>
-      <c r="I158" s="2" t="n"/>
-      <c r="J158" s="2" t="n"/>
-      <c r="K158" s="2" t="n"/>
-      <c r="L158" s="2" t="n"/>
-      <c r="M158" s="2" t="n"/>
-      <c r="N158" s="2" t="n"/>
-      <c r="O158" s="2" t="n"/>
-      <c r="P158" s="2" t="n"/>
-      <c r="Q158" s="2" t="n"/>
-      <c r="R158" s="2" t="n"/>
-      <c r="S158" s="2" t="n"/>
-      <c r="T158" s="2" t="n"/>
-      <c r="U158" s="2" t="n"/>
-      <c r="V158" s="2" t="n"/>
-      <c r="W158" s="2" t="n"/>
-      <c r="X158" s="2" t="n"/>
-      <c r="Y158" s="2" t="n"/>
-      <c r="Z158" s="2" t="n"/>
-      <c r="AA158" s="2" t="n"/>
-      <c r="AB158" s="2" t="n"/>
-      <c r="AC158" s="2" t="n"/>
-      <c r="AD158" s="2" t="n"/>
+      <c r="G158" s="6" t="n"/>
+      <c r="H158" s="6" t="n"/>
+      <c r="I158" s="6" t="n"/>
+      <c r="J158" s="6" t="n"/>
+      <c r="K158" s="6" t="n"/>
+      <c r="L158" s="6" t="n"/>
+      <c r="M158" s="6" t="n"/>
+      <c r="N158" s="6" t="n"/>
+      <c r="O158" s="6" t="n"/>
+      <c r="P158" s="6" t="n"/>
+      <c r="Q158" s="6" t="n"/>
+      <c r="R158" s="6" t="n"/>
+      <c r="S158" s="6" t="n"/>
+      <c r="T158" s="6" t="n"/>
+      <c r="U158" s="6" t="n"/>
+      <c r="V158" s="6" t="n"/>
+      <c r="W158" s="6" t="n"/>
+      <c r="X158" s="6" t="n"/>
+      <c r="Y158" s="6" t="n"/>
+      <c r="Z158" s="6" t="n"/>
+      <c r="AA158" s="6" t="n"/>
+      <c r="AB158" s="6" t="n"/>
+      <c r="AC158" s="6" t="n"/>
+      <c r="AD158" s="6" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr"/>
       <c r="B159" s="7" t="n"/>
       <c r="C159" s="5" t="inlineStr">
         <is>
-          <t>sampling_error_estimates</t>
+          <t>research_instrument</t>
         </is>
       </c>
       <c r="D159" s="5" t="n">
@@ -10614,7 +10629,7 @@
       <c r="B160" s="7" t="n"/>
       <c r="C160" s="5" t="inlineStr">
         <is>
-          <t>data_appraisal</t>
+          <t>instru_development</t>
         </is>
       </c>
       <c r="D160" s="5" t="n">
@@ -10650,12 +10665,20 @@
       <c r="AD160" s="2" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="4" t="n"/>
-      <c r="B161" s="8" t="n"/>
-      <c r="C161" s="8" t="n"/>
-      <c r="D161" s="8" t="n"/>
-      <c r="E161" s="8" t="n"/>
-      <c r="F161" s="2" t="n"/>
+      <c r="A161" s="4" t="inlineStr"/>
+      <c r="B161" s="7" t="n"/>
+      <c r="C161" s="5" t="inlineStr">
+        <is>
+          <t>instru_development_type</t>
+        </is>
+      </c>
+      <c r="D161" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E161" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F161" s="6" t="n"/>
       <c r="G161" s="2" t="n"/>
       <c r="H161" s="2" t="n"/>
       <c r="I161" s="2" t="n"/>
@@ -10682,130 +10705,138 @@
       <c r="AD161" s="2" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="10" t="inlineStr">
-        <is>
-          <t>data_access</t>
-        </is>
-      </c>
-      <c r="B162" s="2" t="n"/>
-      <c r="C162" s="2" t="n"/>
-      <c r="D162" s="2" t="n"/>
-      <c r="E162" s="2" t="n"/>
-      <c r="F162" s="2" t="n"/>
-      <c r="G162" s="2" t="n"/>
-      <c r="H162" s="2" t="n"/>
-      <c r="I162" s="2" t="n"/>
-      <c r="J162" s="2" t="n"/>
-      <c r="K162" s="2" t="n"/>
-      <c r="L162" s="2" t="n"/>
-      <c r="M162" s="2" t="n"/>
-      <c r="N162" s="2" t="n"/>
-      <c r="O162" s="2" t="n"/>
-      <c r="P162" s="2" t="n"/>
-      <c r="Q162" s="2" t="n"/>
-      <c r="R162" s="2" t="n"/>
-      <c r="S162" s="2" t="n"/>
-      <c r="T162" s="2" t="n"/>
-      <c r="U162" s="2" t="n"/>
-      <c r="V162" s="2" t="n"/>
-      <c r="W162" s="2" t="n"/>
-      <c r="X162" s="2" t="n"/>
-      <c r="Y162" s="2" t="n"/>
-      <c r="Z162" s="2" t="n"/>
-      <c r="AA162" s="2" t="n"/>
-      <c r="AB162" s="2" t="n"/>
-      <c r="AC162" s="2" t="n"/>
-      <c r="AD162" s="2" t="n"/>
+      <c r="A162" s="4" t="inlineStr"/>
+      <c r="B162" s="7" t="n"/>
+      <c r="C162" s="5" t="inlineStr">
+        <is>
+          <t>sources</t>
+        </is>
+      </c>
+      <c r="D162" s="5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E162" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F162" s="6" t="n"/>
+      <c r="G162" s="6" t="n"/>
+      <c r="H162" s="6" t="n"/>
+      <c r="I162" s="6" t="n"/>
+      <c r="J162" s="6" t="n"/>
+      <c r="K162" s="6" t="n"/>
+      <c r="L162" s="6" t="n"/>
+      <c r="M162" s="6" t="n"/>
+      <c r="N162" s="6" t="n"/>
+      <c r="O162" s="6" t="n"/>
+      <c r="P162" s="6" t="n"/>
+      <c r="Q162" s="6" t="n"/>
+      <c r="R162" s="6" t="n"/>
+      <c r="S162" s="6" t="n"/>
+      <c r="T162" s="6" t="n"/>
+      <c r="U162" s="6" t="n"/>
+      <c r="V162" s="6" t="n"/>
+      <c r="W162" s="6" t="n"/>
+      <c r="X162" s="6" t="n"/>
+      <c r="Y162" s="6" t="n"/>
+      <c r="Z162" s="6" t="n"/>
+      <c r="AA162" s="6" t="n"/>
+      <c r="AB162" s="6" t="n"/>
+      <c r="AC162" s="6" t="n"/>
+      <c r="AD162" s="6" t="n"/>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr"/>
-      <c r="B163" s="5" t="inlineStr">
-        <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="C163" s="5" t="n">
+      <c r="B163" s="7" t="n"/>
+      <c r="C163" s="7" t="n"/>
+      <c r="D163" s="5" t="inlineStr">
+        <is>
+          <t>origin</t>
+        </is>
+      </c>
+      <c r="E163" s="5" t="n">
         <v/>
       </c>
-      <c r="D163" s="6" t="n"/>
-      <c r="E163" s="2" t="n"/>
-      <c r="F163" s="2" t="n"/>
-      <c r="G163" s="2" t="n"/>
-      <c r="H163" s="2" t="n"/>
-      <c r="I163" s="2" t="n"/>
-      <c r="J163" s="2" t="n"/>
-      <c r="K163" s="2" t="n"/>
-      <c r="L163" s="2" t="n"/>
-      <c r="M163" s="2" t="n"/>
-      <c r="N163" s="2" t="n"/>
-      <c r="O163" s="2" t="n"/>
-      <c r="P163" s="2" t="n"/>
-      <c r="Q163" s="2" t="n"/>
-      <c r="R163" s="2" t="n"/>
-      <c r="S163" s="2" t="n"/>
-      <c r="T163" s="2" t="n"/>
-      <c r="U163" s="2" t="n"/>
-      <c r="V163" s="2" t="n"/>
-      <c r="W163" s="2" t="n"/>
-      <c r="X163" s="2" t="n"/>
-      <c r="Y163" s="2" t="n"/>
-      <c r="Z163" s="2" t="n"/>
-      <c r="AA163" s="2" t="n"/>
-      <c r="AB163" s="2" t="n"/>
-      <c r="AC163" s="2" t="n"/>
-      <c r="AD163" s="2" t="n"/>
+      <c r="F163" s="6" t="n"/>
+      <c r="G163" s="6" t="n"/>
+      <c r="H163" s="6" t="n"/>
+      <c r="I163" s="6" t="n"/>
+      <c r="J163" s="6" t="n"/>
+      <c r="K163" s="6" t="n"/>
+      <c r="L163" s="6" t="n"/>
+      <c r="M163" s="6" t="n"/>
+      <c r="N163" s="6" t="n"/>
+      <c r="O163" s="6" t="n"/>
+      <c r="P163" s="6" t="n"/>
+      <c r="Q163" s="6" t="n"/>
+      <c r="R163" s="6" t="n"/>
+      <c r="S163" s="6" t="n"/>
+      <c r="T163" s="6" t="n"/>
+      <c r="U163" s="6" t="n"/>
+      <c r="V163" s="6" t="n"/>
+      <c r="W163" s="6" t="n"/>
+      <c r="X163" s="6" t="n"/>
+      <c r="Y163" s="6" t="n"/>
+      <c r="Z163" s="6" t="n"/>
+      <c r="AA163" s="6" t="n"/>
+      <c r="AB163" s="6" t="n"/>
+      <c r="AC163" s="6" t="n"/>
+      <c r="AD163" s="6" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="4" t="inlineStr"/>
-      <c r="B164" s="5" t="inlineStr">
-        <is>
-          <t>dataset_availability</t>
-        </is>
-      </c>
-      <c r="C164" s="5" t="inlineStr">
-        <is>
-          <t>access_place</t>
-        </is>
-      </c>
-      <c r="D164" s="6" t="n"/>
-      <c r="E164" s="2" t="n"/>
-      <c r="F164" s="2" t="n"/>
-      <c r="G164" s="2" t="n"/>
-      <c r="H164" s="2" t="n"/>
-      <c r="I164" s="2" t="n"/>
-      <c r="J164" s="2" t="n"/>
-      <c r="K164" s="2" t="n"/>
-      <c r="L164" s="2" t="n"/>
-      <c r="M164" s="2" t="n"/>
-      <c r="N164" s="2" t="n"/>
-      <c r="O164" s="2" t="n"/>
-      <c r="P164" s="2" t="n"/>
-      <c r="Q164" s="2" t="n"/>
-      <c r="R164" s="2" t="n"/>
-      <c r="S164" s="2" t="n"/>
-      <c r="T164" s="2" t="n"/>
-      <c r="U164" s="2" t="n"/>
-      <c r="V164" s="2" t="n"/>
-      <c r="W164" s="2" t="n"/>
-      <c r="X164" s="2" t="n"/>
-      <c r="Y164" s="2" t="n"/>
-      <c r="Z164" s="2" t="n"/>
-      <c r="AA164" s="2" t="n"/>
-      <c r="AB164" s="2" t="n"/>
-      <c r="AC164" s="2" t="n"/>
-      <c r="AD164" s="2" t="n"/>
+      <c r="B164" s="7" t="n"/>
+      <c r="C164" s="7" t="n"/>
+      <c r="D164" s="5" t="inlineStr">
+        <is>
+          <t>characteristics</t>
+        </is>
+      </c>
+      <c r="E164" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F164" s="6" t="n"/>
+      <c r="G164" s="6" t="n"/>
+      <c r="H164" s="6" t="n"/>
+      <c r="I164" s="6" t="n"/>
+      <c r="J164" s="6" t="n"/>
+      <c r="K164" s="6" t="n"/>
+      <c r="L164" s="6" t="n"/>
+      <c r="M164" s="6" t="n"/>
+      <c r="N164" s="6" t="n"/>
+      <c r="O164" s="6" t="n"/>
+      <c r="P164" s="6" t="n"/>
+      <c r="Q164" s="6" t="n"/>
+      <c r="R164" s="6" t="n"/>
+      <c r="S164" s="6" t="n"/>
+      <c r="T164" s="6" t="n"/>
+      <c r="U164" s="6" t="n"/>
+      <c r="V164" s="6" t="n"/>
+      <c r="W164" s="6" t="n"/>
+      <c r="X164" s="6" t="n"/>
+      <c r="Y164" s="6" t="n"/>
+      <c r="Z164" s="6" t="n"/>
+      <c r="AA164" s="6" t="n"/>
+      <c r="AB164" s="6" t="n"/>
+      <c r="AC164" s="6" t="n"/>
+      <c r="AD164" s="6" t="n"/>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr"/>
       <c r="B165" s="7" t="n"/>
       <c r="C165" s="5" t="inlineStr">
         <is>
-          <t>access_place_url</t>
-        </is>
-      </c>
-      <c r="D165" s="6" t="n"/>
-      <c r="E165" s="2" t="n"/>
-      <c r="F165" s="2" t="n"/>
+          <t>coll_situation</t>
+        </is>
+      </c>
+      <c r="D165" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E165" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F165" s="6" t="n"/>
       <c r="G165" s="2" t="n"/>
       <c r="H165" s="2" t="n"/>
       <c r="I165" s="2" t="n"/>
@@ -10836,12 +10867,16 @@
       <c r="B166" s="7" t="n"/>
       <c r="C166" s="5" t="inlineStr">
         <is>
-          <t>original_archive</t>
-        </is>
-      </c>
-      <c r="D166" s="6" t="n"/>
-      <c r="E166" s="2" t="n"/>
-      <c r="F166" s="2" t="n"/>
+          <t>act_min</t>
+        </is>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E166" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F166" s="6" t="n"/>
       <c r="G166" s="2" t="n"/>
       <c r="H166" s="2" t="n"/>
       <c r="I166" s="2" t="n"/>
@@ -10872,12 +10907,16 @@
       <c r="B167" s="7" t="n"/>
       <c r="C167" s="5" t="inlineStr">
         <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="D167" s="6" t="n"/>
-      <c r="E167" s="2" t="n"/>
-      <c r="F167" s="2" t="n"/>
+          <t>control_operations</t>
+        </is>
+      </c>
+      <c r="D167" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E167" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F167" s="6" t="n"/>
       <c r="G167" s="2" t="n"/>
       <c r="H167" s="2" t="n"/>
       <c r="I167" s="2" t="n"/>
@@ -10908,12 +10947,16 @@
       <c r="B168" s="7" t="n"/>
       <c r="C168" s="5" t="inlineStr">
         <is>
-          <t>coll_size</t>
-        </is>
-      </c>
-      <c r="D168" s="6" t="n"/>
-      <c r="E168" s="2" t="n"/>
-      <c r="F168" s="2" t="n"/>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E168" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F168" s="6" t="n"/>
       <c r="G168" s="2" t="n"/>
       <c r="H168" s="2" t="n"/>
       <c r="I168" s="2" t="n"/>
@@ -10944,12 +10987,16 @@
       <c r="B169" s="7" t="n"/>
       <c r="C169" s="5" t="inlineStr">
         <is>
-          <t>complete</t>
-        </is>
-      </c>
-      <c r="D169" s="6" t="n"/>
-      <c r="E169" s="2" t="n"/>
-      <c r="F169" s="2" t="n"/>
+          <t>cleaning_operations</t>
+        </is>
+      </c>
+      <c r="D169" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E169" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F169" s="6" t="n"/>
       <c r="G169" s="2" t="n"/>
       <c r="H169" s="2" t="n"/>
       <c r="I169" s="2" t="n"/>
@@ -10977,15 +11024,23 @@
     </row>
     <row r="170">
       <c r="A170" s="4" t="inlineStr"/>
-      <c r="B170" s="7" t="n"/>
+      <c r="B170" s="5" t="inlineStr">
+        <is>
+          <t>analysis_info</t>
+        </is>
+      </c>
       <c r="C170" s="5" t="inlineStr">
         <is>
-          <t>file_quantity</t>
-        </is>
-      </c>
-      <c r="D170" s="6" t="n"/>
-      <c r="E170" s="2" t="n"/>
-      <c r="F170" s="2" t="n"/>
+          <t>response_rate</t>
+        </is>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E170" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F170" s="6" t="n"/>
       <c r="G170" s="2" t="n"/>
       <c r="H170" s="2" t="n"/>
       <c r="I170" s="2" t="n"/>
@@ -11016,12 +11071,16 @@
       <c r="B171" s="7" t="n"/>
       <c r="C171" s="5" t="inlineStr">
         <is>
-          <t>notes</t>
-        </is>
-      </c>
-      <c r="D171" s="6" t="n"/>
-      <c r="E171" s="2" t="n"/>
-      <c r="F171" s="2" t="n"/>
+          <t>sampling_error_estimates</t>
+        </is>
+      </c>
+      <c r="D171" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E171" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F171" s="6" t="n"/>
       <c r="G171" s="2" t="n"/>
       <c r="H171" s="2" t="n"/>
       <c r="I171" s="2" t="n"/>
@@ -11049,23 +11108,19 @@
     </row>
     <row r="172">
       <c r="A172" s="4" t="inlineStr"/>
-      <c r="B172" s="5" t="inlineStr">
-        <is>
-          <t>dataset_use</t>
-        </is>
-      </c>
+      <c r="B172" s="7" t="n"/>
       <c r="C172" s="5" t="inlineStr">
         <is>
-          <t>conf_dec</t>
-        </is>
-      </c>
-      <c r="D172" s="6" t="inlineStr">
-        <is>
-          <t>[{"txt": null, "required": null, "form_url": null, "form_id": null}]</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="n"/>
-      <c r="F172" s="2" t="n"/>
+          <t>data_appraisal</t>
+        </is>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E172" s="5" t="n">
+        <v/>
+      </c>
+      <c r="F172" s="6" t="n"/>
       <c r="G172" s="2" t="n"/>
       <c r="H172" s="2" t="n"/>
       <c r="I172" s="2" t="n"/>
@@ -11092,19 +11147,11 @@
       <c r="AD172" s="2" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="4" t="inlineStr"/>
-      <c r="B173" s="7" t="n"/>
-      <c r="C173" s="5" t="inlineStr">
-        <is>
-          <t>spec_perm</t>
-        </is>
-      </c>
-      <c r="D173" s="6" t="inlineStr">
-        <is>
-          <t>[{"txt": null, "required": null, "form_url": null, "form_id": null}]</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="n"/>
+      <c r="A173" s="4" t="n"/>
+      <c r="B173" s="8" t="n"/>
+      <c r="C173" s="8" t="n"/>
+      <c r="D173" s="8" t="n"/>
+      <c r="E173" s="8" t="n"/>
       <c r="F173" s="2" t="n"/>
       <c r="G173" s="2" t="n"/>
       <c r="H173" s="2" t="n"/>
@@ -11132,14 +11179,14 @@
       <c r="AD173" s="2" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="4" t="inlineStr"/>
-      <c r="B174" s="7" t="n"/>
-      <c r="C174" s="5" t="inlineStr">
-        <is>
-          <t>restrictions</t>
-        </is>
-      </c>
-      <c r="D174" s="6" t="n"/>
+      <c r="A174" s="10" t="inlineStr">
+        <is>
+          <t>data_access</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="n"/>
+      <c r="C174" s="2" t="n"/>
+      <c r="D174" s="2" t="n"/>
       <c r="E174" s="2" t="n"/>
       <c r="F174" s="2" t="n"/>
       <c r="G174" s="2" t="n"/>
@@ -11169,18 +11216,18 @@
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr"/>
-      <c r="B175" s="7" t="n"/>
-      <c r="C175" s="5" t="inlineStr">
-        <is>
-          <t>contact</t>
-        </is>
-      </c>
-      <c r="D175" s="6" t="inlineStr">
-        <is>
-          <t>[{"name": null, "affiliation": null, "uri": null, "email": null}]</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="n"/>
+      <c r="B175" s="5" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="C175" s="5" t="n">
+        <v/>
+      </c>
+      <c r="D175" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E175" s="6" t="n"/>
       <c r="F175" s="2" t="n"/>
       <c r="G175" s="2" t="n"/>
       <c r="H175" s="2" t="n"/>
@@ -11209,14 +11256,20 @@
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr"/>
-      <c r="B176" s="7" t="n"/>
+      <c r="B176" s="5" t="inlineStr">
+        <is>
+          <t>dataset_availability</t>
+        </is>
+      </c>
       <c r="C176" s="5" t="inlineStr">
         <is>
-          <t>cit_req</t>
-        </is>
-      </c>
-      <c r="D176" s="6" t="n"/>
-      <c r="E176" s="2" t="n"/>
+          <t>access_place</t>
+        </is>
+      </c>
+      <c r="D176" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E176" s="6" t="n"/>
       <c r="F176" s="2" t="n"/>
       <c r="G176" s="2" t="n"/>
       <c r="H176" s="2" t="n"/>
@@ -11248,11 +11301,13 @@
       <c r="B177" s="7" t="n"/>
       <c r="C177" s="5" t="inlineStr">
         <is>
-          <t>deposit_req</t>
-        </is>
-      </c>
-      <c r="D177" s="6" t="n"/>
-      <c r="E177" s="2" t="n"/>
+          <t>access_place_url</t>
+        </is>
+      </c>
+      <c r="D177" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E177" s="6" t="n"/>
       <c r="F177" s="2" t="n"/>
       <c r="G177" s="2" t="n"/>
       <c r="H177" s="2" t="n"/>
@@ -11284,11 +11339,13 @@
       <c r="B178" s="7" t="n"/>
       <c r="C178" s="5" t="inlineStr">
         <is>
-          <t>conditions</t>
-        </is>
-      </c>
-      <c r="D178" s="6" t="n"/>
-      <c r="E178" s="2" t="n"/>
+          <t>original_archive</t>
+        </is>
+      </c>
+      <c r="D178" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E178" s="6" t="n"/>
       <c r="F178" s="2" t="n"/>
       <c r="G178" s="2" t="n"/>
       <c r="H178" s="2" t="n"/>
@@ -11320,11 +11377,13 @@
       <c r="B179" s="7" t="n"/>
       <c r="C179" s="5" t="inlineStr">
         <is>
-          <t>disclaimer</t>
-        </is>
-      </c>
-      <c r="D179" s="6" t="n"/>
-      <c r="E179" s="2" t="n"/>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="D179" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E179" s="6" t="n"/>
       <c r="F179" s="2" t="n"/>
       <c r="G179" s="2" t="n"/>
       <c r="H179" s="2" t="n"/>
@@ -11352,11 +11411,17 @@
       <c r="AD179" s="2" t="n"/>
     </row>
     <row r="180">
-      <c r="A180" s="4" t="n"/>
-      <c r="B180" s="8" t="n"/>
-      <c r="C180" s="8" t="n"/>
-      <c r="D180" s="2" t="n"/>
-      <c r="E180" s="2" t="n"/>
+      <c r="A180" s="4" t="inlineStr"/>
+      <c r="B180" s="7" t="n"/>
+      <c r="C180" s="5" t="inlineStr">
+        <is>
+          <t>coll_size</t>
+        </is>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E180" s="6" t="n"/>
       <c r="F180" s="2" t="n"/>
       <c r="G180" s="2" t="n"/>
       <c r="H180" s="2" t="n"/>
@@ -11384,676 +11449,788 @@
       <c r="AD180" s="2" t="n"/>
     </row>
     <row r="181">
-      <c r="A181" s="4" t="n"/>
-      <c r="B181" s="4" t="n"/>
-      <c r="C181" s="4" t="n"/>
-      <c r="D181" s="4" t="n"/>
-      <c r="E181" s="4" t="n"/>
-      <c r="F181" s="4" t="n"/>
-      <c r="G181" s="4" t="n"/>
-      <c r="H181" s="4" t="n"/>
-      <c r="I181" s="4" t="n"/>
-      <c r="J181" s="4" t="n"/>
-      <c r="K181" s="4" t="n"/>
-      <c r="L181" s="4" t="n"/>
-      <c r="M181" s="4" t="n"/>
-      <c r="N181" s="4" t="n"/>
-      <c r="O181" s="4" t="n"/>
-      <c r="P181" s="4" t="n"/>
-      <c r="Q181" s="4" t="n"/>
-      <c r="R181" s="4" t="n"/>
-      <c r="S181" s="4" t="n"/>
-      <c r="T181" s="4" t="n"/>
-      <c r="U181" s="4" t="n"/>
-      <c r="V181" s="4" t="n"/>
-      <c r="W181" s="4" t="n"/>
-      <c r="X181" s="4" t="n"/>
-      <c r="Y181" s="4" t="n"/>
-      <c r="Z181" s="4" t="n"/>
-      <c r="AA181" s="4" t="n"/>
-      <c r="AB181" s="4" t="n"/>
-      <c r="AC181" s="4" t="n"/>
-      <c r="AD181" s="4" t="n"/>
+      <c r="A181" s="4" t="inlineStr"/>
+      <c r="B181" s="7" t="n"/>
+      <c r="C181" s="5" t="inlineStr">
+        <is>
+          <t>complete</t>
+        </is>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E181" s="6" t="n"/>
+      <c r="F181" s="2" t="n"/>
+      <c r="G181" s="2" t="n"/>
+      <c r="H181" s="2" t="n"/>
+      <c r="I181" s="2" t="n"/>
+      <c r="J181" s="2" t="n"/>
+      <c r="K181" s="2" t="n"/>
+      <c r="L181" s="2" t="n"/>
+      <c r="M181" s="2" t="n"/>
+      <c r="N181" s="2" t="n"/>
+      <c r="O181" s="2" t="n"/>
+      <c r="P181" s="2" t="n"/>
+      <c r="Q181" s="2" t="n"/>
+      <c r="R181" s="2" t="n"/>
+      <c r="S181" s="2" t="n"/>
+      <c r="T181" s="2" t="n"/>
+      <c r="U181" s="2" t="n"/>
+      <c r="V181" s="2" t="n"/>
+      <c r="W181" s="2" t="n"/>
+      <c r="X181" s="2" t="n"/>
+      <c r="Y181" s="2" t="n"/>
+      <c r="Z181" s="2" t="n"/>
+      <c r="AA181" s="2" t="n"/>
+      <c r="AB181" s="2" t="n"/>
+      <c r="AC181" s="2" t="n"/>
+      <c r="AD181" s="2" t="n"/>
     </row>
     <row r="182">
-      <c r="A182" s="4" t="n"/>
-      <c r="B182" s="4" t="n"/>
-      <c r="C182" s="4" t="n"/>
-      <c r="D182" s="4" t="n"/>
-      <c r="E182" s="4" t="n"/>
-      <c r="F182" s="4" t="n"/>
-      <c r="G182" s="4" t="n"/>
-      <c r="H182" s="4" t="n"/>
-      <c r="I182" s="4" t="n"/>
-      <c r="J182" s="4" t="n"/>
-      <c r="K182" s="4" t="n"/>
-      <c r="L182" s="4" t="n"/>
-      <c r="M182" s="4" t="n"/>
-      <c r="N182" s="4" t="n"/>
-      <c r="O182" s="4" t="n"/>
-      <c r="P182" s="4" t="n"/>
-      <c r="Q182" s="4" t="n"/>
-      <c r="R182" s="4" t="n"/>
-      <c r="S182" s="4" t="n"/>
-      <c r="T182" s="4" t="n"/>
-      <c r="U182" s="4" t="n"/>
-      <c r="V182" s="4" t="n"/>
-      <c r="W182" s="4" t="n"/>
-      <c r="X182" s="4" t="n"/>
-      <c r="Y182" s="4" t="n"/>
-      <c r="Z182" s="4" t="n"/>
-      <c r="AA182" s="4" t="n"/>
-      <c r="AB182" s="4" t="n"/>
-      <c r="AC182" s="4" t="n"/>
-      <c r="AD182" s="4" t="n"/>
+      <c r="A182" s="4" t="inlineStr"/>
+      <c r="B182" s="7" t="n"/>
+      <c r="C182" s="5" t="inlineStr">
+        <is>
+          <t>file_quantity</t>
+        </is>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E182" s="6" t="n"/>
+      <c r="F182" s="2" t="n"/>
+      <c r="G182" s="2" t="n"/>
+      <c r="H182" s="2" t="n"/>
+      <c r="I182" s="2" t="n"/>
+      <c r="J182" s="2" t="n"/>
+      <c r="K182" s="2" t="n"/>
+      <c r="L182" s="2" t="n"/>
+      <c r="M182" s="2" t="n"/>
+      <c r="N182" s="2" t="n"/>
+      <c r="O182" s="2" t="n"/>
+      <c r="P182" s="2" t="n"/>
+      <c r="Q182" s="2" t="n"/>
+      <c r="R182" s="2" t="n"/>
+      <c r="S182" s="2" t="n"/>
+      <c r="T182" s="2" t="n"/>
+      <c r="U182" s="2" t="n"/>
+      <c r="V182" s="2" t="n"/>
+      <c r="W182" s="2" t="n"/>
+      <c r="X182" s="2" t="n"/>
+      <c r="Y182" s="2" t="n"/>
+      <c r="Z182" s="2" t="n"/>
+      <c r="AA182" s="2" t="n"/>
+      <c r="AB182" s="2" t="n"/>
+      <c r="AC182" s="2" t="n"/>
+      <c r="AD182" s="2" t="n"/>
     </row>
     <row r="183">
-      <c r="A183" s="4" t="n"/>
-      <c r="B183" s="4" t="n"/>
-      <c r="C183" s="4" t="n"/>
-      <c r="D183" s="4" t="n"/>
-      <c r="E183" s="4" t="n"/>
-      <c r="F183" s="4" t="n"/>
-      <c r="G183" s="4" t="n"/>
-      <c r="H183" s="4" t="n"/>
-      <c r="I183" s="4" t="n"/>
-      <c r="J183" s="4" t="n"/>
-      <c r="K183" s="4" t="n"/>
-      <c r="L183" s="4" t="n"/>
-      <c r="M183" s="4" t="n"/>
-      <c r="N183" s="4" t="n"/>
-      <c r="O183" s="4" t="n"/>
-      <c r="P183" s="4" t="n"/>
-      <c r="Q183" s="4" t="n"/>
-      <c r="R183" s="4" t="n"/>
-      <c r="S183" s="4" t="n"/>
-      <c r="T183" s="4" t="n"/>
-      <c r="U183" s="4" t="n"/>
-      <c r="V183" s="4" t="n"/>
-      <c r="W183" s="4" t="n"/>
-      <c r="X183" s="4" t="n"/>
-      <c r="Y183" s="4" t="n"/>
-      <c r="Z183" s="4" t="n"/>
-      <c r="AA183" s="4" t="n"/>
-      <c r="AB183" s="4" t="n"/>
-      <c r="AC183" s="4" t="n"/>
-      <c r="AD183" s="4" t="n"/>
+      <c r="A183" s="4" t="inlineStr"/>
+      <c r="B183" s="7" t="n"/>
+      <c r="C183" s="5" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
+      <c r="D183" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E183" s="6" t="n"/>
+      <c r="F183" s="2" t="n"/>
+      <c r="G183" s="2" t="n"/>
+      <c r="H183" s="2" t="n"/>
+      <c r="I183" s="2" t="n"/>
+      <c r="J183" s="2" t="n"/>
+      <c r="K183" s="2" t="n"/>
+      <c r="L183" s="2" t="n"/>
+      <c r="M183" s="2" t="n"/>
+      <c r="N183" s="2" t="n"/>
+      <c r="O183" s="2" t="n"/>
+      <c r="P183" s="2" t="n"/>
+      <c r="Q183" s="2" t="n"/>
+      <c r="R183" s="2" t="n"/>
+      <c r="S183" s="2" t="n"/>
+      <c r="T183" s="2" t="n"/>
+      <c r="U183" s="2" t="n"/>
+      <c r="V183" s="2" t="n"/>
+      <c r="W183" s="2" t="n"/>
+      <c r="X183" s="2" t="n"/>
+      <c r="Y183" s="2" t="n"/>
+      <c r="Z183" s="2" t="n"/>
+      <c r="AA183" s="2" t="n"/>
+      <c r="AB183" s="2" t="n"/>
+      <c r="AC183" s="2" t="n"/>
+      <c r="AD183" s="2" t="n"/>
     </row>
     <row r="184">
-      <c r="A184" s="4" t="n"/>
-      <c r="B184" s="4" t="n"/>
-      <c r="C184" s="4" t="n"/>
-      <c r="D184" s="4" t="n"/>
-      <c r="E184" s="4" t="n"/>
-      <c r="F184" s="4" t="n"/>
-      <c r="G184" s="4" t="n"/>
-      <c r="H184" s="4" t="n"/>
-      <c r="I184" s="4" t="n"/>
-      <c r="J184" s="4" t="n"/>
-      <c r="K184" s="4" t="n"/>
-      <c r="L184" s="4" t="n"/>
-      <c r="M184" s="4" t="n"/>
-      <c r="N184" s="4" t="n"/>
-      <c r="O184" s="4" t="n"/>
-      <c r="P184" s="4" t="n"/>
-      <c r="Q184" s="4" t="n"/>
-      <c r="R184" s="4" t="n"/>
-      <c r="S184" s="4" t="n"/>
-      <c r="T184" s="4" t="n"/>
-      <c r="U184" s="4" t="n"/>
-      <c r="V184" s="4" t="n"/>
-      <c r="W184" s="4" t="n"/>
-      <c r="X184" s="4" t="n"/>
-      <c r="Y184" s="4" t="n"/>
-      <c r="Z184" s="4" t="n"/>
-      <c r="AA184" s="4" t="n"/>
-      <c r="AB184" s="4" t="n"/>
-      <c r="AC184" s="4" t="n"/>
-      <c r="AD184" s="4" t="n"/>
+      <c r="A184" s="4" t="inlineStr"/>
+      <c r="B184" s="5" t="inlineStr">
+        <is>
+          <t>dataset_use</t>
+        </is>
+      </c>
+      <c r="C184" s="5" t="inlineStr">
+        <is>
+          <t>conf_dec</t>
+        </is>
+      </c>
+      <c r="D184" s="5" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="E184" s="6" t="n"/>
+      <c r="F184" s="6" t="n"/>
+      <c r="G184" s="6" t="n"/>
+      <c r="H184" s="6" t="n"/>
+      <c r="I184" s="6" t="n"/>
+      <c r="J184" s="6" t="n"/>
+      <c r="K184" s="6" t="n"/>
+      <c r="L184" s="6" t="n"/>
+      <c r="M184" s="6" t="n"/>
+      <c r="N184" s="6" t="n"/>
+      <c r="O184" s="6" t="n"/>
+      <c r="P184" s="6" t="n"/>
+      <c r="Q184" s="6" t="n"/>
+      <c r="R184" s="6" t="n"/>
+      <c r="S184" s="6" t="n"/>
+      <c r="T184" s="6" t="n"/>
+      <c r="U184" s="6" t="n"/>
+      <c r="V184" s="6" t="n"/>
+      <c r="W184" s="6" t="n"/>
+      <c r="X184" s="6" t="n"/>
+      <c r="Y184" s="6" t="n"/>
+      <c r="Z184" s="6" t="n"/>
+      <c r="AA184" s="6" t="n"/>
+      <c r="AB184" s="6" t="n"/>
+      <c r="AC184" s="6" t="n"/>
+      <c r="AD184" s="6" t="n"/>
     </row>
     <row r="185">
-      <c r="A185" s="4" t="n"/>
-      <c r="B185" s="4" t="n"/>
-      <c r="C185" s="4" t="n"/>
-      <c r="D185" s="4" t="n"/>
-      <c r="E185" s="4" t="n"/>
-      <c r="F185" s="4" t="n"/>
-      <c r="G185" s="4" t="n"/>
-      <c r="H185" s="4" t="n"/>
-      <c r="I185" s="4" t="n"/>
-      <c r="J185" s="4" t="n"/>
-      <c r="K185" s="4" t="n"/>
-      <c r="L185" s="4" t="n"/>
-      <c r="M185" s="4" t="n"/>
-      <c r="N185" s="4" t="n"/>
-      <c r="O185" s="4" t="n"/>
-      <c r="P185" s="4" t="n"/>
-      <c r="Q185" s="4" t="n"/>
-      <c r="R185" s="4" t="n"/>
-      <c r="S185" s="4" t="n"/>
-      <c r="T185" s="4" t="n"/>
-      <c r="U185" s="4" t="n"/>
-      <c r="V185" s="4" t="n"/>
-      <c r="W185" s="4" t="n"/>
-      <c r="X185" s="4" t="n"/>
-      <c r="Y185" s="4" t="n"/>
-      <c r="Z185" s="4" t="n"/>
-      <c r="AA185" s="4" t="n"/>
-      <c r="AB185" s="4" t="n"/>
-      <c r="AC185" s="4" t="n"/>
-      <c r="AD185" s="4" t="n"/>
+      <c r="A185" s="4" t="inlineStr"/>
+      <c r="B185" s="7" t="n"/>
+      <c r="C185" s="7" t="n"/>
+      <c r="D185" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="E185" s="6" t="n"/>
+      <c r="F185" s="6" t="n"/>
+      <c r="G185" s="6" t="n"/>
+      <c r="H185" s="6" t="n"/>
+      <c r="I185" s="6" t="n"/>
+      <c r="J185" s="6" t="n"/>
+      <c r="K185" s="6" t="n"/>
+      <c r="L185" s="6" t="n"/>
+      <c r="M185" s="6" t="n"/>
+      <c r="N185" s="6" t="n"/>
+      <c r="O185" s="6" t="n"/>
+      <c r="P185" s="6" t="n"/>
+      <c r="Q185" s="6" t="n"/>
+      <c r="R185" s="6" t="n"/>
+      <c r="S185" s="6" t="n"/>
+      <c r="T185" s="6" t="n"/>
+      <c r="U185" s="6" t="n"/>
+      <c r="V185" s="6" t="n"/>
+      <c r="W185" s="6" t="n"/>
+      <c r="X185" s="6" t="n"/>
+      <c r="Y185" s="6" t="n"/>
+      <c r="Z185" s="6" t="n"/>
+      <c r="AA185" s="6" t="n"/>
+      <c r="AB185" s="6" t="n"/>
+      <c r="AC185" s="6" t="n"/>
+      <c r="AD185" s="6" t="n"/>
     </row>
     <row r="186">
-      <c r="A186" s="4" t="n"/>
-      <c r="B186" s="4" t="n"/>
-      <c r="C186" s="4" t="n"/>
-      <c r="D186" s="4" t="n"/>
-      <c r="E186" s="4" t="n"/>
-      <c r="F186" s="4" t="n"/>
-      <c r="G186" s="4" t="n"/>
-      <c r="H186" s="4" t="n"/>
-      <c r="I186" s="4" t="n"/>
-      <c r="J186" s="4" t="n"/>
-      <c r="K186" s="4" t="n"/>
-      <c r="L186" s="4" t="n"/>
-      <c r="M186" s="4" t="n"/>
-      <c r="N186" s="4" t="n"/>
-      <c r="O186" s="4" t="n"/>
-      <c r="P186" s="4" t="n"/>
-      <c r="Q186" s="4" t="n"/>
-      <c r="R186" s="4" t="n"/>
-      <c r="S186" s="4" t="n"/>
-      <c r="T186" s="4" t="n"/>
-      <c r="U186" s="4" t="n"/>
-      <c r="V186" s="4" t="n"/>
-      <c r="W186" s="4" t="n"/>
-      <c r="X186" s="4" t="n"/>
-      <c r="Y186" s="4" t="n"/>
-      <c r="Z186" s="4" t="n"/>
-      <c r="AA186" s="4" t="n"/>
-      <c r="AB186" s="4" t="n"/>
-      <c r="AC186" s="4" t="n"/>
-      <c r="AD186" s="4" t="n"/>
+      <c r="A186" s="4" t="inlineStr"/>
+      <c r="B186" s="7" t="n"/>
+      <c r="C186" s="7" t="n"/>
+      <c r="D186" s="5" t="inlineStr">
+        <is>
+          <t>form_url</t>
+        </is>
+      </c>
+      <c r="E186" s="6" t="n"/>
+      <c r="F186" s="6" t="n"/>
+      <c r="G186" s="6" t="n"/>
+      <c r="H186" s="6" t="n"/>
+      <c r="I186" s="6" t="n"/>
+      <c r="J186" s="6" t="n"/>
+      <c r="K186" s="6" t="n"/>
+      <c r="L186" s="6" t="n"/>
+      <c r="M186" s="6" t="n"/>
+      <c r="N186" s="6" t="n"/>
+      <c r="O186" s="6" t="n"/>
+      <c r="P186" s="6" t="n"/>
+      <c r="Q186" s="6" t="n"/>
+      <c r="R186" s="6" t="n"/>
+      <c r="S186" s="6" t="n"/>
+      <c r="T186" s="6" t="n"/>
+      <c r="U186" s="6" t="n"/>
+      <c r="V186" s="6" t="n"/>
+      <c r="W186" s="6" t="n"/>
+      <c r="X186" s="6" t="n"/>
+      <c r="Y186" s="6" t="n"/>
+      <c r="Z186" s="6" t="n"/>
+      <c r="AA186" s="6" t="n"/>
+      <c r="AB186" s="6" t="n"/>
+      <c r="AC186" s="6" t="n"/>
+      <c r="AD186" s="6" t="n"/>
     </row>
     <row r="187">
-      <c r="A187" s="4" t="n"/>
-      <c r="B187" s="4" t="n"/>
-      <c r="C187" s="4" t="n"/>
-      <c r="D187" s="4" t="n"/>
-      <c r="E187" s="4" t="n"/>
-      <c r="F187" s="4" t="n"/>
-      <c r="G187" s="4" t="n"/>
-      <c r="H187" s="4" t="n"/>
-      <c r="I187" s="4" t="n"/>
-      <c r="J187" s="4" t="n"/>
-      <c r="K187" s="4" t="n"/>
-      <c r="L187" s="4" t="n"/>
-      <c r="M187" s="4" t="n"/>
-      <c r="N187" s="4" t="n"/>
-      <c r="O187" s="4" t="n"/>
-      <c r="P187" s="4" t="n"/>
-      <c r="Q187" s="4" t="n"/>
-      <c r="R187" s="4" t="n"/>
-      <c r="S187" s="4" t="n"/>
-      <c r="T187" s="4" t="n"/>
-      <c r="U187" s="4" t="n"/>
-      <c r="V187" s="4" t="n"/>
-      <c r="W187" s="4" t="n"/>
-      <c r="X187" s="4" t="n"/>
-      <c r="Y187" s="4" t="n"/>
-      <c r="Z187" s="4" t="n"/>
-      <c r="AA187" s="4" t="n"/>
-      <c r="AB187" s="4" t="n"/>
-      <c r="AC187" s="4" t="n"/>
-      <c r="AD187" s="4" t="n"/>
+      <c r="A187" s="4" t="inlineStr"/>
+      <c r="B187" s="7" t="n"/>
+      <c r="C187" s="7" t="n"/>
+      <c r="D187" s="5" t="inlineStr">
+        <is>
+          <t>form_id</t>
+        </is>
+      </c>
+      <c r="E187" s="6" t="n"/>
+      <c r="F187" s="6" t="n"/>
+      <c r="G187" s="6" t="n"/>
+      <c r="H187" s="6" t="n"/>
+      <c r="I187" s="6" t="n"/>
+      <c r="J187" s="6" t="n"/>
+      <c r="K187" s="6" t="n"/>
+      <c r="L187" s="6" t="n"/>
+      <c r="M187" s="6" t="n"/>
+      <c r="N187" s="6" t="n"/>
+      <c r="O187" s="6" t="n"/>
+      <c r="P187" s="6" t="n"/>
+      <c r="Q187" s="6" t="n"/>
+      <c r="R187" s="6" t="n"/>
+      <c r="S187" s="6" t="n"/>
+      <c r="T187" s="6" t="n"/>
+      <c r="U187" s="6" t="n"/>
+      <c r="V187" s="6" t="n"/>
+      <c r="W187" s="6" t="n"/>
+      <c r="X187" s="6" t="n"/>
+      <c r="Y187" s="6" t="n"/>
+      <c r="Z187" s="6" t="n"/>
+      <c r="AA187" s="6" t="n"/>
+      <c r="AB187" s="6" t="n"/>
+      <c r="AC187" s="6" t="n"/>
+      <c r="AD187" s="6" t="n"/>
     </row>
     <row r="188">
-      <c r="A188" s="4" t="n"/>
-      <c r="B188" s="4" t="n"/>
-      <c r="C188" s="4" t="n"/>
-      <c r="D188" s="4" t="n"/>
-      <c r="E188" s="4" t="n"/>
-      <c r="F188" s="4" t="n"/>
-      <c r="G188" s="4" t="n"/>
-      <c r="H188" s="4" t="n"/>
-      <c r="I188" s="4" t="n"/>
-      <c r="J188" s="4" t="n"/>
-      <c r="K188" s="4" t="n"/>
-      <c r="L188" s="4" t="n"/>
-      <c r="M188" s="4" t="n"/>
-      <c r="N188" s="4" t="n"/>
-      <c r="O188" s="4" t="n"/>
-      <c r="P188" s="4" t="n"/>
-      <c r="Q188" s="4" t="n"/>
-      <c r="R188" s="4" t="n"/>
-      <c r="S188" s="4" t="n"/>
-      <c r="T188" s="4" t="n"/>
-      <c r="U188" s="4" t="n"/>
-      <c r="V188" s="4" t="n"/>
-      <c r="W188" s="4" t="n"/>
-      <c r="X188" s="4" t="n"/>
-      <c r="Y188" s="4" t="n"/>
-      <c r="Z188" s="4" t="n"/>
-      <c r="AA188" s="4" t="n"/>
-      <c r="AB188" s="4" t="n"/>
-      <c r="AC188" s="4" t="n"/>
-      <c r="AD188" s="4" t="n"/>
+      <c r="A188" s="4" t="inlineStr"/>
+      <c r="B188" s="7" t="n"/>
+      <c r="C188" s="5" t="inlineStr">
+        <is>
+          <t>spec_perm</t>
+        </is>
+      </c>
+      <c r="D188" s="5" t="inlineStr">
+        <is>
+          <t>txt</t>
+        </is>
+      </c>
+      <c r="E188" s="6" t="n"/>
+      <c r="F188" s="6" t="n"/>
+      <c r="G188" s="6" t="n"/>
+      <c r="H188" s="6" t="n"/>
+      <c r="I188" s="6" t="n"/>
+      <c r="J188" s="6" t="n"/>
+      <c r="K188" s="6" t="n"/>
+      <c r="L188" s="6" t="n"/>
+      <c r="M188" s="6" t="n"/>
+      <c r="N188" s="6" t="n"/>
+      <c r="O188" s="6" t="n"/>
+      <c r="P188" s="6" t="n"/>
+      <c r="Q188" s="6" t="n"/>
+      <c r="R188" s="6" t="n"/>
+      <c r="S188" s="6" t="n"/>
+      <c r="T188" s="6" t="n"/>
+      <c r="U188" s="6" t="n"/>
+      <c r="V188" s="6" t="n"/>
+      <c r="W188" s="6" t="n"/>
+      <c r="X188" s="6" t="n"/>
+      <c r="Y188" s="6" t="n"/>
+      <c r="Z188" s="6" t="n"/>
+      <c r="AA188" s="6" t="n"/>
+      <c r="AB188" s="6" t="n"/>
+      <c r="AC188" s="6" t="n"/>
+      <c r="AD188" s="6" t="n"/>
     </row>
     <row r="189">
-      <c r="A189" s="4" t="n"/>
-      <c r="B189" s="4" t="n"/>
-      <c r="C189" s="4" t="n"/>
-      <c r="D189" s="4" t="n"/>
-      <c r="E189" s="4" t="n"/>
-      <c r="F189" s="4" t="n"/>
-      <c r="G189" s="4" t="n"/>
-      <c r="H189" s="4" t="n"/>
-      <c r="I189" s="4" t="n"/>
-      <c r="J189" s="4" t="n"/>
-      <c r="K189" s="4" t="n"/>
-      <c r="L189" s="4" t="n"/>
-      <c r="M189" s="4" t="n"/>
-      <c r="N189" s="4" t="n"/>
-      <c r="O189" s="4" t="n"/>
-      <c r="P189" s="4" t="n"/>
-      <c r="Q189" s="4" t="n"/>
-      <c r="R189" s="4" t="n"/>
-      <c r="S189" s="4" t="n"/>
-      <c r="T189" s="4" t="n"/>
-      <c r="U189" s="4" t="n"/>
-      <c r="V189" s="4" t="n"/>
-      <c r="W189" s="4" t="n"/>
-      <c r="X189" s="4" t="n"/>
-      <c r="Y189" s="4" t="n"/>
-      <c r="Z189" s="4" t="n"/>
-      <c r="AA189" s="4" t="n"/>
-      <c r="AB189" s="4" t="n"/>
-      <c r="AC189" s="4" t="n"/>
-      <c r="AD189" s="4" t="n"/>
+      <c r="A189" s="4" t="inlineStr"/>
+      <c r="B189" s="7" t="n"/>
+      <c r="C189" s="7" t="n"/>
+      <c r="D189" s="5" t="inlineStr">
+        <is>
+          <t>required</t>
+        </is>
+      </c>
+      <c r="E189" s="6" t="n"/>
+      <c r="F189" s="6" t="n"/>
+      <c r="G189" s="6" t="n"/>
+      <c r="H189" s="6" t="n"/>
+      <c r="I189" s="6" t="n"/>
+      <c r="J189" s="6" t="n"/>
+      <c r="K189" s="6" t="n"/>
+      <c r="L189" s="6" t="n"/>
+      <c r="M189" s="6" t="n"/>
+      <c r="N189" s="6" t="n"/>
+      <c r="O189" s="6" t="n"/>
+      <c r="P189" s="6" t="n"/>
+      <c r="Q189" s="6" t="n"/>
+      <c r="R189" s="6" t="n"/>
+      <c r="S189" s="6" t="n"/>
+      <c r="T189" s="6" t="n"/>
+      <c r="U189" s="6" t="n"/>
+      <c r="V189" s="6" t="n"/>
+      <c r="W189" s="6" t="n"/>
+      <c r="X189" s="6" t="n"/>
+      <c r="Y189" s="6" t="n"/>
+      <c r="Z189" s="6" t="n"/>
+      <c r="AA189" s="6" t="n"/>
+      <c r="AB189" s="6" t="n"/>
+      <c r="AC189" s="6" t="n"/>
+      <c r="AD189" s="6" t="n"/>
     </row>
     <row r="190">
-      <c r="A190" s="4" t="n"/>
-      <c r="B190" s="4" t="n"/>
-      <c r="C190" s="4" t="n"/>
-      <c r="D190" s="4" t="n"/>
-      <c r="E190" s="4" t="n"/>
-      <c r="F190" s="4" t="n"/>
-      <c r="G190" s="4" t="n"/>
-      <c r="H190" s="4" t="n"/>
-      <c r="I190" s="4" t="n"/>
-      <c r="J190" s="4" t="n"/>
-      <c r="K190" s="4" t="n"/>
-      <c r="L190" s="4" t="n"/>
-      <c r="M190" s="4" t="n"/>
-      <c r="N190" s="4" t="n"/>
-      <c r="O190" s="4" t="n"/>
-      <c r="P190" s="4" t="n"/>
-      <c r="Q190" s="4" t="n"/>
-      <c r="R190" s="4" t="n"/>
-      <c r="S190" s="4" t="n"/>
-      <c r="T190" s="4" t="n"/>
-      <c r="U190" s="4" t="n"/>
-      <c r="V190" s="4" t="n"/>
-      <c r="W190" s="4" t="n"/>
-      <c r="X190" s="4" t="n"/>
-      <c r="Y190" s="4" t="n"/>
-      <c r="Z190" s="4" t="n"/>
-      <c r="AA190" s="4" t="n"/>
-      <c r="AB190" s="4" t="n"/>
-      <c r="AC190" s="4" t="n"/>
-      <c r="AD190" s="4" t="n"/>
+      <c r="A190" s="4" t="inlineStr"/>
+      <c r="B190" s="7" t="n"/>
+      <c r="C190" s="7" t="n"/>
+      <c r="D190" s="5" t="inlineStr">
+        <is>
+          <t>form_url</t>
+        </is>
+      </c>
+      <c r="E190" s="6" t="n"/>
+      <c r="F190" s="6" t="n"/>
+      <c r="G190" s="6" t="n"/>
+      <c r="H190" s="6" t="n"/>
+      <c r="I190" s="6" t="n"/>
+      <c r="J190" s="6" t="n"/>
+      <c r="K190" s="6" t="n"/>
+      <c r="L190" s="6" t="n"/>
+      <c r="M190" s="6" t="n"/>
+      <c r="N190" s="6" t="n"/>
+      <c r="O190" s="6" t="n"/>
+      <c r="P190" s="6" t="n"/>
+      <c r="Q190" s="6" t="n"/>
+      <c r="R190" s="6" t="n"/>
+      <c r="S190" s="6" t="n"/>
+      <c r="T190" s="6" t="n"/>
+      <c r="U190" s="6" t="n"/>
+      <c r="V190" s="6" t="n"/>
+      <c r="W190" s="6" t="n"/>
+      <c r="X190" s="6" t="n"/>
+      <c r="Y190" s="6" t="n"/>
+      <c r="Z190" s="6" t="n"/>
+      <c r="AA190" s="6" t="n"/>
+      <c r="AB190" s="6" t="n"/>
+      <c r="AC190" s="6" t="n"/>
+      <c r="AD190" s="6" t="n"/>
     </row>
     <row r="191">
-      <c r="A191" s="4" t="n"/>
-      <c r="B191" s="4" t="n"/>
-      <c r="C191" s="4" t="n"/>
-      <c r="D191" s="4" t="n"/>
-      <c r="E191" s="4" t="n"/>
-      <c r="F191" s="4" t="n"/>
-      <c r="G191" s="4" t="n"/>
-      <c r="H191" s="4" t="n"/>
-      <c r="I191" s="4" t="n"/>
-      <c r="J191" s="4" t="n"/>
-      <c r="K191" s="4" t="n"/>
-      <c r="L191" s="4" t="n"/>
-      <c r="M191" s="4" t="n"/>
-      <c r="N191" s="4" t="n"/>
-      <c r="O191" s="4" t="n"/>
-      <c r="P191" s="4" t="n"/>
-      <c r="Q191" s="4" t="n"/>
-      <c r="R191" s="4" t="n"/>
-      <c r="S191" s="4" t="n"/>
-      <c r="T191" s="4" t="n"/>
-      <c r="U191" s="4" t="n"/>
-      <c r="V191" s="4" t="n"/>
-      <c r="W191" s="4" t="n"/>
-      <c r="X191" s="4" t="n"/>
-      <c r="Y191" s="4" t="n"/>
-      <c r="Z191" s="4" t="n"/>
-      <c r="AA191" s="4" t="n"/>
-      <c r="AB191" s="4" t="n"/>
-      <c r="AC191" s="4" t="n"/>
-      <c r="AD191" s="4" t="n"/>
+      <c r="A191" s="4" t="inlineStr"/>
+      <c r="B191" s="7" t="n"/>
+      <c r="C191" s="7" t="n"/>
+      <c r="D191" s="5" t="inlineStr">
+        <is>
+          <t>form_id</t>
+        </is>
+      </c>
+      <c r="E191" s="6" t="n"/>
+      <c r="F191" s="6" t="n"/>
+      <c r="G191" s="6" t="n"/>
+      <c r="H191" s="6" t="n"/>
+      <c r="I191" s="6" t="n"/>
+      <c r="J191" s="6" t="n"/>
+      <c r="K191" s="6" t="n"/>
+      <c r="L191" s="6" t="n"/>
+      <c r="M191" s="6" t="n"/>
+      <c r="N191" s="6" t="n"/>
+      <c r="O191" s="6" t="n"/>
+      <c r="P191" s="6" t="n"/>
+      <c r="Q191" s="6" t="n"/>
+      <c r="R191" s="6" t="n"/>
+      <c r="S191" s="6" t="n"/>
+      <c r="T191" s="6" t="n"/>
+      <c r="U191" s="6" t="n"/>
+      <c r="V191" s="6" t="n"/>
+      <c r="W191" s="6" t="n"/>
+      <c r="X191" s="6" t="n"/>
+      <c r="Y191" s="6" t="n"/>
+      <c r="Z191" s="6" t="n"/>
+      <c r="AA191" s="6" t="n"/>
+      <c r="AB191" s="6" t="n"/>
+      <c r="AC191" s="6" t="n"/>
+      <c r="AD191" s="6" t="n"/>
     </row>
     <row r="192">
-      <c r="A192" s="4" t="n"/>
-      <c r="B192" s="4" t="n"/>
-      <c r="C192" s="4" t="n"/>
-      <c r="D192" s="4" t="n"/>
-      <c r="E192" s="4" t="n"/>
-      <c r="F192" s="4" t="n"/>
-      <c r="G192" s="4" t="n"/>
-      <c r="H192" s="4" t="n"/>
-      <c r="I192" s="4" t="n"/>
-      <c r="J192" s="4" t="n"/>
-      <c r="K192" s="4" t="n"/>
-      <c r="L192" s="4" t="n"/>
-      <c r="M192" s="4" t="n"/>
-      <c r="N192" s="4" t="n"/>
-      <c r="O192" s="4" t="n"/>
-      <c r="P192" s="4" t="n"/>
-      <c r="Q192" s="4" t="n"/>
-      <c r="R192" s="4" t="n"/>
-      <c r="S192" s="4" t="n"/>
-      <c r="T192" s="4" t="n"/>
-      <c r="U192" s="4" t="n"/>
-      <c r="V192" s="4" t="n"/>
-      <c r="W192" s="4" t="n"/>
-      <c r="X192" s="4" t="n"/>
-      <c r="Y192" s="4" t="n"/>
-      <c r="Z192" s="4" t="n"/>
-      <c r="AA192" s="4" t="n"/>
-      <c r="AB192" s="4" t="n"/>
-      <c r="AC192" s="4" t="n"/>
-      <c r="AD192" s="4" t="n"/>
+      <c r="A192" s="4" t="inlineStr"/>
+      <c r="B192" s="7" t="n"/>
+      <c r="C192" s="5" t="inlineStr">
+        <is>
+          <t>restrictions</t>
+        </is>
+      </c>
+      <c r="D192" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E192" s="6" t="n"/>
+      <c r="F192" s="2" t="n"/>
+      <c r="G192" s="2" t="n"/>
+      <c r="H192" s="2" t="n"/>
+      <c r="I192" s="2" t="n"/>
+      <c r="J192" s="2" t="n"/>
+      <c r="K192" s="2" t="n"/>
+      <c r="L192" s="2" t="n"/>
+      <c r="M192" s="2" t="n"/>
+      <c r="N192" s="2" t="n"/>
+      <c r="O192" s="2" t="n"/>
+      <c r="P192" s="2" t="n"/>
+      <c r="Q192" s="2" t="n"/>
+      <c r="R192" s="2" t="n"/>
+      <c r="S192" s="2" t="n"/>
+      <c r="T192" s="2" t="n"/>
+      <c r="U192" s="2" t="n"/>
+      <c r="V192" s="2" t="n"/>
+      <c r="W192" s="2" t="n"/>
+      <c r="X192" s="2" t="n"/>
+      <c r="Y192" s="2" t="n"/>
+      <c r="Z192" s="2" t="n"/>
+      <c r="AA192" s="2" t="n"/>
+      <c r="AB192" s="2" t="n"/>
+      <c r="AC192" s="2" t="n"/>
+      <c r="AD192" s="2" t="n"/>
     </row>
     <row r="193">
-      <c r="A193" s="4" t="n"/>
-      <c r="B193" s="4" t="n"/>
-      <c r="C193" s="4" t="n"/>
-      <c r="D193" s="4" t="n"/>
-      <c r="E193" s="4" t="n"/>
-      <c r="F193" s="4" t="n"/>
-      <c r="G193" s="4" t="n"/>
-      <c r="H193" s="4" t="n"/>
-      <c r="I193" s="4" t="n"/>
-      <c r="J193" s="4" t="n"/>
-      <c r="K193" s="4" t="n"/>
-      <c r="L193" s="4" t="n"/>
-      <c r="M193" s="4" t="n"/>
-      <c r="N193" s="4" t="n"/>
-      <c r="O193" s="4" t="n"/>
-      <c r="P193" s="4" t="n"/>
-      <c r="Q193" s="4" t="n"/>
-      <c r="R193" s="4" t="n"/>
-      <c r="S193" s="4" t="n"/>
-      <c r="T193" s="4" t="n"/>
-      <c r="U193" s="4" t="n"/>
-      <c r="V193" s="4" t="n"/>
-      <c r="W193" s="4" t="n"/>
-      <c r="X193" s="4" t="n"/>
-      <c r="Y193" s="4" t="n"/>
-      <c r="Z193" s="4" t="n"/>
-      <c r="AA193" s="4" t="n"/>
-      <c r="AB193" s="4" t="n"/>
-      <c r="AC193" s="4" t="n"/>
-      <c r="AD193" s="4" t="n"/>
+      <c r="A193" s="4" t="inlineStr"/>
+      <c r="B193" s="7" t="n"/>
+      <c r="C193" s="5" t="inlineStr">
+        <is>
+          <t>contact</t>
+        </is>
+      </c>
+      <c r="D193" s="5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E193" s="6" t="n"/>
+      <c r="F193" s="6" t="n"/>
+      <c r="G193" s="6" t="n"/>
+      <c r="H193" s="6" t="n"/>
+      <c r="I193" s="6" t="n"/>
+      <c r="J193" s="6" t="n"/>
+      <c r="K193" s="6" t="n"/>
+      <c r="L193" s="6" t="n"/>
+      <c r="M193" s="6" t="n"/>
+      <c r="N193" s="6" t="n"/>
+      <c r="O193" s="6" t="n"/>
+      <c r="P193" s="6" t="n"/>
+      <c r="Q193" s="6" t="n"/>
+      <c r="R193" s="6" t="n"/>
+      <c r="S193" s="6" t="n"/>
+      <c r="T193" s="6" t="n"/>
+      <c r="U193" s="6" t="n"/>
+      <c r="V193" s="6" t="n"/>
+      <c r="W193" s="6" t="n"/>
+      <c r="X193" s="6" t="n"/>
+      <c r="Y193" s="6" t="n"/>
+      <c r="Z193" s="6" t="n"/>
+      <c r="AA193" s="6" t="n"/>
+      <c r="AB193" s="6" t="n"/>
+      <c r="AC193" s="6" t="n"/>
+      <c r="AD193" s="6" t="n"/>
     </row>
     <row r="194">
-      <c r="A194" s="4" t="n"/>
-      <c r="B194" s="4" t="n"/>
-      <c r="C194" s="4" t="n"/>
-      <c r="D194" s="4" t="n"/>
-      <c r="E194" s="4" t="n"/>
-      <c r="F194" s="4" t="n"/>
-      <c r="G194" s="4" t="n"/>
-      <c r="H194" s="4" t="n"/>
-      <c r="I194" s="4" t="n"/>
-      <c r="J194" s="4" t="n"/>
-      <c r="K194" s="4" t="n"/>
-      <c r="L194" s="4" t="n"/>
-      <c r="M194" s="4" t="n"/>
-      <c r="N194" s="4" t="n"/>
-      <c r="O194" s="4" t="n"/>
-      <c r="P194" s="4" t="n"/>
-      <c r="Q194" s="4" t="n"/>
-      <c r="R194" s="4" t="n"/>
-      <c r="S194" s="4" t="n"/>
-      <c r="T194" s="4" t="n"/>
-      <c r="U194" s="4" t="n"/>
-      <c r="V194" s="4" t="n"/>
-      <c r="W194" s="4" t="n"/>
-      <c r="X194" s="4" t="n"/>
-      <c r="Y194" s="4" t="n"/>
-      <c r="Z194" s="4" t="n"/>
-      <c r="AA194" s="4" t="n"/>
-      <c r="AB194" s="4" t="n"/>
-      <c r="AC194" s="4" t="n"/>
-      <c r="AD194" s="4" t="n"/>
+      <c r="A194" s="4" t="inlineStr"/>
+      <c r="B194" s="7" t="n"/>
+      <c r="C194" s="7" t="n"/>
+      <c r="D194" s="5" t="inlineStr">
+        <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="E194" s="6" t="n"/>
+      <c r="F194" s="6" t="n"/>
+      <c r="G194" s="6" t="n"/>
+      <c r="H194" s="6" t="n"/>
+      <c r="I194" s="6" t="n"/>
+      <c r="J194" s="6" t="n"/>
+      <c r="K194" s="6" t="n"/>
+      <c r="L194" s="6" t="n"/>
+      <c r="M194" s="6" t="n"/>
+      <c r="N194" s="6" t="n"/>
+      <c r="O194" s="6" t="n"/>
+      <c r="P194" s="6" t="n"/>
+      <c r="Q194" s="6" t="n"/>
+      <c r="R194" s="6" t="n"/>
+      <c r="S194" s="6" t="n"/>
+      <c r="T194" s="6" t="n"/>
+      <c r="U194" s="6" t="n"/>
+      <c r="V194" s="6" t="n"/>
+      <c r="W194" s="6" t="n"/>
+      <c r="X194" s="6" t="n"/>
+      <c r="Y194" s="6" t="n"/>
+      <c r="Z194" s="6" t="n"/>
+      <c r="AA194" s="6" t="n"/>
+      <c r="AB194" s="6" t="n"/>
+      <c r="AC194" s="6" t="n"/>
+      <c r="AD194" s="6" t="n"/>
     </row>
     <row r="195">
-      <c r="A195" s="4" t="n"/>
-      <c r="B195" s="4" t="n"/>
-      <c r="C195" s="4" t="n"/>
-      <c r="D195" s="4" t="n"/>
-      <c r="E195" s="4" t="n"/>
-      <c r="F195" s="4" t="n"/>
-      <c r="G195" s="4" t="n"/>
-      <c r="H195" s="4" t="n"/>
-      <c r="I195" s="4" t="n"/>
-      <c r="J195" s="4" t="n"/>
-      <c r="K195" s="4" t="n"/>
-      <c r="L195" s="4" t="n"/>
-      <c r="M195" s="4" t="n"/>
-      <c r="N195" s="4" t="n"/>
-      <c r="O195" s="4" t="n"/>
-      <c r="P195" s="4" t="n"/>
-      <c r="Q195" s="4" t="n"/>
-      <c r="R195" s="4" t="n"/>
-      <c r="S195" s="4" t="n"/>
-      <c r="T195" s="4" t="n"/>
-      <c r="U195" s="4" t="n"/>
-      <c r="V195" s="4" t="n"/>
-      <c r="W195" s="4" t="n"/>
-      <c r="X195" s="4" t="n"/>
-      <c r="Y195" s="4" t="n"/>
-      <c r="Z195" s="4" t="n"/>
-      <c r="AA195" s="4" t="n"/>
-      <c r="AB195" s="4" t="n"/>
-      <c r="AC195" s="4" t="n"/>
-      <c r="AD195" s="4" t="n"/>
+      <c r="A195" s="4" t="inlineStr"/>
+      <c r="B195" s="7" t="n"/>
+      <c r="C195" s="7" t="n"/>
+      <c r="D195" s="5" t="inlineStr">
+        <is>
+          <t>uri</t>
+        </is>
+      </c>
+      <c r="E195" s="6" t="n"/>
+      <c r="F195" s="6" t="n"/>
+      <c r="G195" s="6" t="n"/>
+      <c r="H195" s="6" t="n"/>
+      <c r="I195" s="6" t="n"/>
+      <c r="J195" s="6" t="n"/>
+      <c r="K195" s="6" t="n"/>
+      <c r="L195" s="6" t="n"/>
+      <c r="M195" s="6" t="n"/>
+      <c r="N195" s="6" t="n"/>
+      <c r="O195" s="6" t="n"/>
+      <c r="P195" s="6" t="n"/>
+      <c r="Q195" s="6" t="n"/>
+      <c r="R195" s="6" t="n"/>
+      <c r="S195" s="6" t="n"/>
+      <c r="T195" s="6" t="n"/>
+      <c r="U195" s="6" t="n"/>
+      <c r="V195" s="6" t="n"/>
+      <c r="W195" s="6" t="n"/>
+      <c r="X195" s="6" t="n"/>
+      <c r="Y195" s="6" t="n"/>
+      <c r="Z195" s="6" t="n"/>
+      <c r="AA195" s="6" t="n"/>
+      <c r="AB195" s="6" t="n"/>
+      <c r="AC195" s="6" t="n"/>
+      <c r="AD195" s="6" t="n"/>
     </row>
     <row r="196">
-      <c r="A196" s="4" t="n"/>
-      <c r="B196" s="4" t="n"/>
-      <c r="C196" s="4" t="n"/>
-      <c r="D196" s="4" t="n"/>
-      <c r="E196" s="4" t="n"/>
-      <c r="F196" s="4" t="n"/>
-      <c r="G196" s="4" t="n"/>
-      <c r="H196" s="4" t="n"/>
-      <c r="I196" s="4" t="n"/>
-      <c r="J196" s="4" t="n"/>
-      <c r="K196" s="4" t="n"/>
-      <c r="L196" s="4" t="n"/>
-      <c r="M196" s="4" t="n"/>
-      <c r="N196" s="4" t="n"/>
-      <c r="O196" s="4" t="n"/>
-      <c r="P196" s="4" t="n"/>
-      <c r="Q196" s="4" t="n"/>
-      <c r="R196" s="4" t="n"/>
-      <c r="S196" s="4" t="n"/>
-      <c r="T196" s="4" t="n"/>
-      <c r="U196" s="4" t="n"/>
-      <c r="V196" s="4" t="n"/>
-      <c r="W196" s="4" t="n"/>
-      <c r="X196" s="4" t="n"/>
-      <c r="Y196" s="4" t="n"/>
-      <c r="Z196" s="4" t="n"/>
-      <c r="AA196" s="4" t="n"/>
-      <c r="AB196" s="4" t="n"/>
-      <c r="AC196" s="4" t="n"/>
-      <c r="AD196" s="4" t="n"/>
+      <c r="A196" s="4" t="inlineStr"/>
+      <c r="B196" s="7" t="n"/>
+      <c r="C196" s="7" t="n"/>
+      <c r="D196" s="5" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="E196" s="6" t="n"/>
+      <c r="F196" s="6" t="n"/>
+      <c r="G196" s="6" t="n"/>
+      <c r="H196" s="6" t="n"/>
+      <c r="I196" s="6" t="n"/>
+      <c r="J196" s="6" t="n"/>
+      <c r="K196" s="6" t="n"/>
+      <c r="L196" s="6" t="n"/>
+      <c r="M196" s="6" t="n"/>
+      <c r="N196" s="6" t="n"/>
+      <c r="O196" s="6" t="n"/>
+      <c r="P196" s="6" t="n"/>
+      <c r="Q196" s="6" t="n"/>
+      <c r="R196" s="6" t="n"/>
+      <c r="S196" s="6" t="n"/>
+      <c r="T196" s="6" t="n"/>
+      <c r="U196" s="6" t="n"/>
+      <c r="V196" s="6" t="n"/>
+      <c r="W196" s="6" t="n"/>
+      <c r="X196" s="6" t="n"/>
+      <c r="Y196" s="6" t="n"/>
+      <c r="Z196" s="6" t="n"/>
+      <c r="AA196" s="6" t="n"/>
+      <c r="AB196" s="6" t="n"/>
+      <c r="AC196" s="6" t="n"/>
+      <c r="AD196" s="6" t="n"/>
     </row>
     <row r="197">
-      <c r="A197" s="4" t="n"/>
-      <c r="B197" s="4" t="n"/>
-      <c r="C197" s="4" t="n"/>
-      <c r="D197" s="4" t="n"/>
-      <c r="E197" s="4" t="n"/>
-      <c r="F197" s="4" t="n"/>
-      <c r="G197" s="4" t="n"/>
-      <c r="H197" s="4" t="n"/>
-      <c r="I197" s="4" t="n"/>
-      <c r="J197" s="4" t="n"/>
-      <c r="K197" s="4" t="n"/>
-      <c r="L197" s="4" t="n"/>
-      <c r="M197" s="4" t="n"/>
-      <c r="N197" s="4" t="n"/>
-      <c r="O197" s="4" t="n"/>
-      <c r="P197" s="4" t="n"/>
-      <c r="Q197" s="4" t="n"/>
-      <c r="R197" s="4" t="n"/>
-      <c r="S197" s="4" t="n"/>
-      <c r="T197" s="4" t="n"/>
-      <c r="U197" s="4" t="n"/>
-      <c r="V197" s="4" t="n"/>
-      <c r="W197" s="4" t="n"/>
-      <c r="X197" s="4" t="n"/>
-      <c r="Y197" s="4" t="n"/>
-      <c r="Z197" s="4" t="n"/>
-      <c r="AA197" s="4" t="n"/>
-      <c r="AB197" s="4" t="n"/>
-      <c r="AC197" s="4" t="n"/>
-      <c r="AD197" s="4" t="n"/>
+      <c r="A197" s="4" t="inlineStr"/>
+      <c r="B197" s="7" t="n"/>
+      <c r="C197" s="5" t="inlineStr">
+        <is>
+          <t>cit_req</t>
+        </is>
+      </c>
+      <c r="D197" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E197" s="6" t="n"/>
+      <c r="F197" s="2" t="n"/>
+      <c r="G197" s="2" t="n"/>
+      <c r="H197" s="2" t="n"/>
+      <c r="I197" s="2" t="n"/>
+      <c r="J197" s="2" t="n"/>
+      <c r="K197" s="2" t="n"/>
+      <c r="L197" s="2" t="n"/>
+      <c r="M197" s="2" t="n"/>
+      <c r="N197" s="2" t="n"/>
+      <c r="O197" s="2" t="n"/>
+      <c r="P197" s="2" t="n"/>
+      <c r="Q197" s="2" t="n"/>
+      <c r="R197" s="2" t="n"/>
+      <c r="S197" s="2" t="n"/>
+      <c r="T197" s="2" t="n"/>
+      <c r="U197" s="2" t="n"/>
+      <c r="V197" s="2" t="n"/>
+      <c r="W197" s="2" t="n"/>
+      <c r="X197" s="2" t="n"/>
+      <c r="Y197" s="2" t="n"/>
+      <c r="Z197" s="2" t="n"/>
+      <c r="AA197" s="2" t="n"/>
+      <c r="AB197" s="2" t="n"/>
+      <c r="AC197" s="2" t="n"/>
+      <c r="AD197" s="2" t="n"/>
     </row>
     <row r="198">
-      <c r="A198" s="4" t="n"/>
-      <c r="B198" s="4" t="n"/>
-      <c r="C198" s="4" t="n"/>
-      <c r="D198" s="4" t="n"/>
-      <c r="E198" s="4" t="n"/>
-      <c r="F198" s="4" t="n"/>
-      <c r="G198" s="4" t="n"/>
-      <c r="H198" s="4" t="n"/>
-      <c r="I198" s="4" t="n"/>
-      <c r="J198" s="4" t="n"/>
-      <c r="K198" s="4" t="n"/>
-      <c r="L198" s="4" t="n"/>
-      <c r="M198" s="4" t="n"/>
-      <c r="N198" s="4" t="n"/>
-      <c r="O198" s="4" t="n"/>
-      <c r="P198" s="4" t="n"/>
-      <c r="Q198" s="4" t="n"/>
-      <c r="R198" s="4" t="n"/>
-      <c r="S198" s="4" t="n"/>
-      <c r="T198" s="4" t="n"/>
-      <c r="U198" s="4" t="n"/>
-      <c r="V198" s="4" t="n"/>
-      <c r="W198" s="4" t="n"/>
-      <c r="X198" s="4" t="n"/>
-      <c r="Y198" s="4" t="n"/>
-      <c r="Z198" s="4" t="n"/>
-      <c r="AA198" s="4" t="n"/>
-      <c r="AB198" s="4" t="n"/>
-      <c r="AC198" s="4" t="n"/>
-      <c r="AD198" s="4" t="n"/>
+      <c r="A198" s="4" t="inlineStr"/>
+      <c r="B198" s="7" t="n"/>
+      <c r="C198" s="5" t="inlineStr">
+        <is>
+          <t>deposit_req</t>
+        </is>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E198" s="6" t="n"/>
+      <c r="F198" s="2" t="n"/>
+      <c r="G198" s="2" t="n"/>
+      <c r="H198" s="2" t="n"/>
+      <c r="I198" s="2" t="n"/>
+      <c r="J198" s="2" t="n"/>
+      <c r="K198" s="2" t="n"/>
+      <c r="L198" s="2" t="n"/>
+      <c r="M198" s="2" t="n"/>
+      <c r="N198" s="2" t="n"/>
+      <c r="O198" s="2" t="n"/>
+      <c r="P198" s="2" t="n"/>
+      <c r="Q198" s="2" t="n"/>
+      <c r="R198" s="2" t="n"/>
+      <c r="S198" s="2" t="n"/>
+      <c r="T198" s="2" t="n"/>
+      <c r="U198" s="2" t="n"/>
+      <c r="V198" s="2" t="n"/>
+      <c r="W198" s="2" t="n"/>
+      <c r="X198" s="2" t="n"/>
+      <c r="Y198" s="2" t="n"/>
+      <c r="Z198" s="2" t="n"/>
+      <c r="AA198" s="2" t="n"/>
+      <c r="AB198" s="2" t="n"/>
+      <c r="AC198" s="2" t="n"/>
+      <c r="AD198" s="2" t="n"/>
     </row>
     <row r="199">
-      <c r="A199" s="4" t="n"/>
-      <c r="B199" s="4" t="n"/>
-      <c r="C199" s="4" t="n"/>
-      <c r="D199" s="4" t="n"/>
-      <c r="E199" s="4" t="n"/>
-      <c r="F199" s="4" t="n"/>
-      <c r="G199" s="4" t="n"/>
-      <c r="H199" s="4" t="n"/>
-      <c r="I199" s="4" t="n"/>
-      <c r="J199" s="4" t="n"/>
-      <c r="K199" s="4" t="n"/>
-      <c r="L199" s="4" t="n"/>
-      <c r="M199" s="4" t="n"/>
-      <c r="N199" s="4" t="n"/>
-      <c r="O199" s="4" t="n"/>
-      <c r="P199" s="4" t="n"/>
-      <c r="Q199" s="4" t="n"/>
-      <c r="R199" s="4" t="n"/>
-      <c r="S199" s="4" t="n"/>
-      <c r="T199" s="4" t="n"/>
-      <c r="U199" s="4" t="n"/>
-      <c r="V199" s="4" t="n"/>
-      <c r="W199" s="4" t="n"/>
-      <c r="X199" s="4" t="n"/>
-      <c r="Y199" s="4" t="n"/>
-      <c r="Z199" s="4" t="n"/>
-      <c r="AA199" s="4" t="n"/>
-      <c r="AB199" s="4" t="n"/>
-      <c r="AC199" s="4" t="n"/>
-      <c r="AD199" s="4" t="n"/>
+      <c r="A199" s="4" t="inlineStr"/>
+      <c r="B199" s="7" t="n"/>
+      <c r="C199" s="5" t="inlineStr">
+        <is>
+          <t>conditions</t>
+        </is>
+      </c>
+      <c r="D199" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E199" s="6" t="n"/>
+      <c r="F199" s="2" t="n"/>
+      <c r="G199" s="2" t="n"/>
+      <c r="H199" s="2" t="n"/>
+      <c r="I199" s="2" t="n"/>
+      <c r="J199" s="2" t="n"/>
+      <c r="K199" s="2" t="n"/>
+      <c r="L199" s="2" t="n"/>
+      <c r="M199" s="2" t="n"/>
+      <c r="N199" s="2" t="n"/>
+      <c r="O199" s="2" t="n"/>
+      <c r="P199" s="2" t="n"/>
+      <c r="Q199" s="2" t="n"/>
+      <c r="R199" s="2" t="n"/>
+      <c r="S199" s="2" t="n"/>
+      <c r="T199" s="2" t="n"/>
+      <c r="U199" s="2" t="n"/>
+      <c r="V199" s="2" t="n"/>
+      <c r="W199" s="2" t="n"/>
+      <c r="X199" s="2" t="n"/>
+      <c r="Y199" s="2" t="n"/>
+      <c r="Z199" s="2" t="n"/>
+      <c r="AA199" s="2" t="n"/>
+      <c r="AB199" s="2" t="n"/>
+      <c r="AC199" s="2" t="n"/>
+      <c r="AD199" s="2" t="n"/>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="n"/>
-      <c r="B200" s="4" t="n"/>
-      <c r="C200" s="4" t="n"/>
-      <c r="D200" s="4" t="n"/>
-      <c r="E200" s="4" t="n"/>
-      <c r="F200" s="4" t="n"/>
-      <c r="G200" s="4" t="n"/>
-      <c r="H200" s="4" t="n"/>
-      <c r="I200" s="4" t="n"/>
-      <c r="J200" s="4" t="n"/>
-      <c r="K200" s="4" t="n"/>
-      <c r="L200" s="4" t="n"/>
-      <c r="M200" s="4" t="n"/>
-      <c r="N200" s="4" t="n"/>
-      <c r="O200" s="4" t="n"/>
-      <c r="P200" s="4" t="n"/>
-      <c r="Q200" s="4" t="n"/>
-      <c r="R200" s="4" t="n"/>
-      <c r="S200" s="4" t="n"/>
-      <c r="T200" s="4" t="n"/>
-      <c r="U200" s="4" t="n"/>
-      <c r="V200" s="4" t="n"/>
-      <c r="W200" s="4" t="n"/>
-      <c r="X200" s="4" t="n"/>
-      <c r="Y200" s="4" t="n"/>
-      <c r="Z200" s="4" t="n"/>
-      <c r="AA200" s="4" t="n"/>
-      <c r="AB200" s="4" t="n"/>
-      <c r="AC200" s="4" t="n"/>
-      <c r="AD200" s="4" t="n"/>
+      <c r="A200" s="4" t="inlineStr"/>
+      <c r="B200" s="7" t="n"/>
+      <c r="C200" s="5" t="inlineStr">
+        <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="D200" s="5" t="n">
+        <v/>
+      </c>
+      <c r="E200" s="6" t="n"/>
+      <c r="F200" s="2" t="n"/>
+      <c r="G200" s="2" t="n"/>
+      <c r="H200" s="2" t="n"/>
+      <c r="I200" s="2" t="n"/>
+      <c r="J200" s="2" t="n"/>
+      <c r="K200" s="2" t="n"/>
+      <c r="L200" s="2" t="n"/>
+      <c r="M200" s="2" t="n"/>
+      <c r="N200" s="2" t="n"/>
+      <c r="O200" s="2" t="n"/>
+      <c r="P200" s="2" t="n"/>
+      <c r="Q200" s="2" t="n"/>
+      <c r="R200" s="2" t="n"/>
+      <c r="S200" s="2" t="n"/>
+      <c r="T200" s="2" t="n"/>
+      <c r="U200" s="2" t="n"/>
+      <c r="V200" s="2" t="n"/>
+      <c r="W200" s="2" t="n"/>
+      <c r="X200" s="2" t="n"/>
+      <c r="Y200" s="2" t="n"/>
+      <c r="Z200" s="2" t="n"/>
+      <c r="AA200" s="2" t="n"/>
+      <c r="AB200" s="2" t="n"/>
+      <c r="AC200" s="2" t="n"/>
+      <c r="AD200" s="2" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="4" t="n"/>
-      <c r="B201" s="4" t="n"/>
-      <c r="C201" s="4" t="n"/>
-      <c r="D201" s="4" t="n"/>
-      <c r="E201" s="4" t="n"/>
-      <c r="F201" s="4" t="n"/>
-      <c r="G201" s="4" t="n"/>
-      <c r="H201" s="4" t="n"/>
-      <c r="I201" s="4" t="n"/>
-      <c r="J201" s="4" t="n"/>
-      <c r="K201" s="4" t="n"/>
-      <c r="L201" s="4" t="n"/>
-      <c r="M201" s="4" t="n"/>
-      <c r="N201" s="4" t="n"/>
-      <c r="O201" s="4" t="n"/>
-      <c r="P201" s="4" t="n"/>
-      <c r="Q201" s="4" t="n"/>
-      <c r="R201" s="4" t="n"/>
-      <c r="S201" s="4" t="n"/>
-      <c r="T201" s="4" t="n"/>
-      <c r="U201" s="4" t="n"/>
-      <c r="V201" s="4" t="n"/>
-      <c r="W201" s="4" t="n"/>
-      <c r="X201" s="4" t="n"/>
-      <c r="Y201" s="4" t="n"/>
-      <c r="Z201" s="4" t="n"/>
-      <c r="AA201" s="4" t="n"/>
-      <c r="AB201" s="4" t="n"/>
-      <c r="AC201" s="4" t="n"/>
-      <c r="AD201" s="4" t="n"/>
+      <c r="B201" s="8" t="n"/>
+      <c r="C201" s="8" t="n"/>
+      <c r="D201" s="8" t="n"/>
+      <c r="E201" s="2" t="n"/>
+      <c r="F201" s="2" t="n"/>
+      <c r="G201" s="2" t="n"/>
+      <c r="H201" s="2" t="n"/>
+      <c r="I201" s="2" t="n"/>
+      <c r="J201" s="2" t="n"/>
+      <c r="K201" s="2" t="n"/>
+      <c r="L201" s="2" t="n"/>
+      <c r="M201" s="2" t="n"/>
+      <c r="N201" s="2" t="n"/>
+      <c r="O201" s="2" t="n"/>
+      <c r="P201" s="2" t="n"/>
+      <c r="Q201" s="2" t="n"/>
+      <c r="R201" s="2" t="n"/>
+      <c r="S201" s="2" t="n"/>
+      <c r="T201" s="2" t="n"/>
+      <c r="U201" s="2" t="n"/>
+      <c r="V201" s="2" t="n"/>
+      <c r="W201" s="2" t="n"/>
+      <c r="X201" s="2" t="n"/>
+      <c r="Y201" s="2" t="n"/>
+      <c r="Z201" s="2" t="n"/>
+      <c r="AA201" s="2" t="n"/>
+      <c r="AB201" s="2" t="n"/>
+      <c r="AC201" s="2" t="n"/>
+      <c r="AD201" s="2" t="n"/>
     </row>
     <row r="202">
       <c r="A202" s="4" t="n"/>
@@ -12343,6 +12520,678 @@
       <c r="AC210" s="4" t="n"/>
       <c r="AD210" s="4" t="n"/>
     </row>
+    <row r="211">
+      <c r="A211" s="4" t="n"/>
+      <c r="B211" s="4" t="n"/>
+      <c r="C211" s="4" t="n"/>
+      <c r="D211" s="4" t="n"/>
+      <c r="E211" s="4" t="n"/>
+      <c r="F211" s="4" t="n"/>
+      <c r="G211" s="4" t="n"/>
+      <c r="H211" s="4" t="n"/>
+      <c r="I211" s="4" t="n"/>
+      <c r="J211" s="4" t="n"/>
+      <c r="K211" s="4" t="n"/>
+      <c r="L211" s="4" t="n"/>
+      <c r="M211" s="4" t="n"/>
+      <c r="N211" s="4" t="n"/>
+      <c r="O211" s="4" t="n"/>
+      <c r="P211" s="4" t="n"/>
+      <c r="Q211" s="4" t="n"/>
+      <c r="R211" s="4" t="n"/>
+      <c r="S211" s="4" t="n"/>
+      <c r="T211" s="4" t="n"/>
+      <c r="U211" s="4" t="n"/>
+      <c r="V211" s="4" t="n"/>
+      <c r="W211" s="4" t="n"/>
+      <c r="X211" s="4" t="n"/>
+      <c r="Y211" s="4" t="n"/>
+      <c r="Z211" s="4" t="n"/>
+      <c r="AA211" s="4" t="n"/>
+      <c r="AB211" s="4" t="n"/>
+      <c r="AC211" s="4" t="n"/>
+      <c r="AD211" s="4" t="n"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="n"/>
+      <c r="B212" s="4" t="n"/>
+      <c r="C212" s="4" t="n"/>
+      <c r="D212" s="4" t="n"/>
+      <c r="E212" s="4" t="n"/>
+      <c r="F212" s="4" t="n"/>
+      <c r="G212" s="4" t="n"/>
+      <c r="H212" s="4" t="n"/>
+      <c r="I212" s="4" t="n"/>
+      <c r="J212" s="4" t="n"/>
+      <c r="K212" s="4" t="n"/>
+      <c r="L212" s="4" t="n"/>
+      <c r="M212" s="4" t="n"/>
+      <c r="N212" s="4" t="n"/>
+      <c r="O212" s="4" t="n"/>
+      <c r="P212" s="4" t="n"/>
+      <c r="Q212" s="4" t="n"/>
+      <c r="R212" s="4" t="n"/>
+      <c r="S212" s="4" t="n"/>
+      <c r="T212" s="4" t="n"/>
+      <c r="U212" s="4" t="n"/>
+      <c r="V212" s="4" t="n"/>
+      <c r="W212" s="4" t="n"/>
+      <c r="X212" s="4" t="n"/>
+      <c r="Y212" s="4" t="n"/>
+      <c r="Z212" s="4" t="n"/>
+      <c r="AA212" s="4" t="n"/>
+      <c r="AB212" s="4" t="n"/>
+      <c r="AC212" s="4" t="n"/>
+      <c r="AD212" s="4" t="n"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="n"/>
+      <c r="B213" s="4" t="n"/>
+      <c r="C213" s="4" t="n"/>
+      <c r="D213" s="4" t="n"/>
+      <c r="E213" s="4" t="n"/>
+      <c r="F213" s="4" t="n"/>
+      <c r="G213" s="4" t="n"/>
+      <c r="H213" s="4" t="n"/>
+      <c r="I213" s="4" t="n"/>
+      <c r="J213" s="4" t="n"/>
+      <c r="K213" s="4" t="n"/>
+      <c r="L213" s="4" t="n"/>
+      <c r="M213" s="4" t="n"/>
+      <c r="N213" s="4" t="n"/>
+      <c r="O213" s="4" t="n"/>
+      <c r="P213" s="4" t="n"/>
+      <c r="Q213" s="4" t="n"/>
+      <c r="R213" s="4" t="n"/>
+      <c r="S213" s="4" t="n"/>
+      <c r="T213" s="4" t="n"/>
+      <c r="U213" s="4" t="n"/>
+      <c r="V213" s="4" t="n"/>
+      <c r="W213" s="4" t="n"/>
+      <c r="X213" s="4" t="n"/>
+      <c r="Y213" s="4" t="n"/>
+      <c r="Z213" s="4" t="n"/>
+      <c r="AA213" s="4" t="n"/>
+      <c r="AB213" s="4" t="n"/>
+      <c r="AC213" s="4" t="n"/>
+      <c r="AD213" s="4" t="n"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="n"/>
+      <c r="B214" s="4" t="n"/>
+      <c r="C214" s="4" t="n"/>
+      <c r="D214" s="4" t="n"/>
+      <c r="E214" s="4" t="n"/>
+      <c r="F214" s="4" t="n"/>
+      <c r="G214" s="4" t="n"/>
+      <c r="H214" s="4" t="n"/>
+      <c r="I214" s="4" t="n"/>
+      <c r="J214" s="4" t="n"/>
+      <c r="K214" s="4" t="n"/>
+      <c r="L214" s="4" t="n"/>
+      <c r="M214" s="4" t="n"/>
+      <c r="N214" s="4" t="n"/>
+      <c r="O214" s="4" t="n"/>
+      <c r="P214" s="4" t="n"/>
+      <c r="Q214" s="4" t="n"/>
+      <c r="R214" s="4" t="n"/>
+      <c r="S214" s="4" t="n"/>
+      <c r="T214" s="4" t="n"/>
+      <c r="U214" s="4" t="n"/>
+      <c r="V214" s="4" t="n"/>
+      <c r="W214" s="4" t="n"/>
+      <c r="X214" s="4" t="n"/>
+      <c r="Y214" s="4" t="n"/>
+      <c r="Z214" s="4" t="n"/>
+      <c r="AA214" s="4" t="n"/>
+      <c r="AB214" s="4" t="n"/>
+      <c r="AC214" s="4" t="n"/>
+      <c r="AD214" s="4" t="n"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="4" t="n"/>
+      <c r="B215" s="4" t="n"/>
+      <c r="C215" s="4" t="n"/>
+      <c r="D215" s="4" t="n"/>
+      <c r="E215" s="4" t="n"/>
+      <c r="F215" s="4" t="n"/>
+      <c r="G215" s="4" t="n"/>
+      <c r="H215" s="4" t="n"/>
+      <c r="I215" s="4" t="n"/>
+      <c r="J215" s="4" t="n"/>
+      <c r="K215" s="4" t="n"/>
+      <c r="L215" s="4" t="n"/>
+      <c r="M215" s="4" t="n"/>
+      <c r="N215" s="4" t="n"/>
+      <c r="O215" s="4" t="n"/>
+      <c r="P215" s="4" t="n"/>
+      <c r="Q215" s="4" t="n"/>
+      <c r="R215" s="4" t="n"/>
+      <c r="S215" s="4" t="n"/>
+      <c r="T215" s="4" t="n"/>
+      <c r="U215" s="4" t="n"/>
+      <c r="V215" s="4" t="n"/>
+      <c r="W215" s="4" t="n"/>
+      <c r="X215" s="4" t="n"/>
+      <c r="Y215" s="4" t="n"/>
+      <c r="Z215" s="4" t="n"/>
+      <c r="AA215" s="4" t="n"/>
+      <c r="AB215" s="4" t="n"/>
+      <c r="AC215" s="4" t="n"/>
+      <c r="AD215" s="4" t="n"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="4" t="n"/>
+      <c r="B216" s="4" t="n"/>
+      <c r="C216" s="4" t="n"/>
+      <c r="D216" s="4" t="n"/>
+      <c r="E216" s="4" t="n"/>
+      <c r="F216" s="4" t="n"/>
+      <c r="G216" s="4" t="n"/>
+      <c r="H216" s="4" t="n"/>
+      <c r="I216" s="4" t="n"/>
+      <c r="J216" s="4" t="n"/>
+      <c r="K216" s="4" t="n"/>
+      <c r="L216" s="4" t="n"/>
+      <c r="M216" s="4" t="n"/>
+      <c r="N216" s="4" t="n"/>
+      <c r="O216" s="4" t="n"/>
+      <c r="P216" s="4" t="n"/>
+      <c r="Q216" s="4" t="n"/>
+      <c r="R216" s="4" t="n"/>
+      <c r="S216" s="4" t="n"/>
+      <c r="T216" s="4" t="n"/>
+      <c r="U216" s="4" t="n"/>
+      <c r="V216" s="4" t="n"/>
+      <c r="W216" s="4" t="n"/>
+      <c r="X216" s="4" t="n"/>
+      <c r="Y216" s="4" t="n"/>
+      <c r="Z216" s="4" t="n"/>
+      <c r="AA216" s="4" t="n"/>
+      <c r="AB216" s="4" t="n"/>
+      <c r="AC216" s="4" t="n"/>
+      <c r="AD216" s="4" t="n"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="4" t="n"/>
+      <c r="B217" s="4" t="n"/>
+      <c r="C217" s="4" t="n"/>
+      <c r="D217" s="4" t="n"/>
+      <c r="E217" s="4" t="n"/>
+      <c r="F217" s="4" t="n"/>
+      <c r="G217" s="4" t="n"/>
+      <c r="H217" s="4" t="n"/>
+      <c r="I217" s="4" t="n"/>
+      <c r="J217" s="4" t="n"/>
+      <c r="K217" s="4" t="n"/>
+      <c r="L217" s="4" t="n"/>
+      <c r="M217" s="4" t="n"/>
+      <c r="N217" s="4" t="n"/>
+      <c r="O217" s="4" t="n"/>
+      <c r="P217" s="4" t="n"/>
+      <c r="Q217" s="4" t="n"/>
+      <c r="R217" s="4" t="n"/>
+      <c r="S217" s="4" t="n"/>
+      <c r="T217" s="4" t="n"/>
+      <c r="U217" s="4" t="n"/>
+      <c r="V217" s="4" t="n"/>
+      <c r="W217" s="4" t="n"/>
+      <c r="X217" s="4" t="n"/>
+      <c r="Y217" s="4" t="n"/>
+      <c r="Z217" s="4" t="n"/>
+      <c r="AA217" s="4" t="n"/>
+      <c r="AB217" s="4" t="n"/>
+      <c r="AC217" s="4" t="n"/>
+      <c r="AD217" s="4" t="n"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="4" t="n"/>
+      <c r="B218" s="4" t="n"/>
+      <c r="C218" s="4" t="n"/>
+      <c r="D218" s="4" t="n"/>
+      <c r="E218" s="4" t="n"/>
+      <c r="F218" s="4" t="n"/>
+      <c r="G218" s="4" t="n"/>
+      <c r="H218" s="4" t="n"/>
+      <c r="I218" s="4" t="n"/>
+      <c r="J218" s="4" t="n"/>
+      <c r="K218" s="4" t="n"/>
+      <c r="L218" s="4" t="n"/>
+      <c r="M218" s="4" t="n"/>
+      <c r="N218" s="4" t="n"/>
+      <c r="O218" s="4" t="n"/>
+      <c r="P218" s="4" t="n"/>
+      <c r="Q218" s="4" t="n"/>
+      <c r="R218" s="4" t="n"/>
+      <c r="S218" s="4" t="n"/>
+      <c r="T218" s="4" t="n"/>
+      <c r="U218" s="4" t="n"/>
+      <c r="V218" s="4" t="n"/>
+      <c r="W218" s="4" t="n"/>
+      <c r="X218" s="4" t="n"/>
+      <c r="Y218" s="4" t="n"/>
+      <c r="Z218" s="4" t="n"/>
+      <c r="AA218" s="4" t="n"/>
+      <c r="AB218" s="4" t="n"/>
+      <c r="AC218" s="4" t="n"/>
+      <c r="AD218" s="4" t="n"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="4" t="n"/>
+      <c r="B219" s="4" t="n"/>
+      <c r="C219" s="4" t="n"/>
+      <c r="D219" s="4" t="n"/>
+      <c r="E219" s="4" t="n"/>
+      <c r="F219" s="4" t="n"/>
+      <c r="G219" s="4" t="n"/>
+      <c r="H219" s="4" t="n"/>
+      <c r="I219" s="4" t="n"/>
+      <c r="J219" s="4" t="n"/>
+      <c r="K219" s="4" t="n"/>
+      <c r="L219" s="4" t="n"/>
+      <c r="M219" s="4" t="n"/>
+      <c r="N219" s="4" t="n"/>
+      <c r="O219" s="4" t="n"/>
+      <c r="P219" s="4" t="n"/>
+      <c r="Q219" s="4" t="n"/>
+      <c r="R219" s="4" t="n"/>
+      <c r="S219" s="4" t="n"/>
+      <c r="T219" s="4" t="n"/>
+      <c r="U219" s="4" t="n"/>
+      <c r="V219" s="4" t="n"/>
+      <c r="W219" s="4" t="n"/>
+      <c r="X219" s="4" t="n"/>
+      <c r="Y219" s="4" t="n"/>
+      <c r="Z219" s="4" t="n"/>
+      <c r="AA219" s="4" t="n"/>
+      <c r="AB219" s="4" t="n"/>
+      <c r="AC219" s="4" t="n"/>
+      <c r="AD219" s="4" t="n"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="4" t="n"/>
+      <c r="B220" s="4" t="n"/>
+      <c r="C220" s="4" t="n"/>
+      <c r="D220" s="4" t="n"/>
+      <c r="E220" s="4" t="n"/>
+      <c r="F220" s="4" t="n"/>
+      <c r="G220" s="4" t="n"/>
+      <c r="H220" s="4" t="n"/>
+      <c r="I220" s="4" t="n"/>
+      <c r="J220" s="4" t="n"/>
+      <c r="K220" s="4" t="n"/>
+      <c r="L220" s="4" t="n"/>
+      <c r="M220" s="4" t="n"/>
+      <c r="N220" s="4" t="n"/>
+      <c r="O220" s="4" t="n"/>
+      <c r="P220" s="4" t="n"/>
+      <c r="Q220" s="4" t="n"/>
+      <c r="R220" s="4" t="n"/>
+      <c r="S220" s="4" t="n"/>
+      <c r="T220" s="4" t="n"/>
+      <c r="U220" s="4" t="n"/>
+      <c r="V220" s="4" t="n"/>
+      <c r="W220" s="4" t="n"/>
+      <c r="X220" s="4" t="n"/>
+      <c r="Y220" s="4" t="n"/>
+      <c r="Z220" s="4" t="n"/>
+      <c r="AA220" s="4" t="n"/>
+      <c r="AB220" s="4" t="n"/>
+      <c r="AC220" s="4" t="n"/>
+      <c r="AD220" s="4" t="n"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="4" t="n"/>
+      <c r="B221" s="4" t="n"/>
+      <c r="C221" s="4" t="n"/>
+      <c r="D221" s="4" t="n"/>
+      <c r="E221" s="4" t="n"/>
+      <c r="F221" s="4" t="n"/>
+      <c r="G221" s="4" t="n"/>
+      <c r="H221" s="4" t="n"/>
+      <c r="I221" s="4" t="n"/>
+      <c r="J221" s="4" t="n"/>
+      <c r="K221" s="4" t="n"/>
+      <c r="L221" s="4" t="n"/>
+      <c r="M221" s="4" t="n"/>
+      <c r="N221" s="4" t="n"/>
+      <c r="O221" s="4" t="n"/>
+      <c r="P221" s="4" t="n"/>
+      <c r="Q221" s="4" t="n"/>
+      <c r="R221" s="4" t="n"/>
+      <c r="S221" s="4" t="n"/>
+      <c r="T221" s="4" t="n"/>
+      <c r="U221" s="4" t="n"/>
+      <c r="V221" s="4" t="n"/>
+      <c r="W221" s="4" t="n"/>
+      <c r="X221" s="4" t="n"/>
+      <c r="Y221" s="4" t="n"/>
+      <c r="Z221" s="4" t="n"/>
+      <c r="AA221" s="4" t="n"/>
+      <c r="AB221" s="4" t="n"/>
+      <c r="AC221" s="4" t="n"/>
+      <c r="AD221" s="4" t="n"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="4" t="n"/>
+      <c r="B222" s="4" t="n"/>
+      <c r="C222" s="4" t="n"/>
+      <c r="D222" s="4" t="n"/>
+      <c r="E222" s="4" t="n"/>
+      <c r="F222" s="4" t="n"/>
+      <c r="G222" s="4" t="n"/>
+      <c r="H222" s="4" t="n"/>
+      <c r="I222" s="4" t="n"/>
+      <c r="J222" s="4" t="n"/>
+      <c r="K222" s="4" t="n"/>
+      <c r="L222" s="4" t="n"/>
+      <c r="M222" s="4" t="n"/>
+      <c r="N222" s="4" t="n"/>
+      <c r="O222" s="4" t="n"/>
+      <c r="P222" s="4" t="n"/>
+      <c r="Q222" s="4" t="n"/>
+      <c r="R222" s="4" t="n"/>
+      <c r="S222" s="4" t="n"/>
+      <c r="T222" s="4" t="n"/>
+      <c r="U222" s="4" t="n"/>
+      <c r="V222" s="4" t="n"/>
+      <c r="W222" s="4" t="n"/>
+      <c r="X222" s="4" t="n"/>
+      <c r="Y222" s="4" t="n"/>
+      <c r="Z222" s="4" t="n"/>
+      <c r="AA222" s="4" t="n"/>
+      <c r="AB222" s="4" t="n"/>
+      <c r="AC222" s="4" t="n"/>
+      <c r="AD222" s="4" t="n"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="n"/>
+      <c r="B223" s="4" t="n"/>
+      <c r="C223" s="4" t="n"/>
+      <c r="D223" s="4" t="n"/>
+      <c r="E223" s="4" t="n"/>
+      <c r="F223" s="4" t="n"/>
+      <c r="G223" s="4" t="n"/>
+      <c r="H223" s="4" t="n"/>
+      <c r="I223" s="4" t="n"/>
+      <c r="J223" s="4" t="n"/>
+      <c r="K223" s="4" t="n"/>
+      <c r="L223" s="4" t="n"/>
+      <c r="M223" s="4" t="n"/>
+      <c r="N223" s="4" t="n"/>
+      <c r="O223" s="4" t="n"/>
+      <c r="P223" s="4" t="n"/>
+      <c r="Q223" s="4" t="n"/>
+      <c r="R223" s="4" t="n"/>
+      <c r="S223" s="4" t="n"/>
+      <c r="T223" s="4" t="n"/>
+      <c r="U223" s="4" t="n"/>
+      <c r="V223" s="4" t="n"/>
+      <c r="W223" s="4" t="n"/>
+      <c r="X223" s="4" t="n"/>
+      <c r="Y223" s="4" t="n"/>
+      <c r="Z223" s="4" t="n"/>
+      <c r="AA223" s="4" t="n"/>
+      <c r="AB223" s="4" t="n"/>
+      <c r="AC223" s="4" t="n"/>
+      <c r="AD223" s="4" t="n"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="4" t="n"/>
+      <c r="B224" s="4" t="n"/>
+      <c r="C224" s="4" t="n"/>
+      <c r="D224" s="4" t="n"/>
+      <c r="E224" s="4" t="n"/>
+      <c r="F224" s="4" t="n"/>
+      <c r="G224" s="4" t="n"/>
+      <c r="H224" s="4" t="n"/>
+      <c r="I224" s="4" t="n"/>
+      <c r="J224" s="4" t="n"/>
+      <c r="K224" s="4" t="n"/>
+      <c r="L224" s="4" t="n"/>
+      <c r="M224" s="4" t="n"/>
+      <c r="N224" s="4" t="n"/>
+      <c r="O224" s="4" t="n"/>
+      <c r="P224" s="4" t="n"/>
+      <c r="Q224" s="4" t="n"/>
+      <c r="R224" s="4" t="n"/>
+      <c r="S224" s="4" t="n"/>
+      <c r="T224" s="4" t="n"/>
+      <c r="U224" s="4" t="n"/>
+      <c r="V224" s="4" t="n"/>
+      <c r="W224" s="4" t="n"/>
+      <c r="X224" s="4" t="n"/>
+      <c r="Y224" s="4" t="n"/>
+      <c r="Z224" s="4" t="n"/>
+      <c r="AA224" s="4" t="n"/>
+      <c r="AB224" s="4" t="n"/>
+      <c r="AC224" s="4" t="n"/>
+      <c r="AD224" s="4" t="n"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="4" t="n"/>
+      <c r="B225" s="4" t="n"/>
+      <c r="C225" s="4" t="n"/>
+      <c r="D225" s="4" t="n"/>
+      <c r="E225" s="4" t="n"/>
+      <c r="F225" s="4" t="n"/>
+      <c r="G225" s="4" t="n"/>
+      <c r="H225" s="4" t="n"/>
+      <c r="I225" s="4" t="n"/>
+      <c r="J225" s="4" t="n"/>
+      <c r="K225" s="4" t="n"/>
+      <c r="L225" s="4" t="n"/>
+      <c r="M225" s="4" t="n"/>
+      <c r="N225" s="4" t="n"/>
+      <c r="O225" s="4" t="n"/>
+      <c r="P225" s="4" t="n"/>
+      <c r="Q225" s="4" t="n"/>
+      <c r="R225" s="4" t="n"/>
+      <c r="S225" s="4" t="n"/>
+      <c r="T225" s="4" t="n"/>
+      <c r="U225" s="4" t="n"/>
+      <c r="V225" s="4" t="n"/>
+      <c r="W225" s="4" t="n"/>
+      <c r="X225" s="4" t="n"/>
+      <c r="Y225" s="4" t="n"/>
+      <c r="Z225" s="4" t="n"/>
+      <c r="AA225" s="4" t="n"/>
+      <c r="AB225" s="4" t="n"/>
+      <c r="AC225" s="4" t="n"/>
+      <c r="AD225" s="4" t="n"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="4" t="n"/>
+      <c r="B226" s="4" t="n"/>
+      <c r="C226" s="4" t="n"/>
+      <c r="D226" s="4" t="n"/>
+      <c r="E226" s="4" t="n"/>
+      <c r="F226" s="4" t="n"/>
+      <c r="G226" s="4" t="n"/>
+      <c r="H226" s="4" t="n"/>
+      <c r="I226" s="4" t="n"/>
+      <c r="J226" s="4" t="n"/>
+      <c r="K226" s="4" t="n"/>
+      <c r="L226" s="4" t="n"/>
+      <c r="M226" s="4" t="n"/>
+      <c r="N226" s="4" t="n"/>
+      <c r="O226" s="4" t="n"/>
+      <c r="P226" s="4" t="n"/>
+      <c r="Q226" s="4" t="n"/>
+      <c r="R226" s="4" t="n"/>
+      <c r="S226" s="4" t="n"/>
+      <c r="T226" s="4" t="n"/>
+      <c r="U226" s="4" t="n"/>
+      <c r="V226" s="4" t="n"/>
+      <c r="W226" s="4" t="n"/>
+      <c r="X226" s="4" t="n"/>
+      <c r="Y226" s="4" t="n"/>
+      <c r="Z226" s="4" t="n"/>
+      <c r="AA226" s="4" t="n"/>
+      <c r="AB226" s="4" t="n"/>
+      <c r="AC226" s="4" t="n"/>
+      <c r="AD226" s="4" t="n"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="4" t="n"/>
+      <c r="B227" s="4" t="n"/>
+      <c r="C227" s="4" t="n"/>
+      <c r="D227" s="4" t="n"/>
+      <c r="E227" s="4" t="n"/>
+      <c r="F227" s="4" t="n"/>
+      <c r="G227" s="4" t="n"/>
+      <c r="H227" s="4" t="n"/>
+      <c r="I227" s="4" t="n"/>
+      <c r="J227" s="4" t="n"/>
+      <c r="K227" s="4" t="n"/>
+      <c r="L227" s="4" t="n"/>
+      <c r="M227" s="4" t="n"/>
+      <c r="N227" s="4" t="n"/>
+      <c r="O227" s="4" t="n"/>
+      <c r="P227" s="4" t="n"/>
+      <c r="Q227" s="4" t="n"/>
+      <c r="R227" s="4" t="n"/>
+      <c r="S227" s="4" t="n"/>
+      <c r="T227" s="4" t="n"/>
+      <c r="U227" s="4" t="n"/>
+      <c r="V227" s="4" t="n"/>
+      <c r="W227" s="4" t="n"/>
+      <c r="X227" s="4" t="n"/>
+      <c r="Y227" s="4" t="n"/>
+      <c r="Z227" s="4" t="n"/>
+      <c r="AA227" s="4" t="n"/>
+      <c r="AB227" s="4" t="n"/>
+      <c r="AC227" s="4" t="n"/>
+      <c r="AD227" s="4" t="n"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="4" t="n"/>
+      <c r="B228" s="4" t="n"/>
+      <c r="C228" s="4" t="n"/>
+      <c r="D228" s="4" t="n"/>
+      <c r="E228" s="4" t="n"/>
+      <c r="F228" s="4" t="n"/>
+      <c r="G228" s="4" t="n"/>
+      <c r="H228" s="4" t="n"/>
+      <c r="I228" s="4" t="n"/>
+      <c r="J228" s="4" t="n"/>
+      <c r="K228" s="4" t="n"/>
+      <c r="L228" s="4" t="n"/>
+      <c r="M228" s="4" t="n"/>
+      <c r="N228" s="4" t="n"/>
+      <c r="O228" s="4" t="n"/>
+      <c r="P228" s="4" t="n"/>
+      <c r="Q228" s="4" t="n"/>
+      <c r="R228" s="4" t="n"/>
+      <c r="S228" s="4" t="n"/>
+      <c r="T228" s="4" t="n"/>
+      <c r="U228" s="4" t="n"/>
+      <c r="V228" s="4" t="n"/>
+      <c r="W228" s="4" t="n"/>
+      <c r="X228" s="4" t="n"/>
+      <c r="Y228" s="4" t="n"/>
+      <c r="Z228" s="4" t="n"/>
+      <c r="AA228" s="4" t="n"/>
+      <c r="AB228" s="4" t="n"/>
+      <c r="AC228" s="4" t="n"/>
+      <c r="AD228" s="4" t="n"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="4" t="n"/>
+      <c r="B229" s="4" t="n"/>
+      <c r="C229" s="4" t="n"/>
+      <c r="D229" s="4" t="n"/>
+      <c r="E229" s="4" t="n"/>
+      <c r="F229" s="4" t="n"/>
+      <c r="G229" s="4" t="n"/>
+      <c r="H229" s="4" t="n"/>
+      <c r="I229" s="4" t="n"/>
+      <c r="J229" s="4" t="n"/>
+      <c r="K229" s="4" t="n"/>
+      <c r="L229" s="4" t="n"/>
+      <c r="M229" s="4" t="n"/>
+      <c r="N229" s="4" t="n"/>
+      <c r="O229" s="4" t="n"/>
+      <c r="P229" s="4" t="n"/>
+      <c r="Q229" s="4" t="n"/>
+      <c r="R229" s="4" t="n"/>
+      <c r="S229" s="4" t="n"/>
+      <c r="T229" s="4" t="n"/>
+      <c r="U229" s="4" t="n"/>
+      <c r="V229" s="4" t="n"/>
+      <c r="W229" s="4" t="n"/>
+      <c r="X229" s="4" t="n"/>
+      <c r="Y229" s="4" t="n"/>
+      <c r="Z229" s="4" t="n"/>
+      <c r="AA229" s="4" t="n"/>
+      <c r="AB229" s="4" t="n"/>
+      <c r="AC229" s="4" t="n"/>
+      <c r="AD229" s="4" t="n"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="4" t="n"/>
+      <c r="B230" s="4" t="n"/>
+      <c r="C230" s="4" t="n"/>
+      <c r="D230" s="4" t="n"/>
+      <c r="E230" s="4" t="n"/>
+      <c r="F230" s="4" t="n"/>
+      <c r="G230" s="4" t="n"/>
+      <c r="H230" s="4" t="n"/>
+      <c r="I230" s="4" t="n"/>
+      <c r="J230" s="4" t="n"/>
+      <c r="K230" s="4" t="n"/>
+      <c r="L230" s="4" t="n"/>
+      <c r="M230" s="4" t="n"/>
+      <c r="N230" s="4" t="n"/>
+      <c r="O230" s="4" t="n"/>
+      <c r="P230" s="4" t="n"/>
+      <c r="Q230" s="4" t="n"/>
+      <c r="R230" s="4" t="n"/>
+      <c r="S230" s="4" t="n"/>
+      <c r="T230" s="4" t="n"/>
+      <c r="U230" s="4" t="n"/>
+      <c r="V230" s="4" t="n"/>
+      <c r="W230" s="4" t="n"/>
+      <c r="X230" s="4" t="n"/>
+      <c r="Y230" s="4" t="n"/>
+      <c r="Z230" s="4" t="n"/>
+      <c r="AA230" s="4" t="n"/>
+      <c r="AB230" s="4" t="n"/>
+      <c r="AC230" s="4" t="n"/>
+      <c r="AD230" s="4" t="n"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="4" t="n"/>
+      <c r="B231" s="4" t="n"/>
+      <c r="C231" s="4" t="n"/>
+      <c r="D231" s="4" t="n"/>
+      <c r="E231" s="4" t="n"/>
+      <c r="F231" s="4" t="n"/>
+      <c r="G231" s="4" t="n"/>
+      <c r="H231" s="4" t="n"/>
+      <c r="I231" s="4" t="n"/>
+      <c r="J231" s="4" t="n"/>
+      <c r="K231" s="4" t="n"/>
+      <c r="L231" s="4" t="n"/>
+      <c r="M231" s="4" t="n"/>
+      <c r="N231" s="4" t="n"/>
+      <c r="O231" s="4" t="n"/>
+      <c r="P231" s="4" t="n"/>
+      <c r="Q231" s="4" t="n"/>
+      <c r="R231" s="4" t="n"/>
+      <c r="S231" s="4" t="n"/>
+      <c r="T231" s="4" t="n"/>
+      <c r="U231" s="4" t="n"/>
+      <c r="V231" s="4" t="n"/>
+      <c r="W231" s="4" t="n"/>
+      <c r="X231" s="4" t="n"/>
+      <c r="Y231" s="4" t="n"/>
+      <c r="Z231" s="4" t="n"/>
+      <c r="AA231" s="4" t="n"/>
+      <c r="AB231" s="4" t="n"/>
+      <c r="AC231" s="4" t="n"/>
+      <c r="AD231" s="4" t="n"/>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="0" autoFilter="1" scenarios="0" formatColumns="0" deleteColumns="0" insertColumns="0" pivotTables="1" deleteRows="1" formatCells="0" formatRows="0" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel_sheets/Microdata_metadata.xlsx
+++ b/excel_sheets/Microdata_metadata.xlsx
@@ -507,7 +507,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>microdata type metadata version 0.1.0</t>
+          <t>metadata_type: microdata, metadata_type_version: 0.1.0</t>
         </is>
       </c>
       <c r="D1" s="2" t="n"/>
